--- a/20_営業/07_会計/TE030/T_TE030_CFO_001_A07_経費精算データのGL勘定API更新抽出_BI Publisher.xlsx
+++ b/20_営業/07_会計/TE030/T_TE030_CFO_001_A07_経費精算データのGL勘定API更新抽出_BI Publisher.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\itoenfile\system\10.共通\02.会計領域SaaS\40.業務系\13_初期流動\02.障害対応\E_本稼動_19452【経費】経費精算計上部門\20_成果物\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\itoenfile\system\30.SCSK\92_分社化\20_構築\10_成果物\20_単体テスト仕様書\49_経費\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,18 +23,20 @@
     <sheet name="テスト・シナリオ2_別紙" sheetId="13" r:id="rId9"/>
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ3) " sheetId="11" r:id="rId10"/>
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ4)" sheetId="14" r:id="rId11"/>
-    <sheet name="不具合ログ" sheetId="7" r:id="rId12"/>
-    <sheet name="未完了の課題と完了済みの課題" sheetId="8" r:id="rId13"/>
+    <sheet name="テスト仕様_テスト結果(テスト・シナリオ5)" sheetId="15" r:id="rId12"/>
+    <sheet name="不具合ログ" sheetId="7" r:id="rId13"/>
+    <sheet name="未完了の課題と完了済みの課題" sheetId="8" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">テスト・シナリオ一覧!$A$1:$F$19</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">テスト仕様_データ・プロファイル!$A$1:$C$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">テスト仕様_データ・プロファイル!$A$1:$C$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'テスト仕様_テスト結果(テスト・シナリオ1)'!$A$1:$I$48</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'テスト仕様_テスト結果(テスト・シナリオ2)'!$A$1:$I$51</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">'テスト仕様_テスト結果(テスト・シナリオ3) '!$A$1:$I$45</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">'テスト仕様_テスト結果(テスト・シナリオ4)'!$A$1:$I$48</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="11">'テスト仕様_テスト結果(テスト・シナリオ5)'!$A$1:$I$48</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">作成上の注意点!$A$1:$M$37</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">文書管理!$A$1:$I$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">文書管理!$A$1:$I$17</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="464">
   <si>
     <t>株式会社伊藤園</t>
     <phoneticPr fontId="5"/>
@@ -2799,10 +2801,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>Issue1.1</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>デフォルト費用勘定取得</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -2861,6 +2859,113 @@
   <si>
     <t>シナリオ4</t>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Issue1.2</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>SCSK 劉勇</t>
+    <rPh sb="5" eb="6">
+      <t>リュウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>イサム</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Issue1.2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>E_本稼動_19496</t>
+    <rPh sb="2" eb="3">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カドウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>会社コード取得</t>
+    <rPh sb="0" eb="2">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>シナリオ5</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テスト・シナリオ5</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>5-1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>会社コードの確認</t>
+    <rPh sb="0" eb="2">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参照タイプの開始日付によって会社コードが設定される。</t>
+    <rPh sb="0" eb="2">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">結合テストNo.4-9で確認。
+T_TE040_SPF_CFO_001_経費精算書.xlsx
+シナリオ4
+</t>
+    <rPh sb="0" eb="2">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>劉</t>
+    <rPh sb="0" eb="1">
+      <t>リュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テスト・シナリオ4</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>テスト・シナリオ5</t>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
@@ -2872,7 +2977,7 @@
     <numFmt numFmtId="177" formatCode="mmm\ dd\ yyyy"/>
     <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3089,6 +3194,29 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF00FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF00FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF00FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="14">
@@ -3908,7 +4036,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="278">
+  <cellXfs count="281">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4515,6 +4643,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4701,6 +4832,12 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8"/>
@@ -4713,6 +4850,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF99CC"/>
       <color rgb="FFFF00FF"/>
       <color rgb="FF0000FF"/>
       <color rgb="FFC0C0C0"/>
@@ -7977,6 +8115,731 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="251460" y="30297120"/>
+          <a:ext cx="6939915" cy="2606040"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>【TE.020作成時の注意点】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: テスト・シナリオ毎のテスト・ステップを記載して下さい。コンカレント・プログラムの場合は各プロセスの内部処理、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>        画面の場合は各機能の内部処理で、結果が分岐しうる処理を網羅するようにして下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 「テスト内容」には、テスト・ステップ毎のテスト内容を記載して下さい。また、記載の上の注意は、以下を参照して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・処理が分岐しうる条件を、カラム名単位で詳細に記載して下さい。その際、カラム名は、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>               検証のポイントとなるカラムを選択して記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>　                 例：○○フラグ＝'Y'によって抽出対象となる事を確認</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・データ取得ロジック(SELECT文)を確認する場合、SELECTできないケースも記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・１データを複数のテスト・ステップで使用する場合、以下の例を参考に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>                   例：シナリオX-Xと同時検証</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 「テスト対象機能」には、「MD.050機能拡張に当っての機能設計書」（または「MD.070 機能拡張にあたっての</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>        技術設計書」）で定義される「機能番号」および「機能名」を記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 画面テストの際に画面から入力する値は、「テスト内容」欄に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: コンカレント、共通関数のテスト実施の際に使用するパラメータは、「テスト内容」欄に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>93345</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="251460" y="32998410"/>
+          <a:ext cx="6939915" cy="2802255"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>【TE.070作成時の注意点】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: テスト結果表に単体テスト結果を記載する際には、次のガイドラインに従います。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            1）予想結果: 成否判定が可能な予想される結果または出力を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>                    例：○○フラグ＝'Y'により抽出対象となる、××IDが不一致のため更新対象外となる</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            2）実際の結果: 実際にテスト・ステップで定義された内容でテストを実施した際の、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>               予想結果に対応する実際の結果または出力を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            3）判定: 予想結果と実際の結果を比較し、テストの成否を判定した結果を以下の3つの記号で記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・○: テスト成功</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・×: テスト失敗</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・－: 対象外（前ステップでテストが失敗し、テストが実施できなかったような場合に使用します。）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            4）テスター: テスト実施者名を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            5）実施日: テスト実施日の年月日を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: パフォーマンス・テスト用のテスト・シナリオの場合、「予想結果」、「実際の結果」に処理時間を記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 再テストの場合、行を挿入して再テスト結果を記載してください。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2447925</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>93345</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="28575" y="29477970"/>
+          <a:ext cx="3303270" cy="455295"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 他に添付するエビデンスなどがあれば</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>         記述します。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -8597,15 +9460,15 @@
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="2:8" ht="64.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="216" t="s">
+      <c r="B6" s="217" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="216"/>
-      <c r="D6" s="216"/>
-      <c r="E6" s="216"/>
-      <c r="F6" s="216"/>
-      <c r="G6" s="216"/>
-      <c r="H6" s="216"/>
+      <c r="C6" s="217"/>
+      <c r="D6" s="217"/>
+      <c r="E6" s="217"/>
+      <c r="F6" s="217"/>
+      <c r="G6" s="217"/>
+      <c r="H6" s="217"/>
     </row>
     <row r="7" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="5"/>
@@ -8614,41 +9477,41 @@
       <c r="B8" s="5"/>
     </row>
     <row r="9" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="217" t="s">
+      <c r="B9" s="218" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="217"/>
-      <c r="D9" s="217"/>
-      <c r="E9" s="217"/>
-      <c r="F9" s="217"/>
-      <c r="G9" s="217"/>
-      <c r="H9" s="217"/>
+      <c r="C9" s="218"/>
+      <c r="D9" s="218"/>
+      <c r="E9" s="218"/>
+      <c r="F9" s="218"/>
+      <c r="G9" s="218"/>
+      <c r="H9" s="218"/>
     </row>
     <row r="10" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="5"/>
     </row>
     <row r="11" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="217" t="s">
+      <c r="B11" s="218" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="217"/>
-      <c r="D11" s="217"/>
-      <c r="E11" s="217"/>
-      <c r="F11" s="217"/>
-      <c r="G11" s="217"/>
-      <c r="H11" s="217"/>
+      <c r="C11" s="218"/>
+      <c r="D11" s="218"/>
+      <c r="E11" s="218"/>
+      <c r="F11" s="218"/>
+      <c r="G11" s="218"/>
+      <c r="H11" s="218"/>
     </row>
     <row r="12" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="217" t="s">
+      <c r="B13" s="218" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="217"/>
-      <c r="D13" s="217"/>
-      <c r="E13" s="217"/>
-      <c r="F13" s="217"/>
-      <c r="G13" s="217"/>
-      <c r="H13" s="217"/>
+      <c r="C13" s="218"/>
+      <c r="D13" s="218"/>
+      <c r="E13" s="218"/>
+      <c r="F13" s="218"/>
+      <c r="G13" s="218"/>
+      <c r="H13" s="218"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" s="6"/>
@@ -8685,7 +9548,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="7">
-        <v>45162</v>
+        <v>45358</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.2">
@@ -8709,7 +9572,7 @@
         <v>4</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -9805,7 +10668,6 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FFFF00FF"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I47"/>
@@ -10426,7 +11288,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" s="37" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
@@ -10463,25 +11325,25 @@
     <row r="11" spans="1:9" ht="38.4" x14ac:dyDescent="0.2">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
+        <v>444</v>
+      </c>
+      <c r="C11" s="46" t="s">
         <v>445</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="D11" s="46" t="s">
         <v>446</v>
-      </c>
-      <c r="D11" s="46" t="s">
-        <v>447</v>
       </c>
       <c r="E11" s="122" t="s">
         <v>86</v>
       </c>
       <c r="F11" s="51" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G11" s="51" t="s">
         <v>369</v>
       </c>
       <c r="H11" s="51" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I11" s="78">
         <v>45163</v>
@@ -10806,7 +11668,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B43" s="215" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
@@ -10871,6 +11733,1074 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF99CC"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I47"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.109375" style="27" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" style="27" customWidth="1"/>
+    <col min="3" max="3" width="40.109375" style="27" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="21.6640625" style="27" customWidth="1"/>
+    <col min="7" max="7" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" style="27" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="27" customWidth="1"/>
+    <col min="10" max="256" width="8.88671875" style="27"/>
+    <col min="257" max="257" width="3.109375" style="27" customWidth="1"/>
+    <col min="258" max="258" width="9.77734375" style="27" customWidth="1"/>
+    <col min="259" max="259" width="40.109375" style="27" customWidth="1"/>
+    <col min="260" max="260" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="261" max="262" width="21.6640625" style="27" customWidth="1"/>
+    <col min="263" max="263" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="10.109375" style="27" customWidth="1"/>
+    <col min="265" max="265" width="11.6640625" style="27" customWidth="1"/>
+    <col min="266" max="512" width="8.88671875" style="27"/>
+    <col min="513" max="513" width="3.109375" style="27" customWidth="1"/>
+    <col min="514" max="514" width="9.77734375" style="27" customWidth="1"/>
+    <col min="515" max="515" width="40.109375" style="27" customWidth="1"/>
+    <col min="516" max="516" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="517" max="518" width="21.6640625" style="27" customWidth="1"/>
+    <col min="519" max="519" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="520" max="520" width="10.109375" style="27" customWidth="1"/>
+    <col min="521" max="521" width="11.6640625" style="27" customWidth="1"/>
+    <col min="522" max="768" width="8.88671875" style="27"/>
+    <col min="769" max="769" width="3.109375" style="27" customWidth="1"/>
+    <col min="770" max="770" width="9.77734375" style="27" customWidth="1"/>
+    <col min="771" max="771" width="40.109375" style="27" customWidth="1"/>
+    <col min="772" max="772" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="773" max="774" width="21.6640625" style="27" customWidth="1"/>
+    <col min="775" max="775" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="776" max="776" width="10.109375" style="27" customWidth="1"/>
+    <col min="777" max="777" width="11.6640625" style="27" customWidth="1"/>
+    <col min="778" max="1024" width="8.88671875" style="27"/>
+    <col min="1025" max="1025" width="3.109375" style="27" customWidth="1"/>
+    <col min="1026" max="1026" width="9.77734375" style="27" customWidth="1"/>
+    <col min="1027" max="1027" width="40.109375" style="27" customWidth="1"/>
+    <col min="1028" max="1028" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1030" width="21.6640625" style="27" customWidth="1"/>
+    <col min="1031" max="1031" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1032" width="10.109375" style="27" customWidth="1"/>
+    <col min="1033" max="1033" width="11.6640625" style="27" customWidth="1"/>
+    <col min="1034" max="1280" width="8.88671875" style="27"/>
+    <col min="1281" max="1281" width="3.109375" style="27" customWidth="1"/>
+    <col min="1282" max="1282" width="9.77734375" style="27" customWidth="1"/>
+    <col min="1283" max="1283" width="40.109375" style="27" customWidth="1"/>
+    <col min="1284" max="1284" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1286" width="21.6640625" style="27" customWidth="1"/>
+    <col min="1287" max="1287" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1288" width="10.109375" style="27" customWidth="1"/>
+    <col min="1289" max="1289" width="11.6640625" style="27" customWidth="1"/>
+    <col min="1290" max="1536" width="8.88671875" style="27"/>
+    <col min="1537" max="1537" width="3.109375" style="27" customWidth="1"/>
+    <col min="1538" max="1538" width="9.77734375" style="27" customWidth="1"/>
+    <col min="1539" max="1539" width="40.109375" style="27" customWidth="1"/>
+    <col min="1540" max="1540" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1542" width="21.6640625" style="27" customWidth="1"/>
+    <col min="1543" max="1543" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1544" width="10.109375" style="27" customWidth="1"/>
+    <col min="1545" max="1545" width="11.6640625" style="27" customWidth="1"/>
+    <col min="1546" max="1792" width="8.88671875" style="27"/>
+    <col min="1793" max="1793" width="3.109375" style="27" customWidth="1"/>
+    <col min="1794" max="1794" width="9.77734375" style="27" customWidth="1"/>
+    <col min="1795" max="1795" width="40.109375" style="27" customWidth="1"/>
+    <col min="1796" max="1796" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1798" width="21.6640625" style="27" customWidth="1"/>
+    <col min="1799" max="1799" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1800" width="10.109375" style="27" customWidth="1"/>
+    <col min="1801" max="1801" width="11.6640625" style="27" customWidth="1"/>
+    <col min="1802" max="2048" width="8.88671875" style="27"/>
+    <col min="2049" max="2049" width="3.109375" style="27" customWidth="1"/>
+    <col min="2050" max="2050" width="9.77734375" style="27" customWidth="1"/>
+    <col min="2051" max="2051" width="40.109375" style="27" customWidth="1"/>
+    <col min="2052" max="2052" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2054" width="21.6640625" style="27" customWidth="1"/>
+    <col min="2055" max="2055" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2056" width="10.109375" style="27" customWidth="1"/>
+    <col min="2057" max="2057" width="11.6640625" style="27" customWidth="1"/>
+    <col min="2058" max="2304" width="8.88671875" style="27"/>
+    <col min="2305" max="2305" width="3.109375" style="27" customWidth="1"/>
+    <col min="2306" max="2306" width="9.77734375" style="27" customWidth="1"/>
+    <col min="2307" max="2307" width="40.109375" style="27" customWidth="1"/>
+    <col min="2308" max="2308" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2310" width="21.6640625" style="27" customWidth="1"/>
+    <col min="2311" max="2311" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2312" width="10.109375" style="27" customWidth="1"/>
+    <col min="2313" max="2313" width="11.6640625" style="27" customWidth="1"/>
+    <col min="2314" max="2560" width="8.88671875" style="27"/>
+    <col min="2561" max="2561" width="3.109375" style="27" customWidth="1"/>
+    <col min="2562" max="2562" width="9.77734375" style="27" customWidth="1"/>
+    <col min="2563" max="2563" width="40.109375" style="27" customWidth="1"/>
+    <col min="2564" max="2564" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2566" width="21.6640625" style="27" customWidth="1"/>
+    <col min="2567" max="2567" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2568" width="10.109375" style="27" customWidth="1"/>
+    <col min="2569" max="2569" width="11.6640625" style="27" customWidth="1"/>
+    <col min="2570" max="2816" width="8.88671875" style="27"/>
+    <col min="2817" max="2817" width="3.109375" style="27" customWidth="1"/>
+    <col min="2818" max="2818" width="9.77734375" style="27" customWidth="1"/>
+    <col min="2819" max="2819" width="40.109375" style="27" customWidth="1"/>
+    <col min="2820" max="2820" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2822" width="21.6640625" style="27" customWidth="1"/>
+    <col min="2823" max="2823" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2824" width="10.109375" style="27" customWidth="1"/>
+    <col min="2825" max="2825" width="11.6640625" style="27" customWidth="1"/>
+    <col min="2826" max="3072" width="8.88671875" style="27"/>
+    <col min="3073" max="3073" width="3.109375" style="27" customWidth="1"/>
+    <col min="3074" max="3074" width="9.77734375" style="27" customWidth="1"/>
+    <col min="3075" max="3075" width="40.109375" style="27" customWidth="1"/>
+    <col min="3076" max="3076" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3078" width="21.6640625" style="27" customWidth="1"/>
+    <col min="3079" max="3079" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3080" width="10.109375" style="27" customWidth="1"/>
+    <col min="3081" max="3081" width="11.6640625" style="27" customWidth="1"/>
+    <col min="3082" max="3328" width="8.88671875" style="27"/>
+    <col min="3329" max="3329" width="3.109375" style="27" customWidth="1"/>
+    <col min="3330" max="3330" width="9.77734375" style="27" customWidth="1"/>
+    <col min="3331" max="3331" width="40.109375" style="27" customWidth="1"/>
+    <col min="3332" max="3332" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3334" width="21.6640625" style="27" customWidth="1"/>
+    <col min="3335" max="3335" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3336" width="10.109375" style="27" customWidth="1"/>
+    <col min="3337" max="3337" width="11.6640625" style="27" customWidth="1"/>
+    <col min="3338" max="3584" width="8.88671875" style="27"/>
+    <col min="3585" max="3585" width="3.109375" style="27" customWidth="1"/>
+    <col min="3586" max="3586" width="9.77734375" style="27" customWidth="1"/>
+    <col min="3587" max="3587" width="40.109375" style="27" customWidth="1"/>
+    <col min="3588" max="3588" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3590" width="21.6640625" style="27" customWidth="1"/>
+    <col min="3591" max="3591" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3592" width="10.109375" style="27" customWidth="1"/>
+    <col min="3593" max="3593" width="11.6640625" style="27" customWidth="1"/>
+    <col min="3594" max="3840" width="8.88671875" style="27"/>
+    <col min="3841" max="3841" width="3.109375" style="27" customWidth="1"/>
+    <col min="3842" max="3842" width="9.77734375" style="27" customWidth="1"/>
+    <col min="3843" max="3843" width="40.109375" style="27" customWidth="1"/>
+    <col min="3844" max="3844" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3846" width="21.6640625" style="27" customWidth="1"/>
+    <col min="3847" max="3847" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3848" width="10.109375" style="27" customWidth="1"/>
+    <col min="3849" max="3849" width="11.6640625" style="27" customWidth="1"/>
+    <col min="3850" max="4096" width="8.88671875" style="27"/>
+    <col min="4097" max="4097" width="3.109375" style="27" customWidth="1"/>
+    <col min="4098" max="4098" width="9.77734375" style="27" customWidth="1"/>
+    <col min="4099" max="4099" width="40.109375" style="27" customWidth="1"/>
+    <col min="4100" max="4100" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4102" width="21.6640625" style="27" customWidth="1"/>
+    <col min="4103" max="4103" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4104" width="10.109375" style="27" customWidth="1"/>
+    <col min="4105" max="4105" width="11.6640625" style="27" customWidth="1"/>
+    <col min="4106" max="4352" width="8.88671875" style="27"/>
+    <col min="4353" max="4353" width="3.109375" style="27" customWidth="1"/>
+    <col min="4354" max="4354" width="9.77734375" style="27" customWidth="1"/>
+    <col min="4355" max="4355" width="40.109375" style="27" customWidth="1"/>
+    <col min="4356" max="4356" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4358" width="21.6640625" style="27" customWidth="1"/>
+    <col min="4359" max="4359" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4360" width="10.109375" style="27" customWidth="1"/>
+    <col min="4361" max="4361" width="11.6640625" style="27" customWidth="1"/>
+    <col min="4362" max="4608" width="8.88671875" style="27"/>
+    <col min="4609" max="4609" width="3.109375" style="27" customWidth="1"/>
+    <col min="4610" max="4610" width="9.77734375" style="27" customWidth="1"/>
+    <col min="4611" max="4611" width="40.109375" style="27" customWidth="1"/>
+    <col min="4612" max="4612" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4614" width="21.6640625" style="27" customWidth="1"/>
+    <col min="4615" max="4615" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4616" width="10.109375" style="27" customWidth="1"/>
+    <col min="4617" max="4617" width="11.6640625" style="27" customWidth="1"/>
+    <col min="4618" max="4864" width="8.88671875" style="27"/>
+    <col min="4865" max="4865" width="3.109375" style="27" customWidth="1"/>
+    <col min="4866" max="4866" width="9.77734375" style="27" customWidth="1"/>
+    <col min="4867" max="4867" width="40.109375" style="27" customWidth="1"/>
+    <col min="4868" max="4868" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4870" width="21.6640625" style="27" customWidth="1"/>
+    <col min="4871" max="4871" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4872" width="10.109375" style="27" customWidth="1"/>
+    <col min="4873" max="4873" width="11.6640625" style="27" customWidth="1"/>
+    <col min="4874" max="5120" width="8.88671875" style="27"/>
+    <col min="5121" max="5121" width="3.109375" style="27" customWidth="1"/>
+    <col min="5122" max="5122" width="9.77734375" style="27" customWidth="1"/>
+    <col min="5123" max="5123" width="40.109375" style="27" customWidth="1"/>
+    <col min="5124" max="5124" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5126" width="21.6640625" style="27" customWidth="1"/>
+    <col min="5127" max="5127" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5128" width="10.109375" style="27" customWidth="1"/>
+    <col min="5129" max="5129" width="11.6640625" style="27" customWidth="1"/>
+    <col min="5130" max="5376" width="8.88671875" style="27"/>
+    <col min="5377" max="5377" width="3.109375" style="27" customWidth="1"/>
+    <col min="5378" max="5378" width="9.77734375" style="27" customWidth="1"/>
+    <col min="5379" max="5379" width="40.109375" style="27" customWidth="1"/>
+    <col min="5380" max="5380" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5382" width="21.6640625" style="27" customWidth="1"/>
+    <col min="5383" max="5383" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5384" width="10.109375" style="27" customWidth="1"/>
+    <col min="5385" max="5385" width="11.6640625" style="27" customWidth="1"/>
+    <col min="5386" max="5632" width="8.88671875" style="27"/>
+    <col min="5633" max="5633" width="3.109375" style="27" customWidth="1"/>
+    <col min="5634" max="5634" width="9.77734375" style="27" customWidth="1"/>
+    <col min="5635" max="5635" width="40.109375" style="27" customWidth="1"/>
+    <col min="5636" max="5636" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5638" width="21.6640625" style="27" customWidth="1"/>
+    <col min="5639" max="5639" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5640" width="10.109375" style="27" customWidth="1"/>
+    <col min="5641" max="5641" width="11.6640625" style="27" customWidth="1"/>
+    <col min="5642" max="5888" width="8.88671875" style="27"/>
+    <col min="5889" max="5889" width="3.109375" style="27" customWidth="1"/>
+    <col min="5890" max="5890" width="9.77734375" style="27" customWidth="1"/>
+    <col min="5891" max="5891" width="40.109375" style="27" customWidth="1"/>
+    <col min="5892" max="5892" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5894" width="21.6640625" style="27" customWidth="1"/>
+    <col min="5895" max="5895" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5896" width="10.109375" style="27" customWidth="1"/>
+    <col min="5897" max="5897" width="11.6640625" style="27" customWidth="1"/>
+    <col min="5898" max="6144" width="8.88671875" style="27"/>
+    <col min="6145" max="6145" width="3.109375" style="27" customWidth="1"/>
+    <col min="6146" max="6146" width="9.77734375" style="27" customWidth="1"/>
+    <col min="6147" max="6147" width="40.109375" style="27" customWidth="1"/>
+    <col min="6148" max="6148" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6150" width="21.6640625" style="27" customWidth="1"/>
+    <col min="6151" max="6151" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6152" width="10.109375" style="27" customWidth="1"/>
+    <col min="6153" max="6153" width="11.6640625" style="27" customWidth="1"/>
+    <col min="6154" max="6400" width="8.88671875" style="27"/>
+    <col min="6401" max="6401" width="3.109375" style="27" customWidth="1"/>
+    <col min="6402" max="6402" width="9.77734375" style="27" customWidth="1"/>
+    <col min="6403" max="6403" width="40.109375" style="27" customWidth="1"/>
+    <col min="6404" max="6404" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6406" width="21.6640625" style="27" customWidth="1"/>
+    <col min="6407" max="6407" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6408" width="10.109375" style="27" customWidth="1"/>
+    <col min="6409" max="6409" width="11.6640625" style="27" customWidth="1"/>
+    <col min="6410" max="6656" width="8.88671875" style="27"/>
+    <col min="6657" max="6657" width="3.109375" style="27" customWidth="1"/>
+    <col min="6658" max="6658" width="9.77734375" style="27" customWidth="1"/>
+    <col min="6659" max="6659" width="40.109375" style="27" customWidth="1"/>
+    <col min="6660" max="6660" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6662" width="21.6640625" style="27" customWidth="1"/>
+    <col min="6663" max="6663" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6664" width="10.109375" style="27" customWidth="1"/>
+    <col min="6665" max="6665" width="11.6640625" style="27" customWidth="1"/>
+    <col min="6666" max="6912" width="8.88671875" style="27"/>
+    <col min="6913" max="6913" width="3.109375" style="27" customWidth="1"/>
+    <col min="6914" max="6914" width="9.77734375" style="27" customWidth="1"/>
+    <col min="6915" max="6915" width="40.109375" style="27" customWidth="1"/>
+    <col min="6916" max="6916" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6918" width="21.6640625" style="27" customWidth="1"/>
+    <col min="6919" max="6919" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6920" width="10.109375" style="27" customWidth="1"/>
+    <col min="6921" max="6921" width="11.6640625" style="27" customWidth="1"/>
+    <col min="6922" max="7168" width="8.88671875" style="27"/>
+    <col min="7169" max="7169" width="3.109375" style="27" customWidth="1"/>
+    <col min="7170" max="7170" width="9.77734375" style="27" customWidth="1"/>
+    <col min="7171" max="7171" width="40.109375" style="27" customWidth="1"/>
+    <col min="7172" max="7172" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7174" width="21.6640625" style="27" customWidth="1"/>
+    <col min="7175" max="7175" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7176" width="10.109375" style="27" customWidth="1"/>
+    <col min="7177" max="7177" width="11.6640625" style="27" customWidth="1"/>
+    <col min="7178" max="7424" width="8.88671875" style="27"/>
+    <col min="7425" max="7425" width="3.109375" style="27" customWidth="1"/>
+    <col min="7426" max="7426" width="9.77734375" style="27" customWidth="1"/>
+    <col min="7427" max="7427" width="40.109375" style="27" customWidth="1"/>
+    <col min="7428" max="7428" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7430" width="21.6640625" style="27" customWidth="1"/>
+    <col min="7431" max="7431" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7432" width="10.109375" style="27" customWidth="1"/>
+    <col min="7433" max="7433" width="11.6640625" style="27" customWidth="1"/>
+    <col min="7434" max="7680" width="8.88671875" style="27"/>
+    <col min="7681" max="7681" width="3.109375" style="27" customWidth="1"/>
+    <col min="7682" max="7682" width="9.77734375" style="27" customWidth="1"/>
+    <col min="7683" max="7683" width="40.109375" style="27" customWidth="1"/>
+    <col min="7684" max="7684" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7686" width="21.6640625" style="27" customWidth="1"/>
+    <col min="7687" max="7687" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7688" width="10.109375" style="27" customWidth="1"/>
+    <col min="7689" max="7689" width="11.6640625" style="27" customWidth="1"/>
+    <col min="7690" max="7936" width="8.88671875" style="27"/>
+    <col min="7937" max="7937" width="3.109375" style="27" customWidth="1"/>
+    <col min="7938" max="7938" width="9.77734375" style="27" customWidth="1"/>
+    <col min="7939" max="7939" width="40.109375" style="27" customWidth="1"/>
+    <col min="7940" max="7940" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7942" width="21.6640625" style="27" customWidth="1"/>
+    <col min="7943" max="7943" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7944" width="10.109375" style="27" customWidth="1"/>
+    <col min="7945" max="7945" width="11.6640625" style="27" customWidth="1"/>
+    <col min="7946" max="8192" width="8.88671875" style="27"/>
+    <col min="8193" max="8193" width="3.109375" style="27" customWidth="1"/>
+    <col min="8194" max="8194" width="9.77734375" style="27" customWidth="1"/>
+    <col min="8195" max="8195" width="40.109375" style="27" customWidth="1"/>
+    <col min="8196" max="8196" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8198" width="21.6640625" style="27" customWidth="1"/>
+    <col min="8199" max="8199" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8200" width="10.109375" style="27" customWidth="1"/>
+    <col min="8201" max="8201" width="11.6640625" style="27" customWidth="1"/>
+    <col min="8202" max="8448" width="8.88671875" style="27"/>
+    <col min="8449" max="8449" width="3.109375" style="27" customWidth="1"/>
+    <col min="8450" max="8450" width="9.77734375" style="27" customWidth="1"/>
+    <col min="8451" max="8451" width="40.109375" style="27" customWidth="1"/>
+    <col min="8452" max="8452" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8454" width="21.6640625" style="27" customWidth="1"/>
+    <col min="8455" max="8455" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8456" width="10.109375" style="27" customWidth="1"/>
+    <col min="8457" max="8457" width="11.6640625" style="27" customWidth="1"/>
+    <col min="8458" max="8704" width="8.88671875" style="27"/>
+    <col min="8705" max="8705" width="3.109375" style="27" customWidth="1"/>
+    <col min="8706" max="8706" width="9.77734375" style="27" customWidth="1"/>
+    <col min="8707" max="8707" width="40.109375" style="27" customWidth="1"/>
+    <col min="8708" max="8708" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8710" width="21.6640625" style="27" customWidth="1"/>
+    <col min="8711" max="8711" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8712" width="10.109375" style="27" customWidth="1"/>
+    <col min="8713" max="8713" width="11.6640625" style="27" customWidth="1"/>
+    <col min="8714" max="8960" width="8.88671875" style="27"/>
+    <col min="8961" max="8961" width="3.109375" style="27" customWidth="1"/>
+    <col min="8962" max="8962" width="9.77734375" style="27" customWidth="1"/>
+    <col min="8963" max="8963" width="40.109375" style="27" customWidth="1"/>
+    <col min="8964" max="8964" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8966" width="21.6640625" style="27" customWidth="1"/>
+    <col min="8967" max="8967" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8968" width="10.109375" style="27" customWidth="1"/>
+    <col min="8969" max="8969" width="11.6640625" style="27" customWidth="1"/>
+    <col min="8970" max="9216" width="8.88671875" style="27"/>
+    <col min="9217" max="9217" width="3.109375" style="27" customWidth="1"/>
+    <col min="9218" max="9218" width="9.77734375" style="27" customWidth="1"/>
+    <col min="9219" max="9219" width="40.109375" style="27" customWidth="1"/>
+    <col min="9220" max="9220" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9222" width="21.6640625" style="27" customWidth="1"/>
+    <col min="9223" max="9223" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9224" width="10.109375" style="27" customWidth="1"/>
+    <col min="9225" max="9225" width="11.6640625" style="27" customWidth="1"/>
+    <col min="9226" max="9472" width="8.88671875" style="27"/>
+    <col min="9473" max="9473" width="3.109375" style="27" customWidth="1"/>
+    <col min="9474" max="9474" width="9.77734375" style="27" customWidth="1"/>
+    <col min="9475" max="9475" width="40.109375" style="27" customWidth="1"/>
+    <col min="9476" max="9476" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9478" width="21.6640625" style="27" customWidth="1"/>
+    <col min="9479" max="9479" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9480" width="10.109375" style="27" customWidth="1"/>
+    <col min="9481" max="9481" width="11.6640625" style="27" customWidth="1"/>
+    <col min="9482" max="9728" width="8.88671875" style="27"/>
+    <col min="9729" max="9729" width="3.109375" style="27" customWidth="1"/>
+    <col min="9730" max="9730" width="9.77734375" style="27" customWidth="1"/>
+    <col min="9731" max="9731" width="40.109375" style="27" customWidth="1"/>
+    <col min="9732" max="9732" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9734" width="21.6640625" style="27" customWidth="1"/>
+    <col min="9735" max="9735" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9736" width="10.109375" style="27" customWidth="1"/>
+    <col min="9737" max="9737" width="11.6640625" style="27" customWidth="1"/>
+    <col min="9738" max="9984" width="8.88671875" style="27"/>
+    <col min="9985" max="9985" width="3.109375" style="27" customWidth="1"/>
+    <col min="9986" max="9986" width="9.77734375" style="27" customWidth="1"/>
+    <col min="9987" max="9987" width="40.109375" style="27" customWidth="1"/>
+    <col min="9988" max="9988" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9990" width="21.6640625" style="27" customWidth="1"/>
+    <col min="9991" max="9991" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9992" width="10.109375" style="27" customWidth="1"/>
+    <col min="9993" max="9993" width="11.6640625" style="27" customWidth="1"/>
+    <col min="9994" max="10240" width="8.88671875" style="27"/>
+    <col min="10241" max="10241" width="3.109375" style="27" customWidth="1"/>
+    <col min="10242" max="10242" width="9.77734375" style="27" customWidth="1"/>
+    <col min="10243" max="10243" width="40.109375" style="27" customWidth="1"/>
+    <col min="10244" max="10244" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10246" width="21.6640625" style="27" customWidth="1"/>
+    <col min="10247" max="10247" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10248" width="10.109375" style="27" customWidth="1"/>
+    <col min="10249" max="10249" width="11.6640625" style="27" customWidth="1"/>
+    <col min="10250" max="10496" width="8.88671875" style="27"/>
+    <col min="10497" max="10497" width="3.109375" style="27" customWidth="1"/>
+    <col min="10498" max="10498" width="9.77734375" style="27" customWidth="1"/>
+    <col min="10499" max="10499" width="40.109375" style="27" customWidth="1"/>
+    <col min="10500" max="10500" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10502" width="21.6640625" style="27" customWidth="1"/>
+    <col min="10503" max="10503" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10504" width="10.109375" style="27" customWidth="1"/>
+    <col min="10505" max="10505" width="11.6640625" style="27" customWidth="1"/>
+    <col min="10506" max="10752" width="8.88671875" style="27"/>
+    <col min="10753" max="10753" width="3.109375" style="27" customWidth="1"/>
+    <col min="10754" max="10754" width="9.77734375" style="27" customWidth="1"/>
+    <col min="10755" max="10755" width="40.109375" style="27" customWidth="1"/>
+    <col min="10756" max="10756" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10758" width="21.6640625" style="27" customWidth="1"/>
+    <col min="10759" max="10759" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10760" width="10.109375" style="27" customWidth="1"/>
+    <col min="10761" max="10761" width="11.6640625" style="27" customWidth="1"/>
+    <col min="10762" max="11008" width="8.88671875" style="27"/>
+    <col min="11009" max="11009" width="3.109375" style="27" customWidth="1"/>
+    <col min="11010" max="11010" width="9.77734375" style="27" customWidth="1"/>
+    <col min="11011" max="11011" width="40.109375" style="27" customWidth="1"/>
+    <col min="11012" max="11012" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11014" width="21.6640625" style="27" customWidth="1"/>
+    <col min="11015" max="11015" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11016" width="10.109375" style="27" customWidth="1"/>
+    <col min="11017" max="11017" width="11.6640625" style="27" customWidth="1"/>
+    <col min="11018" max="11264" width="8.88671875" style="27"/>
+    <col min="11265" max="11265" width="3.109375" style="27" customWidth="1"/>
+    <col min="11266" max="11266" width="9.77734375" style="27" customWidth="1"/>
+    <col min="11267" max="11267" width="40.109375" style="27" customWidth="1"/>
+    <col min="11268" max="11268" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11270" width="21.6640625" style="27" customWidth="1"/>
+    <col min="11271" max="11271" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11272" width="10.109375" style="27" customWidth="1"/>
+    <col min="11273" max="11273" width="11.6640625" style="27" customWidth="1"/>
+    <col min="11274" max="11520" width="8.88671875" style="27"/>
+    <col min="11521" max="11521" width="3.109375" style="27" customWidth="1"/>
+    <col min="11522" max="11522" width="9.77734375" style="27" customWidth="1"/>
+    <col min="11523" max="11523" width="40.109375" style="27" customWidth="1"/>
+    <col min="11524" max="11524" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11526" width="21.6640625" style="27" customWidth="1"/>
+    <col min="11527" max="11527" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11528" width="10.109375" style="27" customWidth="1"/>
+    <col min="11529" max="11529" width="11.6640625" style="27" customWidth="1"/>
+    <col min="11530" max="11776" width="8.88671875" style="27"/>
+    <col min="11777" max="11777" width="3.109375" style="27" customWidth="1"/>
+    <col min="11778" max="11778" width="9.77734375" style="27" customWidth="1"/>
+    <col min="11779" max="11779" width="40.109375" style="27" customWidth="1"/>
+    <col min="11780" max="11780" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11782" width="21.6640625" style="27" customWidth="1"/>
+    <col min="11783" max="11783" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11784" width="10.109375" style="27" customWidth="1"/>
+    <col min="11785" max="11785" width="11.6640625" style="27" customWidth="1"/>
+    <col min="11786" max="12032" width="8.88671875" style="27"/>
+    <col min="12033" max="12033" width="3.109375" style="27" customWidth="1"/>
+    <col min="12034" max="12034" width="9.77734375" style="27" customWidth="1"/>
+    <col min="12035" max="12035" width="40.109375" style="27" customWidth="1"/>
+    <col min="12036" max="12036" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12038" width="21.6640625" style="27" customWidth="1"/>
+    <col min="12039" max="12039" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12040" width="10.109375" style="27" customWidth="1"/>
+    <col min="12041" max="12041" width="11.6640625" style="27" customWidth="1"/>
+    <col min="12042" max="12288" width="8.88671875" style="27"/>
+    <col min="12289" max="12289" width="3.109375" style="27" customWidth="1"/>
+    <col min="12290" max="12290" width="9.77734375" style="27" customWidth="1"/>
+    <col min="12291" max="12291" width="40.109375" style="27" customWidth="1"/>
+    <col min="12292" max="12292" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12294" width="21.6640625" style="27" customWidth="1"/>
+    <col min="12295" max="12295" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12296" width="10.109375" style="27" customWidth="1"/>
+    <col min="12297" max="12297" width="11.6640625" style="27" customWidth="1"/>
+    <col min="12298" max="12544" width="8.88671875" style="27"/>
+    <col min="12545" max="12545" width="3.109375" style="27" customWidth="1"/>
+    <col min="12546" max="12546" width="9.77734375" style="27" customWidth="1"/>
+    <col min="12547" max="12547" width="40.109375" style="27" customWidth="1"/>
+    <col min="12548" max="12548" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12550" width="21.6640625" style="27" customWidth="1"/>
+    <col min="12551" max="12551" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12552" width="10.109375" style="27" customWidth="1"/>
+    <col min="12553" max="12553" width="11.6640625" style="27" customWidth="1"/>
+    <col min="12554" max="12800" width="8.88671875" style="27"/>
+    <col min="12801" max="12801" width="3.109375" style="27" customWidth="1"/>
+    <col min="12802" max="12802" width="9.77734375" style="27" customWidth="1"/>
+    <col min="12803" max="12803" width="40.109375" style="27" customWidth="1"/>
+    <col min="12804" max="12804" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12806" width="21.6640625" style="27" customWidth="1"/>
+    <col min="12807" max="12807" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12808" width="10.109375" style="27" customWidth="1"/>
+    <col min="12809" max="12809" width="11.6640625" style="27" customWidth="1"/>
+    <col min="12810" max="13056" width="8.88671875" style="27"/>
+    <col min="13057" max="13057" width="3.109375" style="27" customWidth="1"/>
+    <col min="13058" max="13058" width="9.77734375" style="27" customWidth="1"/>
+    <col min="13059" max="13059" width="40.109375" style="27" customWidth="1"/>
+    <col min="13060" max="13060" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13062" width="21.6640625" style="27" customWidth="1"/>
+    <col min="13063" max="13063" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13064" width="10.109375" style="27" customWidth="1"/>
+    <col min="13065" max="13065" width="11.6640625" style="27" customWidth="1"/>
+    <col min="13066" max="13312" width="8.88671875" style="27"/>
+    <col min="13313" max="13313" width="3.109375" style="27" customWidth="1"/>
+    <col min="13314" max="13314" width="9.77734375" style="27" customWidth="1"/>
+    <col min="13315" max="13315" width="40.109375" style="27" customWidth="1"/>
+    <col min="13316" max="13316" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13318" width="21.6640625" style="27" customWidth="1"/>
+    <col min="13319" max="13319" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13320" width="10.109375" style="27" customWidth="1"/>
+    <col min="13321" max="13321" width="11.6640625" style="27" customWidth="1"/>
+    <col min="13322" max="13568" width="8.88671875" style="27"/>
+    <col min="13569" max="13569" width="3.109375" style="27" customWidth="1"/>
+    <col min="13570" max="13570" width="9.77734375" style="27" customWidth="1"/>
+    <col min="13571" max="13571" width="40.109375" style="27" customWidth="1"/>
+    <col min="13572" max="13572" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13574" width="21.6640625" style="27" customWidth="1"/>
+    <col min="13575" max="13575" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13576" width="10.109375" style="27" customWidth="1"/>
+    <col min="13577" max="13577" width="11.6640625" style="27" customWidth="1"/>
+    <col min="13578" max="13824" width="8.88671875" style="27"/>
+    <col min="13825" max="13825" width="3.109375" style="27" customWidth="1"/>
+    <col min="13826" max="13826" width="9.77734375" style="27" customWidth="1"/>
+    <col min="13827" max="13827" width="40.109375" style="27" customWidth="1"/>
+    <col min="13828" max="13828" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13830" width="21.6640625" style="27" customWidth="1"/>
+    <col min="13831" max="13831" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13832" width="10.109375" style="27" customWidth="1"/>
+    <col min="13833" max="13833" width="11.6640625" style="27" customWidth="1"/>
+    <col min="13834" max="14080" width="8.88671875" style="27"/>
+    <col min="14081" max="14081" width="3.109375" style="27" customWidth="1"/>
+    <col min="14082" max="14082" width="9.77734375" style="27" customWidth="1"/>
+    <col min="14083" max="14083" width="40.109375" style="27" customWidth="1"/>
+    <col min="14084" max="14084" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14086" width="21.6640625" style="27" customWidth="1"/>
+    <col min="14087" max="14087" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14088" width="10.109375" style="27" customWidth="1"/>
+    <col min="14089" max="14089" width="11.6640625" style="27" customWidth="1"/>
+    <col min="14090" max="14336" width="8.88671875" style="27"/>
+    <col min="14337" max="14337" width="3.109375" style="27" customWidth="1"/>
+    <col min="14338" max="14338" width="9.77734375" style="27" customWidth="1"/>
+    <col min="14339" max="14339" width="40.109375" style="27" customWidth="1"/>
+    <col min="14340" max="14340" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14342" width="21.6640625" style="27" customWidth="1"/>
+    <col min="14343" max="14343" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14344" width="10.109375" style="27" customWidth="1"/>
+    <col min="14345" max="14345" width="11.6640625" style="27" customWidth="1"/>
+    <col min="14346" max="14592" width="8.88671875" style="27"/>
+    <col min="14593" max="14593" width="3.109375" style="27" customWidth="1"/>
+    <col min="14594" max="14594" width="9.77734375" style="27" customWidth="1"/>
+    <col min="14595" max="14595" width="40.109375" style="27" customWidth="1"/>
+    <col min="14596" max="14596" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14598" width="21.6640625" style="27" customWidth="1"/>
+    <col min="14599" max="14599" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14600" width="10.109375" style="27" customWidth="1"/>
+    <col min="14601" max="14601" width="11.6640625" style="27" customWidth="1"/>
+    <col min="14602" max="14848" width="8.88671875" style="27"/>
+    <col min="14849" max="14849" width="3.109375" style="27" customWidth="1"/>
+    <col min="14850" max="14850" width="9.77734375" style="27" customWidth="1"/>
+    <col min="14851" max="14851" width="40.109375" style="27" customWidth="1"/>
+    <col min="14852" max="14852" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14854" width="21.6640625" style="27" customWidth="1"/>
+    <col min="14855" max="14855" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14856" width="10.109375" style="27" customWidth="1"/>
+    <col min="14857" max="14857" width="11.6640625" style="27" customWidth="1"/>
+    <col min="14858" max="15104" width="8.88671875" style="27"/>
+    <col min="15105" max="15105" width="3.109375" style="27" customWidth="1"/>
+    <col min="15106" max="15106" width="9.77734375" style="27" customWidth="1"/>
+    <col min="15107" max="15107" width="40.109375" style="27" customWidth="1"/>
+    <col min="15108" max="15108" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15110" width="21.6640625" style="27" customWidth="1"/>
+    <col min="15111" max="15111" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15112" width="10.109375" style="27" customWidth="1"/>
+    <col min="15113" max="15113" width="11.6640625" style="27" customWidth="1"/>
+    <col min="15114" max="15360" width="8.88671875" style="27"/>
+    <col min="15361" max="15361" width="3.109375" style="27" customWidth="1"/>
+    <col min="15362" max="15362" width="9.77734375" style="27" customWidth="1"/>
+    <col min="15363" max="15363" width="40.109375" style="27" customWidth="1"/>
+    <col min="15364" max="15364" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15366" width="21.6640625" style="27" customWidth="1"/>
+    <col min="15367" max="15367" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15368" width="10.109375" style="27" customWidth="1"/>
+    <col min="15369" max="15369" width="11.6640625" style="27" customWidth="1"/>
+    <col min="15370" max="15616" width="8.88671875" style="27"/>
+    <col min="15617" max="15617" width="3.109375" style="27" customWidth="1"/>
+    <col min="15618" max="15618" width="9.77734375" style="27" customWidth="1"/>
+    <col min="15619" max="15619" width="40.109375" style="27" customWidth="1"/>
+    <col min="15620" max="15620" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15622" width="21.6640625" style="27" customWidth="1"/>
+    <col min="15623" max="15623" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15624" width="10.109375" style="27" customWidth="1"/>
+    <col min="15625" max="15625" width="11.6640625" style="27" customWidth="1"/>
+    <col min="15626" max="15872" width="8.88671875" style="27"/>
+    <col min="15873" max="15873" width="3.109375" style="27" customWidth="1"/>
+    <col min="15874" max="15874" width="9.77734375" style="27" customWidth="1"/>
+    <col min="15875" max="15875" width="40.109375" style="27" customWidth="1"/>
+    <col min="15876" max="15876" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15878" width="21.6640625" style="27" customWidth="1"/>
+    <col min="15879" max="15879" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15880" width="10.109375" style="27" customWidth="1"/>
+    <col min="15881" max="15881" width="11.6640625" style="27" customWidth="1"/>
+    <col min="15882" max="16128" width="8.88671875" style="27"/>
+    <col min="16129" max="16129" width="3.109375" style="27" customWidth="1"/>
+    <col min="16130" max="16130" width="9.77734375" style="27" customWidth="1"/>
+    <col min="16131" max="16131" width="40.109375" style="27" customWidth="1"/>
+    <col min="16132" max="16132" width="13.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16134" width="21.6640625" style="27" customWidth="1"/>
+    <col min="16135" max="16135" width="4.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16136" width="10.109375" style="27" customWidth="1"/>
+    <col min="16137" max="16137" width="11.6640625" style="27" customWidth="1"/>
+    <col min="16138" max="16384" width="8.88671875" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+    </row>
+    <row r="2" spans="1:9" ht="16.2" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="25"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B8" s="37" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="106" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="107" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="107" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="107" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="108" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A11" s="38"/>
+      <c r="B11" s="64" t="s">
+        <v>457</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>458</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>446</v>
+      </c>
+      <c r="E11" s="122" t="s">
+        <v>459</v>
+      </c>
+      <c r="F11" s="51" t="s">
+        <v>460</v>
+      </c>
+      <c r="G11" s="51" t="s">
+        <v>369</v>
+      </c>
+      <c r="H11" s="51" t="s">
+        <v>461</v>
+      </c>
+      <c r="I11" s="78">
+        <v>45310</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="38"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="78"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="38"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="76"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="38"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="76"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B15" s="64"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="121"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="76"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B16" s="64"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="76"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B17" s="64"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="122"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="76"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B18" s="64"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="76"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B19" s="64"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="76"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B20" s="64"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="122"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="76"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="38"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="76"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="38"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="76"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B23" s="64"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="122"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="76"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="38"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="76"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="38"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="76"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B26" s="64"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="122"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="76"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B27" s="64"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="122"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="76"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B28" s="64"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="122"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="76"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B29" s="64"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="122"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="76"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B30" s="64"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="122"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="76"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B31" s="64"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="122"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="76"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B32" s="64"/>
+      <c r="C32" s="120"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="76"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B33" s="64"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="76"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B34" s="64"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="76"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B35" s="68"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="76"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B36" s="68"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="76"/>
+    </row>
+    <row r="37" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="72"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="77"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+    </row>
+    <row r="40" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="28"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+    </row>
+    <row r="41" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A41" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="35"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="35"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B43" s="215" t="s">
+        <v>443</v>
+      </c>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="35"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="35"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="35"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11:G37">
+      <formula1>"OK,NG"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:H24"/>
@@ -11286,38 +13216,38 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="272" t="s">
+      <c r="B5" s="273" t="s">
         <v>66</v>
       </c>
       <c r="C5" s="109" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="274" t="s">
+      <c r="D5" s="275" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="276" t="s">
+      <c r="E5" s="277" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="274" t="s">
+      <c r="F5" s="275" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="276" t="s">
+      <c r="G5" s="277" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="270" t="s">
+      <c r="H5" s="271" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="273"/>
+      <c r="B6" s="274"/>
       <c r="C6" s="110" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="275"/>
-      <c r="E6" s="277"/>
-      <c r="F6" s="275"/>
-      <c r="G6" s="277"/>
-      <c r="H6" s="271"/>
+      <c r="D6" s="276"/>
+      <c r="E6" s="278"/>
+      <c r="F6" s="276"/>
+      <c r="G6" s="278"/>
+      <c r="H6" s="272"/>
     </row>
     <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.2">
       <c r="B7" s="66" t="s">
@@ -11530,7 +13460,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G18"/>
@@ -12143,11 +14073,9 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -12515,18 +14443,33 @@
       <c r="H10" s="23"/>
       <c r="I10" s="93"/>
     </row>
-    <row r="11" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="94"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="97"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="98"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="99"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="92">
+        <v>45358</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>451</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>452</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>453</v>
+      </c>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="93"/>
+    </row>
+    <row r="12" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="94"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="98"/>
+      <c r="I12" s="99"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="17"/>
@@ -12536,6 +14479,9 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="17"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -12870,11 +14816,14 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4">
+    <tabColor rgb="FFFF99CC"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -12970,7 +14919,7 @@
       <c r="B9" s="84"/>
       <c r="C9" s="84"/>
       <c r="D9" s="124" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E9" s="87" t="s">
         <v>83</v>
@@ -12982,10 +14931,10 @@
       <c r="B10" s="84"/>
       <c r="C10" s="84"/>
       <c r="D10" s="124" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E10" s="87" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F10" s="84"/>
     </row>
@@ -12993,8 +14942,12 @@
       <c r="A11" s="84"/>
       <c r="B11" s="84"/>
       <c r="C11" s="84"/>
-      <c r="D11" s="124"/>
-      <c r="E11" s="87"/>
+      <c r="D11" s="124" t="s">
+        <v>455</v>
+      </c>
+      <c r="E11" s="216" t="s">
+        <v>454</v>
+      </c>
       <c r="F11" s="84"/>
     </row>
     <row r="12" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.2">
@@ -13068,6 +15021,7 @@
     <hyperlink ref="D8" location="'テスト仕様_テスト結果(テスト・シナリオ2)'!A1" display="シナリオ2"/>
     <hyperlink ref="D9" location="'テスト仕様_テスト結果(テスト・シナリオ3) '!A1" display="シナリオ3"/>
     <hyperlink ref="D10" location="'テスト仕様_テスト結果(テスト・シナリオ4)'!A1" display="シナリオ4"/>
+    <hyperlink ref="D11" location="'テスト仕様_テスト結果(テスト・シナリオ5)'!A1" display="シナリオ5"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
@@ -13082,8 +15036,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:I28"/>
+  <sheetPr codeName="Sheet5">
+    <tabColor rgb="FFFF99CC"/>
+  </sheetPr>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -13519,12 +15475,35 @@
       <c r="B26" s="33"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
+      <c r="B27" s="34" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
+      <c r="B28" s="33" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B29" s="33"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B30" s="279" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B31" s="280" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -15007,158 +16986,158 @@
         <v>131</v>
       </c>
       <c r="C6" s="150"/>
-      <c r="D6" s="218" t="s">
+      <c r="D6" s="219" t="s">
         <v>186</v>
       </c>
-      <c r="E6" s="219"/>
-      <c r="F6" s="219"/>
-      <c r="G6" s="219"/>
-      <c r="H6" s="219"/>
-      <c r="I6" s="220"/>
-      <c r="J6" s="218" t="s">
+      <c r="E6" s="220"/>
+      <c r="F6" s="220"/>
+      <c r="G6" s="220"/>
+      <c r="H6" s="220"/>
+      <c r="I6" s="221"/>
+      <c r="J6" s="219" t="s">
         <v>189</v>
       </c>
-      <c r="K6" s="219"/>
-      <c r="L6" s="219"/>
-      <c r="M6" s="219"/>
-      <c r="N6" s="219"/>
-      <c r="O6" s="220"/>
-      <c r="P6" s="218" t="s">
+      <c r="K6" s="220"/>
+      <c r="L6" s="220"/>
+      <c r="M6" s="220"/>
+      <c r="N6" s="220"/>
+      <c r="O6" s="221"/>
+      <c r="P6" s="219" t="s">
         <v>132</v>
       </c>
-      <c r="Q6" s="219"/>
-      <c r="R6" s="219"/>
-      <c r="S6" s="219"/>
-      <c r="T6" s="219"/>
-      <c r="U6" s="220"/>
-      <c r="V6" s="218" t="s">
+      <c r="Q6" s="220"/>
+      <c r="R6" s="220"/>
+      <c r="S6" s="220"/>
+      <c r="T6" s="220"/>
+      <c r="U6" s="221"/>
+      <c r="V6" s="219" t="s">
         <v>400</v>
       </c>
-      <c r="W6" s="219"/>
-      <c r="X6" s="219"/>
-      <c r="Y6" s="219"/>
-      <c r="Z6" s="219"/>
-      <c r="AA6" s="220"/>
-      <c r="AB6" s="218" t="s">
+      <c r="W6" s="220"/>
+      <c r="X6" s="220"/>
+      <c r="Y6" s="220"/>
+      <c r="Z6" s="220"/>
+      <c r="AA6" s="221"/>
+      <c r="AB6" s="219" t="s">
         <v>354</v>
       </c>
-      <c r="AC6" s="219"/>
-      <c r="AD6" s="219"/>
-      <c r="AE6" s="219"/>
-      <c r="AF6" s="219"/>
-      <c r="AG6" s="220"/>
-      <c r="AH6" s="218" t="s">
+      <c r="AC6" s="220"/>
+      <c r="AD6" s="220"/>
+      <c r="AE6" s="220"/>
+      <c r="AF6" s="220"/>
+      <c r="AG6" s="221"/>
+      <c r="AH6" s="219" t="s">
         <v>355</v>
       </c>
-      <c r="AI6" s="219"/>
-      <c r="AJ6" s="219"/>
-      <c r="AK6" s="219"/>
-      <c r="AL6" s="219"/>
-      <c r="AM6" s="220"/>
-      <c r="AN6" s="218" t="s">
+      <c r="AI6" s="220"/>
+      <c r="AJ6" s="220"/>
+      <c r="AK6" s="220"/>
+      <c r="AL6" s="220"/>
+      <c r="AM6" s="221"/>
+      <c r="AN6" s="219" t="s">
         <v>356</v>
       </c>
-      <c r="AO6" s="219"/>
-      <c r="AP6" s="219"/>
-      <c r="AQ6" s="219"/>
-      <c r="AR6" s="219"/>
-      <c r="AS6" s="220"/>
-      <c r="AT6" s="218" t="s">
+      <c r="AO6" s="220"/>
+      <c r="AP6" s="220"/>
+      <c r="AQ6" s="220"/>
+      <c r="AR6" s="220"/>
+      <c r="AS6" s="221"/>
+      <c r="AT6" s="219" t="s">
         <v>192</v>
       </c>
-      <c r="AU6" s="219"/>
-      <c r="AV6" s="219"/>
-      <c r="AW6" s="219"/>
-      <c r="AX6" s="219"/>
-      <c r="AY6" s="220"/>
-      <c r="AZ6" s="218" t="s">
+      <c r="AU6" s="220"/>
+      <c r="AV6" s="220"/>
+      <c r="AW6" s="220"/>
+      <c r="AX6" s="220"/>
+      <c r="AY6" s="221"/>
+      <c r="AZ6" s="219" t="s">
         <v>193</v>
       </c>
-      <c r="BA6" s="219"/>
-      <c r="BB6" s="219"/>
-      <c r="BC6" s="219"/>
-      <c r="BD6" s="219"/>
-      <c r="BE6" s="220"/>
-      <c r="BF6" s="218" t="s">
+      <c r="BA6" s="220"/>
+      <c r="BB6" s="220"/>
+      <c r="BC6" s="220"/>
+      <c r="BD6" s="220"/>
+      <c r="BE6" s="221"/>
+      <c r="BF6" s="219" t="s">
         <v>357</v>
       </c>
-      <c r="BG6" s="219"/>
-      <c r="BH6" s="219"/>
-      <c r="BI6" s="219"/>
-      <c r="BJ6" s="219"/>
-      <c r="BK6" s="220"/>
-      <c r="BL6" s="218" t="s">
+      <c r="BG6" s="220"/>
+      <c r="BH6" s="220"/>
+      <c r="BI6" s="220"/>
+      <c r="BJ6" s="220"/>
+      <c r="BK6" s="221"/>
+      <c r="BL6" s="219" t="s">
         <v>303</v>
       </c>
-      <c r="BM6" s="219"/>
-      <c r="BN6" s="219"/>
-      <c r="BO6" s="219"/>
-      <c r="BP6" s="219"/>
-      <c r="BQ6" s="220"/>
-      <c r="BR6" s="218" t="s">
+      <c r="BM6" s="220"/>
+      <c r="BN6" s="220"/>
+      <c r="BO6" s="220"/>
+      <c r="BP6" s="220"/>
+      <c r="BQ6" s="221"/>
+      <c r="BR6" s="219" t="s">
         <v>320</v>
       </c>
-      <c r="BS6" s="219"/>
-      <c r="BT6" s="219"/>
-      <c r="BU6" s="219"/>
-      <c r="BV6" s="219"/>
-      <c r="BW6" s="220"/>
-      <c r="BX6" s="218" t="s">
+      <c r="BS6" s="220"/>
+      <c r="BT6" s="220"/>
+      <c r="BU6" s="220"/>
+      <c r="BV6" s="220"/>
+      <c r="BW6" s="221"/>
+      <c r="BX6" s="219" t="s">
         <v>321</v>
       </c>
-      <c r="BY6" s="219"/>
-      <c r="BZ6" s="219"/>
-      <c r="CA6" s="219"/>
-      <c r="CB6" s="219"/>
-      <c r="CC6" s="220"/>
-      <c r="CD6" s="218" t="s">
+      <c r="BY6" s="220"/>
+      <c r="BZ6" s="220"/>
+      <c r="CA6" s="220"/>
+      <c r="CB6" s="220"/>
+      <c r="CC6" s="221"/>
+      <c r="CD6" s="219" t="s">
         <v>322</v>
       </c>
-      <c r="CE6" s="219"/>
-      <c r="CF6" s="219"/>
-      <c r="CG6" s="219"/>
-      <c r="CH6" s="219"/>
-      <c r="CI6" s="220"/>
-      <c r="CJ6" s="218" t="s">
+      <c r="CE6" s="220"/>
+      <c r="CF6" s="220"/>
+      <c r="CG6" s="220"/>
+      <c r="CH6" s="220"/>
+      <c r="CI6" s="221"/>
+      <c r="CJ6" s="219" t="s">
         <v>323</v>
       </c>
-      <c r="CK6" s="219"/>
-      <c r="CL6" s="219"/>
-      <c r="CM6" s="219"/>
-      <c r="CN6" s="219"/>
-      <c r="CO6" s="220"/>
-      <c r="CP6" s="218" t="s">
+      <c r="CK6" s="220"/>
+      <c r="CL6" s="220"/>
+      <c r="CM6" s="220"/>
+      <c r="CN6" s="220"/>
+      <c r="CO6" s="221"/>
+      <c r="CP6" s="219" t="s">
         <v>324</v>
       </c>
-      <c r="CQ6" s="219"/>
-      <c r="CR6" s="219"/>
-      <c r="CS6" s="219"/>
-      <c r="CT6" s="219"/>
-      <c r="CU6" s="220"/>
-      <c r="CV6" s="218" t="s">
+      <c r="CQ6" s="220"/>
+      <c r="CR6" s="220"/>
+      <c r="CS6" s="220"/>
+      <c r="CT6" s="220"/>
+      <c r="CU6" s="221"/>
+      <c r="CV6" s="219" t="s">
         <v>325</v>
       </c>
-      <c r="CW6" s="219"/>
-      <c r="CX6" s="219"/>
-      <c r="CY6" s="219"/>
-      <c r="CZ6" s="219"/>
-      <c r="DA6" s="220"/>
-      <c r="DB6" s="218" t="s">
+      <c r="CW6" s="220"/>
+      <c r="CX6" s="220"/>
+      <c r="CY6" s="220"/>
+      <c r="CZ6" s="220"/>
+      <c r="DA6" s="221"/>
+      <c r="DB6" s="219" t="s">
         <v>326</v>
       </c>
-      <c r="DC6" s="219"/>
-      <c r="DD6" s="219"/>
-      <c r="DE6" s="219"/>
-      <c r="DF6" s="219"/>
-      <c r="DG6" s="220"/>
-      <c r="DH6" s="218" t="s">
+      <c r="DC6" s="220"/>
+      <c r="DD6" s="220"/>
+      <c r="DE6" s="220"/>
+      <c r="DF6" s="220"/>
+      <c r="DG6" s="221"/>
+      <c r="DH6" s="219" t="s">
         <v>346</v>
       </c>
-      <c r="DI6" s="219"/>
-      <c r="DJ6" s="219"/>
-      <c r="DK6" s="219"/>
-      <c r="DL6" s="219"/>
-      <c r="DM6" s="220"/>
+      <c r="DI6" s="220"/>
+      <c r="DJ6" s="220"/>
+      <c r="DK6" s="220"/>
+      <c r="DL6" s="220"/>
+      <c r="DM6" s="221"/>
       <c r="DN6" s="151" t="s">
         <v>133</v>
       </c>
@@ -15355,42 +17334,42 @@
       <c r="DK7" s="157"/>
       <c r="DL7" s="157"/>
       <c r="DM7" s="158"/>
-      <c r="DN7" s="228" t="s">
+      <c r="DN7" s="229" t="s">
         <v>141</v>
       </c>
-      <c r="DO7" s="226"/>
-      <c r="DP7" s="226"/>
-      <c r="DQ7" s="226"/>
-      <c r="DR7" s="227"/>
-      <c r="DS7" s="228" t="s">
+      <c r="DO7" s="227"/>
+      <c r="DP7" s="227"/>
+      <c r="DQ7" s="227"/>
+      <c r="DR7" s="228"/>
+      <c r="DS7" s="229" t="s">
         <v>387</v>
       </c>
-      <c r="DT7" s="226"/>
-      <c r="DU7" s="226"/>
-      <c r="DV7" s="226"/>
-      <c r="DW7" s="227"/>
-      <c r="DX7" s="229" t="s">
+      <c r="DT7" s="227"/>
+      <c r="DU7" s="227"/>
+      <c r="DV7" s="227"/>
+      <c r="DW7" s="228"/>
+      <c r="DX7" s="230" t="s">
         <v>389</v>
       </c>
-      <c r="DY7" s="230"/>
-      <c r="DZ7" s="221" t="s">
+      <c r="DY7" s="231"/>
+      <c r="DZ7" s="222" t="s">
         <v>390</v>
       </c>
-      <c r="EA7" s="222"/>
-      <c r="EB7" s="223"/>
-      <c r="EC7" s="224">
+      <c r="EA7" s="223"/>
+      <c r="EB7" s="224"/>
+      <c r="EC7" s="225">
         <v>44893</v>
       </c>
-      <c r="ED7" s="222"/>
-      <c r="EE7" s="222"/>
-      <c r="EF7" s="223"/>
-      <c r="EG7" s="225"/>
-      <c r="EH7" s="226"/>
-      <c r="EI7" s="226"/>
-      <c r="EJ7" s="226"/>
-      <c r="EK7" s="226"/>
-      <c r="EL7" s="226"/>
-      <c r="EM7" s="227"/>
+      <c r="ED7" s="223"/>
+      <c r="EE7" s="223"/>
+      <c r="EF7" s="224"/>
+      <c r="EG7" s="226"/>
+      <c r="EH7" s="227"/>
+      <c r="EI7" s="227"/>
+      <c r="EJ7" s="227"/>
+      <c r="EK7" s="227"/>
+      <c r="EL7" s="227"/>
+      <c r="EM7" s="228"/>
     </row>
     <row r="8" spans="1:143" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="154">
@@ -15549,44 +17528,44 @@
       <c r="DK8" s="157"/>
       <c r="DL8" s="157"/>
       <c r="DM8" s="158"/>
-      <c r="DN8" s="228" t="s">
+      <c r="DN8" s="229" t="s">
         <v>143</v>
       </c>
-      <c r="DO8" s="226"/>
-      <c r="DP8" s="226"/>
-      <c r="DQ8" s="226"/>
-      <c r="DR8" s="227"/>
-      <c r="DS8" s="228" t="s">
+      <c r="DO8" s="227"/>
+      <c r="DP8" s="227"/>
+      <c r="DQ8" s="227"/>
+      <c r="DR8" s="228"/>
+      <c r="DS8" s="229" t="s">
         <v>391</v>
       </c>
-      <c r="DT8" s="226"/>
-      <c r="DU8" s="226"/>
-      <c r="DV8" s="226"/>
-      <c r="DW8" s="227"/>
-      <c r="DX8" s="229" t="s">
+      <c r="DT8" s="227"/>
+      <c r="DU8" s="227"/>
+      <c r="DV8" s="227"/>
+      <c r="DW8" s="228"/>
+      <c r="DX8" s="230" t="s">
         <v>389</v>
       </c>
-      <c r="DY8" s="230"/>
-      <c r="DZ8" s="221" t="s">
+      <c r="DY8" s="231"/>
+      <c r="DZ8" s="222" t="s">
         <v>390</v>
       </c>
-      <c r="EA8" s="222"/>
-      <c r="EB8" s="223"/>
-      <c r="EC8" s="224">
+      <c r="EA8" s="223"/>
+      <c r="EB8" s="224"/>
+      <c r="EC8" s="225">
         <v>44893</v>
       </c>
-      <c r="ED8" s="222"/>
-      <c r="EE8" s="222"/>
-      <c r="EF8" s="223"/>
-      <c r="EG8" s="225" t="s">
+      <c r="ED8" s="223"/>
+      <c r="EE8" s="223"/>
+      <c r="EF8" s="224"/>
+      <c r="EG8" s="226" t="s">
         <v>403</v>
       </c>
-      <c r="EH8" s="226"/>
-      <c r="EI8" s="226"/>
-      <c r="EJ8" s="226"/>
-      <c r="EK8" s="226"/>
-      <c r="EL8" s="226"/>
-      <c r="EM8" s="227"/>
+      <c r="EH8" s="227"/>
+      <c r="EI8" s="227"/>
+      <c r="EJ8" s="227"/>
+      <c r="EK8" s="227"/>
+      <c r="EL8" s="227"/>
+      <c r="EM8" s="228"/>
     </row>
     <row r="9" spans="1:143" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="154">
@@ -15745,44 +17724,44 @@
       <c r="DK9" s="157"/>
       <c r="DL9" s="157"/>
       <c r="DM9" s="158"/>
-      <c r="DN9" s="228" t="s">
+      <c r="DN9" s="229" t="s">
         <v>143</v>
       </c>
-      <c r="DO9" s="226"/>
-      <c r="DP9" s="226"/>
-      <c r="DQ9" s="226"/>
-      <c r="DR9" s="227"/>
-      <c r="DS9" s="228" t="s">
+      <c r="DO9" s="227"/>
+      <c r="DP9" s="227"/>
+      <c r="DQ9" s="227"/>
+      <c r="DR9" s="228"/>
+      <c r="DS9" s="229" t="s">
         <v>143</v>
       </c>
-      <c r="DT9" s="226"/>
-      <c r="DU9" s="226"/>
-      <c r="DV9" s="226"/>
-      <c r="DW9" s="227"/>
-      <c r="DX9" s="229" t="s">
+      <c r="DT9" s="227"/>
+      <c r="DU9" s="227"/>
+      <c r="DV9" s="227"/>
+      <c r="DW9" s="228"/>
+      <c r="DX9" s="230" t="s">
         <v>392</v>
       </c>
-      <c r="DY9" s="230"/>
-      <c r="DZ9" s="221" t="s">
+      <c r="DY9" s="231"/>
+      <c r="DZ9" s="222" t="s">
         <v>390</v>
       </c>
-      <c r="EA9" s="222"/>
-      <c r="EB9" s="223"/>
-      <c r="EC9" s="224">
+      <c r="EA9" s="223"/>
+      <c r="EB9" s="224"/>
+      <c r="EC9" s="225">
         <v>44893</v>
       </c>
-      <c r="ED9" s="222"/>
-      <c r="EE9" s="222"/>
-      <c r="EF9" s="223"/>
-      <c r="EG9" s="225" t="s">
+      <c r="ED9" s="223"/>
+      <c r="EE9" s="223"/>
+      <c r="EF9" s="224"/>
+      <c r="EG9" s="226" t="s">
         <v>403</v>
       </c>
-      <c r="EH9" s="226"/>
-      <c r="EI9" s="226"/>
-      <c r="EJ9" s="226"/>
-      <c r="EK9" s="226"/>
-      <c r="EL9" s="226"/>
-      <c r="EM9" s="227"/>
+      <c r="EH9" s="227"/>
+      <c r="EI9" s="227"/>
+      <c r="EJ9" s="227"/>
+      <c r="EK9" s="227"/>
+      <c r="EL9" s="227"/>
+      <c r="EM9" s="228"/>
     </row>
     <row r="10" spans="1:143" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="154">
@@ -15941,44 +17920,44 @@
       <c r="DK10" s="157"/>
       <c r="DL10" s="157"/>
       <c r="DM10" s="158"/>
-      <c r="DN10" s="228" t="s">
+      <c r="DN10" s="229" t="s">
         <v>143</v>
       </c>
-      <c r="DO10" s="226"/>
-      <c r="DP10" s="226"/>
-      <c r="DQ10" s="226"/>
-      <c r="DR10" s="227"/>
-      <c r="DS10" s="228" t="s">
+      <c r="DO10" s="227"/>
+      <c r="DP10" s="227"/>
+      <c r="DQ10" s="227"/>
+      <c r="DR10" s="228"/>
+      <c r="DS10" s="229" t="s">
         <v>143</v>
       </c>
-      <c r="DT10" s="226"/>
-      <c r="DU10" s="226"/>
-      <c r="DV10" s="226"/>
-      <c r="DW10" s="227"/>
-      <c r="DX10" s="229" t="s">
+      <c r="DT10" s="227"/>
+      <c r="DU10" s="227"/>
+      <c r="DV10" s="227"/>
+      <c r="DW10" s="228"/>
+      <c r="DX10" s="230" t="s">
         <v>388</v>
       </c>
-      <c r="DY10" s="230"/>
-      <c r="DZ10" s="221" t="s">
+      <c r="DY10" s="231"/>
+      <c r="DZ10" s="222" t="s">
         <v>390</v>
       </c>
-      <c r="EA10" s="222"/>
-      <c r="EB10" s="223"/>
-      <c r="EC10" s="224">
+      <c r="EA10" s="223"/>
+      <c r="EB10" s="224"/>
+      <c r="EC10" s="225">
         <v>44893</v>
       </c>
-      <c r="ED10" s="222"/>
-      <c r="EE10" s="222"/>
-      <c r="EF10" s="223"/>
-      <c r="EG10" s="225" t="s">
+      <c r="ED10" s="223"/>
+      <c r="EE10" s="223"/>
+      <c r="EF10" s="224"/>
+      <c r="EG10" s="226" t="s">
         <v>403</v>
       </c>
-      <c r="EH10" s="226"/>
-      <c r="EI10" s="226"/>
-      <c r="EJ10" s="226"/>
-      <c r="EK10" s="226"/>
-      <c r="EL10" s="226"/>
-      <c r="EM10" s="227"/>
+      <c r="EH10" s="227"/>
+      <c r="EI10" s="227"/>
+      <c r="EJ10" s="227"/>
+      <c r="EK10" s="227"/>
+      <c r="EL10" s="227"/>
+      <c r="EM10" s="228"/>
     </row>
     <row r="11" spans="1:143" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="154">
@@ -16137,44 +18116,44 @@
       <c r="DK11" s="157"/>
       <c r="DL11" s="157"/>
       <c r="DM11" s="158"/>
-      <c r="DN11" s="228" t="s">
+      <c r="DN11" s="229" t="s">
         <v>143</v>
       </c>
-      <c r="DO11" s="226"/>
-      <c r="DP11" s="226"/>
-      <c r="DQ11" s="226"/>
-      <c r="DR11" s="227"/>
-      <c r="DS11" s="228" t="s">
+      <c r="DO11" s="227"/>
+      <c r="DP11" s="227"/>
+      <c r="DQ11" s="227"/>
+      <c r="DR11" s="228"/>
+      <c r="DS11" s="229" t="s">
         <v>143</v>
       </c>
-      <c r="DT11" s="226"/>
-      <c r="DU11" s="226"/>
-      <c r="DV11" s="226"/>
-      <c r="DW11" s="227"/>
-      <c r="DX11" s="229" t="s">
+      <c r="DT11" s="227"/>
+      <c r="DU11" s="227"/>
+      <c r="DV11" s="227"/>
+      <c r="DW11" s="228"/>
+      <c r="DX11" s="230" t="s">
         <v>392</v>
       </c>
-      <c r="DY11" s="230"/>
-      <c r="DZ11" s="221" t="s">
+      <c r="DY11" s="231"/>
+      <c r="DZ11" s="222" t="s">
         <v>390</v>
       </c>
-      <c r="EA11" s="222"/>
-      <c r="EB11" s="223"/>
-      <c r="EC11" s="224">
+      <c r="EA11" s="223"/>
+      <c r="EB11" s="224"/>
+      <c r="EC11" s="225">
         <v>44893</v>
       </c>
-      <c r="ED11" s="222"/>
-      <c r="EE11" s="222"/>
-      <c r="EF11" s="223"/>
-      <c r="EG11" s="225" t="s">
+      <c r="ED11" s="223"/>
+      <c r="EE11" s="223"/>
+      <c r="EF11" s="224"/>
+      <c r="EG11" s="226" t="s">
         <v>402</v>
       </c>
-      <c r="EH11" s="226"/>
-      <c r="EI11" s="226"/>
-      <c r="EJ11" s="226"/>
-      <c r="EK11" s="226"/>
-      <c r="EL11" s="226"/>
-      <c r="EM11" s="227"/>
+      <c r="EH11" s="227"/>
+      <c r="EI11" s="227"/>
+      <c r="EJ11" s="227"/>
+      <c r="EK11" s="227"/>
+      <c r="EL11" s="227"/>
+      <c r="EM11" s="228"/>
     </row>
     <row r="12" spans="1:143" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="154">
@@ -16333,44 +18312,44 @@
       <c r="DK12" s="157"/>
       <c r="DL12" s="157"/>
       <c r="DM12" s="158"/>
-      <c r="DN12" s="228" t="s">
+      <c r="DN12" s="229" t="s">
         <v>143</v>
       </c>
-      <c r="DO12" s="226"/>
-      <c r="DP12" s="226"/>
-      <c r="DQ12" s="226"/>
-      <c r="DR12" s="227"/>
-      <c r="DS12" s="228" t="s">
+      <c r="DO12" s="227"/>
+      <c r="DP12" s="227"/>
+      <c r="DQ12" s="227"/>
+      <c r="DR12" s="228"/>
+      <c r="DS12" s="229" t="s">
         <v>143</v>
       </c>
-      <c r="DT12" s="226"/>
-      <c r="DU12" s="226"/>
-      <c r="DV12" s="226"/>
-      <c r="DW12" s="227"/>
-      <c r="DX12" s="229" t="s">
+      <c r="DT12" s="227"/>
+      <c r="DU12" s="227"/>
+      <c r="DV12" s="227"/>
+      <c r="DW12" s="228"/>
+      <c r="DX12" s="230" t="s">
         <v>392</v>
       </c>
-      <c r="DY12" s="230"/>
-      <c r="DZ12" s="221" t="s">
+      <c r="DY12" s="231"/>
+      <c r="DZ12" s="222" t="s">
         <v>390</v>
       </c>
-      <c r="EA12" s="222"/>
-      <c r="EB12" s="223"/>
-      <c r="EC12" s="224">
+      <c r="EA12" s="223"/>
+      <c r="EB12" s="224"/>
+      <c r="EC12" s="225">
         <v>44893</v>
       </c>
-      <c r="ED12" s="222"/>
-      <c r="EE12" s="222"/>
-      <c r="EF12" s="223"/>
-      <c r="EG12" s="225" t="s">
+      <c r="ED12" s="223"/>
+      <c r="EE12" s="223"/>
+      <c r="EF12" s="224"/>
+      <c r="EG12" s="226" t="s">
         <v>401</v>
       </c>
-      <c r="EH12" s="226"/>
-      <c r="EI12" s="226"/>
-      <c r="EJ12" s="226"/>
-      <c r="EK12" s="226"/>
-      <c r="EL12" s="226"/>
-      <c r="EM12" s="227"/>
+      <c r="EH12" s="227"/>
+      <c r="EI12" s="227"/>
+      <c r="EJ12" s="227"/>
+      <c r="EK12" s="227"/>
+      <c r="EL12" s="227"/>
+      <c r="EM12" s="228"/>
     </row>
     <row r="13" spans="1:143" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="154">
@@ -16529,44 +18508,44 @@
       <c r="DK13" s="157"/>
       <c r="DL13" s="157"/>
       <c r="DM13" s="158"/>
-      <c r="DN13" s="228" t="s">
+      <c r="DN13" s="229" t="s">
         <v>143</v>
       </c>
-      <c r="DO13" s="226"/>
-      <c r="DP13" s="226"/>
-      <c r="DQ13" s="226"/>
-      <c r="DR13" s="227"/>
-      <c r="DS13" s="228" t="s">
+      <c r="DO13" s="227"/>
+      <c r="DP13" s="227"/>
+      <c r="DQ13" s="227"/>
+      <c r="DR13" s="228"/>
+      <c r="DS13" s="229" t="s">
         <v>143</v>
       </c>
-      <c r="DT13" s="226"/>
-      <c r="DU13" s="226"/>
-      <c r="DV13" s="226"/>
-      <c r="DW13" s="227"/>
-      <c r="DX13" s="229" t="s">
+      <c r="DT13" s="227"/>
+      <c r="DU13" s="227"/>
+      <c r="DV13" s="227"/>
+      <c r="DW13" s="228"/>
+      <c r="DX13" s="230" t="s">
         <v>392</v>
       </c>
-      <c r="DY13" s="230"/>
-      <c r="DZ13" s="221" t="s">
+      <c r="DY13" s="231"/>
+      <c r="DZ13" s="222" t="s">
         <v>390</v>
       </c>
-      <c r="EA13" s="222"/>
-      <c r="EB13" s="223"/>
-      <c r="EC13" s="224">
+      <c r="EA13" s="223"/>
+      <c r="EB13" s="224"/>
+      <c r="EC13" s="225">
         <v>44893</v>
       </c>
-      <c r="ED13" s="222"/>
-      <c r="EE13" s="222"/>
-      <c r="EF13" s="223"/>
-      <c r="EG13" s="225" t="s">
+      <c r="ED13" s="223"/>
+      <c r="EE13" s="223"/>
+      <c r="EF13" s="224"/>
+      <c r="EG13" s="226" t="s">
         <v>398</v>
       </c>
-      <c r="EH13" s="226"/>
-      <c r="EI13" s="226"/>
-      <c r="EJ13" s="226"/>
-      <c r="EK13" s="226"/>
-      <c r="EL13" s="226"/>
-      <c r="EM13" s="227"/>
+      <c r="EH13" s="227"/>
+      <c r="EI13" s="227"/>
+      <c r="EJ13" s="227"/>
+      <c r="EK13" s="227"/>
+      <c r="EL13" s="227"/>
+      <c r="EM13" s="228"/>
     </row>
     <row r="14" spans="1:143" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="154">
@@ -16725,44 +18704,44 @@
       <c r="DK14" s="157"/>
       <c r="DL14" s="157"/>
       <c r="DM14" s="158"/>
-      <c r="DN14" s="228" t="s">
+      <c r="DN14" s="229" t="s">
         <v>143</v>
       </c>
-      <c r="DO14" s="226"/>
-      <c r="DP14" s="226"/>
-      <c r="DQ14" s="226"/>
-      <c r="DR14" s="227"/>
-      <c r="DS14" s="228" t="s">
+      <c r="DO14" s="227"/>
+      <c r="DP14" s="227"/>
+      <c r="DQ14" s="227"/>
+      <c r="DR14" s="228"/>
+      <c r="DS14" s="229" t="s">
         <v>143</v>
       </c>
-      <c r="DT14" s="226"/>
-      <c r="DU14" s="226"/>
-      <c r="DV14" s="226"/>
-      <c r="DW14" s="227"/>
-      <c r="DX14" s="229" t="s">
+      <c r="DT14" s="227"/>
+      <c r="DU14" s="227"/>
+      <c r="DV14" s="227"/>
+      <c r="DW14" s="228"/>
+      <c r="DX14" s="230" t="s">
         <v>389</v>
       </c>
-      <c r="DY14" s="230"/>
-      <c r="DZ14" s="221" t="s">
+      <c r="DY14" s="231"/>
+      <c r="DZ14" s="222" t="s">
         <v>390</v>
       </c>
-      <c r="EA14" s="222"/>
-      <c r="EB14" s="223"/>
-      <c r="EC14" s="224">
+      <c r="EA14" s="223"/>
+      <c r="EB14" s="224"/>
+      <c r="EC14" s="225">
         <v>44893</v>
       </c>
-      <c r="ED14" s="222"/>
-      <c r="EE14" s="222"/>
-      <c r="EF14" s="223"/>
-      <c r="EG14" s="225" t="s">
+      <c r="ED14" s="223"/>
+      <c r="EE14" s="223"/>
+      <c r="EF14" s="224"/>
+      <c r="EG14" s="226" t="s">
         <v>399</v>
       </c>
-      <c r="EH14" s="226"/>
-      <c r="EI14" s="226"/>
-      <c r="EJ14" s="226"/>
-      <c r="EK14" s="226"/>
-      <c r="EL14" s="226"/>
-      <c r="EM14" s="227"/>
+      <c r="EH14" s="227"/>
+      <c r="EI14" s="227"/>
+      <c r="EJ14" s="227"/>
+      <c r="EK14" s="227"/>
+      <c r="EL14" s="227"/>
+      <c r="EM14" s="228"/>
     </row>
     <row r="15" spans="1:143" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="154">
@@ -16921,44 +18900,44 @@
       <c r="DK15" s="157"/>
       <c r="DL15" s="157"/>
       <c r="DM15" s="158"/>
-      <c r="DN15" s="228" t="s">
+      <c r="DN15" s="229" t="s">
         <v>143</v>
       </c>
-      <c r="DO15" s="226"/>
-      <c r="DP15" s="226"/>
-      <c r="DQ15" s="226"/>
-      <c r="DR15" s="227"/>
-      <c r="DS15" s="228" t="s">
+      <c r="DO15" s="227"/>
+      <c r="DP15" s="227"/>
+      <c r="DQ15" s="227"/>
+      <c r="DR15" s="228"/>
+      <c r="DS15" s="229" t="s">
         <v>143</v>
       </c>
-      <c r="DT15" s="226"/>
-      <c r="DU15" s="226"/>
-      <c r="DV15" s="226"/>
-      <c r="DW15" s="227"/>
-      <c r="DX15" s="229" t="s">
+      <c r="DT15" s="227"/>
+      <c r="DU15" s="227"/>
+      <c r="DV15" s="227"/>
+      <c r="DW15" s="228"/>
+      <c r="DX15" s="230" t="s">
         <v>392</v>
       </c>
-      <c r="DY15" s="230"/>
-      <c r="DZ15" s="221" t="s">
+      <c r="DY15" s="231"/>
+      <c r="DZ15" s="222" t="s">
         <v>390</v>
       </c>
-      <c r="EA15" s="222"/>
-      <c r="EB15" s="223"/>
-      <c r="EC15" s="224">
+      <c r="EA15" s="223"/>
+      <c r="EB15" s="224"/>
+      <c r="EC15" s="225">
         <v>44893</v>
       </c>
-      <c r="ED15" s="222"/>
-      <c r="EE15" s="222"/>
-      <c r="EF15" s="223"/>
-      <c r="EG15" s="225" t="s">
+      <c r="ED15" s="223"/>
+      <c r="EE15" s="223"/>
+      <c r="EF15" s="224"/>
+      <c r="EG15" s="226" t="s">
         <v>393</v>
       </c>
-      <c r="EH15" s="226"/>
-      <c r="EI15" s="226"/>
-      <c r="EJ15" s="226"/>
-      <c r="EK15" s="226"/>
-      <c r="EL15" s="226"/>
-      <c r="EM15" s="227"/>
+      <c r="EH15" s="227"/>
+      <c r="EI15" s="227"/>
+      <c r="EJ15" s="227"/>
+      <c r="EK15" s="227"/>
+      <c r="EL15" s="227"/>
+      <c r="EM15" s="228"/>
     </row>
     <row r="16" spans="1:143" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="154">
@@ -17117,44 +19096,44 @@
       <c r="DK16" s="157"/>
       <c r="DL16" s="157"/>
       <c r="DM16" s="158"/>
-      <c r="DN16" s="228" t="s">
+      <c r="DN16" s="229" t="s">
         <v>143</v>
       </c>
-      <c r="DO16" s="226"/>
-      <c r="DP16" s="226"/>
-      <c r="DQ16" s="226"/>
-      <c r="DR16" s="227"/>
-      <c r="DS16" s="228" t="s">
+      <c r="DO16" s="227"/>
+      <c r="DP16" s="227"/>
+      <c r="DQ16" s="227"/>
+      <c r="DR16" s="228"/>
+      <c r="DS16" s="229" t="s">
         <v>143</v>
       </c>
-      <c r="DT16" s="226"/>
-      <c r="DU16" s="226"/>
-      <c r="DV16" s="226"/>
-      <c r="DW16" s="227"/>
-      <c r="DX16" s="229" t="s">
+      <c r="DT16" s="227"/>
+      <c r="DU16" s="227"/>
+      <c r="DV16" s="227"/>
+      <c r="DW16" s="228"/>
+      <c r="DX16" s="230" t="s">
         <v>392</v>
       </c>
-      <c r="DY16" s="230"/>
-      <c r="DZ16" s="221" t="s">
+      <c r="DY16" s="231"/>
+      <c r="DZ16" s="222" t="s">
         <v>390</v>
       </c>
-      <c r="EA16" s="222"/>
-      <c r="EB16" s="223"/>
-      <c r="EC16" s="224">
+      <c r="EA16" s="223"/>
+      <c r="EB16" s="224"/>
+      <c r="EC16" s="225">
         <v>44893</v>
       </c>
-      <c r="ED16" s="222"/>
-      <c r="EE16" s="222"/>
-      <c r="EF16" s="223"/>
-      <c r="EG16" s="225" t="s">
+      <c r="ED16" s="223"/>
+      <c r="EE16" s="223"/>
+      <c r="EF16" s="224"/>
+      <c r="EG16" s="226" t="s">
         <v>394</v>
       </c>
-      <c r="EH16" s="226"/>
-      <c r="EI16" s="226"/>
-      <c r="EJ16" s="226"/>
-      <c r="EK16" s="226"/>
-      <c r="EL16" s="226"/>
-      <c r="EM16" s="227"/>
+      <c r="EH16" s="227"/>
+      <c r="EI16" s="227"/>
+      <c r="EJ16" s="227"/>
+      <c r="EK16" s="227"/>
+      <c r="EL16" s="227"/>
+      <c r="EM16" s="228"/>
     </row>
     <row r="17" spans="2:143" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="154">
@@ -17313,44 +19292,44 @@
       <c r="DK17" s="157"/>
       <c r="DL17" s="157"/>
       <c r="DM17" s="158"/>
-      <c r="DN17" s="228" t="s">
+      <c r="DN17" s="229" t="s">
         <v>143</v>
       </c>
-      <c r="DO17" s="226"/>
-      <c r="DP17" s="226"/>
-      <c r="DQ17" s="226"/>
-      <c r="DR17" s="227"/>
-      <c r="DS17" s="228" t="s">
+      <c r="DO17" s="227"/>
+      <c r="DP17" s="227"/>
+      <c r="DQ17" s="227"/>
+      <c r="DR17" s="228"/>
+      <c r="DS17" s="229" t="s">
         <v>143</v>
       </c>
-      <c r="DT17" s="226"/>
-      <c r="DU17" s="226"/>
-      <c r="DV17" s="226"/>
-      <c r="DW17" s="227"/>
-      <c r="DX17" s="229" t="s">
+      <c r="DT17" s="227"/>
+      <c r="DU17" s="227"/>
+      <c r="DV17" s="227"/>
+      <c r="DW17" s="228"/>
+      <c r="DX17" s="230" t="s">
         <v>392</v>
       </c>
-      <c r="DY17" s="230"/>
-      <c r="DZ17" s="221" t="s">
+      <c r="DY17" s="231"/>
+      <c r="DZ17" s="222" t="s">
         <v>390</v>
       </c>
-      <c r="EA17" s="222"/>
-      <c r="EB17" s="223"/>
-      <c r="EC17" s="224">
+      <c r="EA17" s="223"/>
+      <c r="EB17" s="224"/>
+      <c r="EC17" s="225">
         <v>44893</v>
       </c>
-      <c r="ED17" s="222"/>
-      <c r="EE17" s="222"/>
-      <c r="EF17" s="223"/>
-      <c r="EG17" s="225" t="s">
+      <c r="ED17" s="223"/>
+      <c r="EE17" s="223"/>
+      <c r="EF17" s="224"/>
+      <c r="EG17" s="226" t="s">
         <v>395</v>
       </c>
-      <c r="EH17" s="226"/>
-      <c r="EI17" s="226"/>
-      <c r="EJ17" s="226"/>
-      <c r="EK17" s="226"/>
-      <c r="EL17" s="226"/>
-      <c r="EM17" s="227"/>
+      <c r="EH17" s="227"/>
+      <c r="EI17" s="227"/>
+      <c r="EJ17" s="227"/>
+      <c r="EK17" s="227"/>
+      <c r="EL17" s="227"/>
+      <c r="EM17" s="228"/>
     </row>
     <row r="18" spans="2:143" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="154">
@@ -17509,44 +19488,44 @@
       <c r="DK18" s="157"/>
       <c r="DL18" s="157"/>
       <c r="DM18" s="158"/>
-      <c r="DN18" s="228" t="s">
+      <c r="DN18" s="229" t="s">
         <v>143</v>
       </c>
-      <c r="DO18" s="226"/>
-      <c r="DP18" s="226"/>
-      <c r="DQ18" s="226"/>
-      <c r="DR18" s="227"/>
-      <c r="DS18" s="228" t="s">
+      <c r="DO18" s="227"/>
+      <c r="DP18" s="227"/>
+      <c r="DQ18" s="227"/>
+      <c r="DR18" s="228"/>
+      <c r="DS18" s="229" t="s">
         <v>143</v>
       </c>
-      <c r="DT18" s="226"/>
-      <c r="DU18" s="226"/>
-      <c r="DV18" s="226"/>
-      <c r="DW18" s="227"/>
-      <c r="DX18" s="229" t="s">
+      <c r="DT18" s="227"/>
+      <c r="DU18" s="227"/>
+      <c r="DV18" s="227"/>
+      <c r="DW18" s="228"/>
+      <c r="DX18" s="230" t="s">
         <v>392</v>
       </c>
-      <c r="DY18" s="230"/>
-      <c r="DZ18" s="221" t="s">
+      <c r="DY18" s="231"/>
+      <c r="DZ18" s="222" t="s">
         <v>390</v>
       </c>
-      <c r="EA18" s="222"/>
-      <c r="EB18" s="223"/>
-      <c r="EC18" s="224">
+      <c r="EA18" s="223"/>
+      <c r="EB18" s="224"/>
+      <c r="EC18" s="225">
         <v>44893</v>
       </c>
-      <c r="ED18" s="222"/>
-      <c r="EE18" s="222"/>
-      <c r="EF18" s="223"/>
-      <c r="EG18" s="225" t="s">
+      <c r="ED18" s="223"/>
+      <c r="EE18" s="223"/>
+      <c r="EF18" s="224"/>
+      <c r="EG18" s="226" t="s">
         <v>404</v>
       </c>
-      <c r="EH18" s="226"/>
-      <c r="EI18" s="226"/>
-      <c r="EJ18" s="226"/>
-      <c r="EK18" s="226"/>
-      <c r="EL18" s="226"/>
-      <c r="EM18" s="227"/>
+      <c r="EH18" s="227"/>
+      <c r="EI18" s="227"/>
+      <c r="EJ18" s="227"/>
+      <c r="EK18" s="227"/>
+      <c r="EL18" s="227"/>
+      <c r="EM18" s="228"/>
     </row>
     <row r="19" spans="2:143" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="154">
@@ -17705,44 +19684,44 @@
       <c r="DK19" s="157"/>
       <c r="DL19" s="157"/>
       <c r="DM19" s="158"/>
-      <c r="DN19" s="228" t="s">
+      <c r="DN19" s="229" t="s">
         <v>143</v>
       </c>
-      <c r="DO19" s="226"/>
-      <c r="DP19" s="226"/>
-      <c r="DQ19" s="226"/>
-      <c r="DR19" s="227"/>
-      <c r="DS19" s="228" t="s">
+      <c r="DO19" s="227"/>
+      <c r="DP19" s="227"/>
+      <c r="DQ19" s="227"/>
+      <c r="DR19" s="228"/>
+      <c r="DS19" s="229" t="s">
         <v>143</v>
       </c>
-      <c r="DT19" s="226"/>
-      <c r="DU19" s="226"/>
-      <c r="DV19" s="226"/>
-      <c r="DW19" s="227"/>
-      <c r="DX19" s="229" t="s">
+      <c r="DT19" s="227"/>
+      <c r="DU19" s="227"/>
+      <c r="DV19" s="227"/>
+      <c r="DW19" s="228"/>
+      <c r="DX19" s="230" t="s">
         <v>392</v>
       </c>
-      <c r="DY19" s="230"/>
-      <c r="DZ19" s="221" t="s">
+      <c r="DY19" s="231"/>
+      <c r="DZ19" s="222" t="s">
         <v>390</v>
       </c>
-      <c r="EA19" s="222"/>
-      <c r="EB19" s="223"/>
-      <c r="EC19" s="224">
+      <c r="EA19" s="223"/>
+      <c r="EB19" s="224"/>
+      <c r="EC19" s="225">
         <v>44893</v>
       </c>
-      <c r="ED19" s="222"/>
-      <c r="EE19" s="222"/>
-      <c r="EF19" s="223"/>
-      <c r="EG19" s="225" t="s">
+      <c r="ED19" s="223"/>
+      <c r="EE19" s="223"/>
+      <c r="EF19" s="224"/>
+      <c r="EG19" s="226" t="s">
         <v>404</v>
       </c>
-      <c r="EH19" s="226"/>
-      <c r="EI19" s="226"/>
-      <c r="EJ19" s="226"/>
-      <c r="EK19" s="226"/>
-      <c r="EL19" s="226"/>
-      <c r="EM19" s="227"/>
+      <c r="EH19" s="227"/>
+      <c r="EI19" s="227"/>
+      <c r="EJ19" s="227"/>
+      <c r="EK19" s="227"/>
+      <c r="EL19" s="227"/>
+      <c r="EM19" s="228"/>
     </row>
     <row r="20" spans="2:143" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="154">
@@ -17901,44 +19880,44 @@
       <c r="DK20" s="157"/>
       <c r="DL20" s="157"/>
       <c r="DM20" s="158"/>
-      <c r="DN20" s="228" t="s">
+      <c r="DN20" s="229" t="s">
         <v>143</v>
       </c>
-      <c r="DO20" s="226"/>
-      <c r="DP20" s="226"/>
-      <c r="DQ20" s="226"/>
-      <c r="DR20" s="227"/>
-      <c r="DS20" s="228" t="s">
+      <c r="DO20" s="227"/>
+      <c r="DP20" s="227"/>
+      <c r="DQ20" s="227"/>
+      <c r="DR20" s="228"/>
+      <c r="DS20" s="229" t="s">
         <v>143</v>
       </c>
-      <c r="DT20" s="226"/>
-      <c r="DU20" s="226"/>
-      <c r="DV20" s="226"/>
-      <c r="DW20" s="227"/>
-      <c r="DX20" s="229" t="s">
+      <c r="DT20" s="227"/>
+      <c r="DU20" s="227"/>
+      <c r="DV20" s="227"/>
+      <c r="DW20" s="228"/>
+      <c r="DX20" s="230" t="s">
         <v>392</v>
       </c>
-      <c r="DY20" s="230"/>
-      <c r="DZ20" s="221" t="s">
+      <c r="DY20" s="231"/>
+      <c r="DZ20" s="222" t="s">
         <v>390</v>
       </c>
-      <c r="EA20" s="222"/>
-      <c r="EB20" s="223"/>
-      <c r="EC20" s="224">
+      <c r="EA20" s="223"/>
+      <c r="EB20" s="224"/>
+      <c r="EC20" s="225">
         <v>44893</v>
       </c>
-      <c r="ED20" s="222"/>
-      <c r="EE20" s="222"/>
-      <c r="EF20" s="223"/>
-      <c r="EG20" s="225" t="s">
+      <c r="ED20" s="223"/>
+      <c r="EE20" s="223"/>
+      <c r="EF20" s="224"/>
+      <c r="EG20" s="226" t="s">
         <v>404</v>
       </c>
-      <c r="EH20" s="226"/>
-      <c r="EI20" s="226"/>
-      <c r="EJ20" s="226"/>
-      <c r="EK20" s="226"/>
-      <c r="EL20" s="226"/>
-      <c r="EM20" s="227"/>
+      <c r="EH20" s="227"/>
+      <c r="EI20" s="227"/>
+      <c r="EJ20" s="227"/>
+      <c r="EK20" s="227"/>
+      <c r="EL20" s="227"/>
+      <c r="EM20" s="228"/>
     </row>
     <row r="21" spans="2:143" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="154">
@@ -18097,44 +20076,44 @@
       <c r="DK21" s="157"/>
       <c r="DL21" s="157"/>
       <c r="DM21" s="158"/>
-      <c r="DN21" s="228" t="s">
+      <c r="DN21" s="229" t="s">
         <v>143</v>
       </c>
-      <c r="DO21" s="226"/>
-      <c r="DP21" s="226"/>
-      <c r="DQ21" s="226"/>
-      <c r="DR21" s="227"/>
-      <c r="DS21" s="228" t="s">
+      <c r="DO21" s="227"/>
+      <c r="DP21" s="227"/>
+      <c r="DQ21" s="227"/>
+      <c r="DR21" s="228"/>
+      <c r="DS21" s="229" t="s">
         <v>143</v>
       </c>
-      <c r="DT21" s="226"/>
-      <c r="DU21" s="226"/>
-      <c r="DV21" s="226"/>
-      <c r="DW21" s="227"/>
-      <c r="DX21" s="229" t="s">
+      <c r="DT21" s="227"/>
+      <c r="DU21" s="227"/>
+      <c r="DV21" s="227"/>
+      <c r="DW21" s="228"/>
+      <c r="DX21" s="230" t="s">
         <v>392</v>
       </c>
-      <c r="DY21" s="230"/>
-      <c r="DZ21" s="221" t="s">
+      <c r="DY21" s="231"/>
+      <c r="DZ21" s="222" t="s">
         <v>390</v>
       </c>
-      <c r="EA21" s="222"/>
-      <c r="EB21" s="223"/>
-      <c r="EC21" s="224">
+      <c r="EA21" s="223"/>
+      <c r="EB21" s="224"/>
+      <c r="EC21" s="225">
         <v>44893</v>
       </c>
-      <c r="ED21" s="222"/>
-      <c r="EE21" s="222"/>
-      <c r="EF21" s="223"/>
-      <c r="EG21" s="225" t="s">
+      <c r="ED21" s="223"/>
+      <c r="EE21" s="223"/>
+      <c r="EF21" s="224"/>
+      <c r="EG21" s="226" t="s">
         <v>404</v>
       </c>
-      <c r="EH21" s="226"/>
-      <c r="EI21" s="226"/>
-      <c r="EJ21" s="226"/>
-      <c r="EK21" s="226"/>
-      <c r="EL21" s="226"/>
-      <c r="EM21" s="227"/>
+      <c r="EH21" s="227"/>
+      <c r="EI21" s="227"/>
+      <c r="EJ21" s="227"/>
+      <c r="EK21" s="227"/>
+      <c r="EL21" s="227"/>
+      <c r="EM21" s="228"/>
     </row>
     <row r="22" spans="2:143" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="154">
@@ -18293,44 +20272,44 @@
       <c r="DK22" s="157"/>
       <c r="DL22" s="157"/>
       <c r="DM22" s="158"/>
-      <c r="DN22" s="228" t="s">
+      <c r="DN22" s="229" t="s">
         <v>143</v>
       </c>
-      <c r="DO22" s="226"/>
-      <c r="DP22" s="226"/>
-      <c r="DQ22" s="226"/>
-      <c r="DR22" s="227"/>
-      <c r="DS22" s="228" t="s">
+      <c r="DO22" s="227"/>
+      <c r="DP22" s="227"/>
+      <c r="DQ22" s="227"/>
+      <c r="DR22" s="228"/>
+      <c r="DS22" s="229" t="s">
         <v>143</v>
       </c>
-      <c r="DT22" s="226"/>
-      <c r="DU22" s="226"/>
-      <c r="DV22" s="226"/>
-      <c r="DW22" s="227"/>
-      <c r="DX22" s="229" t="s">
+      <c r="DT22" s="227"/>
+      <c r="DU22" s="227"/>
+      <c r="DV22" s="227"/>
+      <c r="DW22" s="228"/>
+      <c r="DX22" s="230" t="s">
         <v>392</v>
       </c>
-      <c r="DY22" s="230"/>
-      <c r="DZ22" s="221" t="s">
+      <c r="DY22" s="231"/>
+      <c r="DZ22" s="222" t="s">
         <v>390</v>
       </c>
-      <c r="EA22" s="222"/>
-      <c r="EB22" s="223"/>
-      <c r="EC22" s="224">
+      <c r="EA22" s="223"/>
+      <c r="EB22" s="224"/>
+      <c r="EC22" s="225">
         <v>44893</v>
       </c>
-      <c r="ED22" s="222"/>
-      <c r="EE22" s="222"/>
-      <c r="EF22" s="223"/>
-      <c r="EG22" s="225" t="s">
+      <c r="ED22" s="223"/>
+      <c r="EE22" s="223"/>
+      <c r="EF22" s="224"/>
+      <c r="EG22" s="226" t="s">
         <v>404</v>
       </c>
-      <c r="EH22" s="226"/>
-      <c r="EI22" s="226"/>
-      <c r="EJ22" s="226"/>
-      <c r="EK22" s="226"/>
-      <c r="EL22" s="226"/>
-      <c r="EM22" s="227"/>
+      <c r="EH22" s="227"/>
+      <c r="EI22" s="227"/>
+      <c r="EJ22" s="227"/>
+      <c r="EK22" s="227"/>
+      <c r="EL22" s="227"/>
+      <c r="EM22" s="228"/>
     </row>
     <row r="23" spans="2:143" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="154">
@@ -18489,44 +20468,44 @@
       <c r="DK23" s="157"/>
       <c r="DL23" s="157"/>
       <c r="DM23" s="158"/>
-      <c r="DN23" s="228" t="s">
+      <c r="DN23" s="229" t="s">
         <v>143</v>
       </c>
-      <c r="DO23" s="226"/>
-      <c r="DP23" s="226"/>
-      <c r="DQ23" s="226"/>
-      <c r="DR23" s="227"/>
-      <c r="DS23" s="228" t="s">
+      <c r="DO23" s="227"/>
+      <c r="DP23" s="227"/>
+      <c r="DQ23" s="227"/>
+      <c r="DR23" s="228"/>
+      <c r="DS23" s="229" t="s">
         <v>143</v>
       </c>
-      <c r="DT23" s="226"/>
-      <c r="DU23" s="226"/>
-      <c r="DV23" s="226"/>
-      <c r="DW23" s="227"/>
-      <c r="DX23" s="229" t="s">
+      <c r="DT23" s="227"/>
+      <c r="DU23" s="227"/>
+      <c r="DV23" s="227"/>
+      <c r="DW23" s="228"/>
+      <c r="DX23" s="230" t="s">
         <v>392</v>
       </c>
-      <c r="DY23" s="230"/>
-      <c r="DZ23" s="221" t="s">
+      <c r="DY23" s="231"/>
+      <c r="DZ23" s="222" t="s">
         <v>390</v>
       </c>
-      <c r="EA23" s="222"/>
-      <c r="EB23" s="223"/>
-      <c r="EC23" s="224">
+      <c r="EA23" s="223"/>
+      <c r="EB23" s="224"/>
+      <c r="EC23" s="225">
         <v>44893</v>
       </c>
-      <c r="ED23" s="222"/>
-      <c r="EE23" s="222"/>
-      <c r="EF23" s="223"/>
-      <c r="EG23" s="225" t="s">
+      <c r="ED23" s="223"/>
+      <c r="EE23" s="223"/>
+      <c r="EF23" s="224"/>
+      <c r="EG23" s="226" t="s">
         <v>404</v>
       </c>
-      <c r="EH23" s="226"/>
-      <c r="EI23" s="226"/>
-      <c r="EJ23" s="226"/>
-      <c r="EK23" s="226"/>
-      <c r="EL23" s="226"/>
-      <c r="EM23" s="227"/>
+      <c r="EH23" s="227"/>
+      <c r="EI23" s="227"/>
+      <c r="EJ23" s="227"/>
+      <c r="EK23" s="227"/>
+      <c r="EL23" s="227"/>
+      <c r="EM23" s="228"/>
     </row>
     <row r="24" spans="2:143" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="154">
@@ -18685,44 +20664,44 @@
       <c r="DK24" s="157"/>
       <c r="DL24" s="157"/>
       <c r="DM24" s="158"/>
-      <c r="DN24" s="228" t="s">
+      <c r="DN24" s="229" t="s">
         <v>143</v>
       </c>
-      <c r="DO24" s="226"/>
-      <c r="DP24" s="226"/>
-      <c r="DQ24" s="226"/>
-      <c r="DR24" s="227"/>
-      <c r="DS24" s="228" t="s">
+      <c r="DO24" s="227"/>
+      <c r="DP24" s="227"/>
+      <c r="DQ24" s="227"/>
+      <c r="DR24" s="228"/>
+      <c r="DS24" s="229" t="s">
         <v>143</v>
       </c>
-      <c r="DT24" s="226"/>
-      <c r="DU24" s="226"/>
-      <c r="DV24" s="226"/>
-      <c r="DW24" s="227"/>
-      <c r="DX24" s="229" t="s">
+      <c r="DT24" s="227"/>
+      <c r="DU24" s="227"/>
+      <c r="DV24" s="227"/>
+      <c r="DW24" s="228"/>
+      <c r="DX24" s="230" t="s">
         <v>392</v>
       </c>
-      <c r="DY24" s="230"/>
-      <c r="DZ24" s="221" t="s">
+      <c r="DY24" s="231"/>
+      <c r="DZ24" s="222" t="s">
         <v>390</v>
       </c>
-      <c r="EA24" s="222"/>
-      <c r="EB24" s="223"/>
-      <c r="EC24" s="224">
+      <c r="EA24" s="223"/>
+      <c r="EB24" s="224"/>
+      <c r="EC24" s="225">
         <v>44893</v>
       </c>
-      <c r="ED24" s="222"/>
-      <c r="EE24" s="222"/>
-      <c r="EF24" s="223"/>
-      <c r="EG24" s="225" t="s">
+      <c r="ED24" s="223"/>
+      <c r="EE24" s="223"/>
+      <c r="EF24" s="224"/>
+      <c r="EG24" s="226" t="s">
         <v>404</v>
       </c>
-      <c r="EH24" s="226"/>
-      <c r="EI24" s="226"/>
-      <c r="EJ24" s="226"/>
-      <c r="EK24" s="226"/>
-      <c r="EL24" s="226"/>
-      <c r="EM24" s="227"/>
+      <c r="EH24" s="227"/>
+      <c r="EI24" s="227"/>
+      <c r="EJ24" s="227"/>
+      <c r="EK24" s="227"/>
+      <c r="EL24" s="227"/>
+      <c r="EM24" s="228"/>
     </row>
     <row r="25" spans="2:143" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="154">
@@ -18881,44 +20860,44 @@
       <c r="DK25" s="157"/>
       <c r="DL25" s="157"/>
       <c r="DM25" s="158"/>
-      <c r="DN25" s="228" t="s">
+      <c r="DN25" s="229" t="s">
         <v>143</v>
       </c>
-      <c r="DO25" s="226"/>
-      <c r="DP25" s="226"/>
-      <c r="DQ25" s="226"/>
-      <c r="DR25" s="227"/>
-      <c r="DS25" s="228" t="s">
+      <c r="DO25" s="227"/>
+      <c r="DP25" s="227"/>
+      <c r="DQ25" s="227"/>
+      <c r="DR25" s="228"/>
+      <c r="DS25" s="229" t="s">
         <v>143</v>
       </c>
-      <c r="DT25" s="226"/>
-      <c r="DU25" s="226"/>
-      <c r="DV25" s="226"/>
-      <c r="DW25" s="227"/>
-      <c r="DX25" s="229" t="s">
+      <c r="DT25" s="227"/>
+      <c r="DU25" s="227"/>
+      <c r="DV25" s="227"/>
+      <c r="DW25" s="228"/>
+      <c r="DX25" s="230" t="s">
         <v>392</v>
       </c>
-      <c r="DY25" s="230"/>
-      <c r="DZ25" s="221" t="s">
+      <c r="DY25" s="231"/>
+      <c r="DZ25" s="222" t="s">
         <v>390</v>
       </c>
-      <c r="EA25" s="222"/>
-      <c r="EB25" s="223"/>
-      <c r="EC25" s="224">
+      <c r="EA25" s="223"/>
+      <c r="EB25" s="224"/>
+      <c r="EC25" s="225">
         <v>44893</v>
       </c>
-      <c r="ED25" s="222"/>
-      <c r="EE25" s="222"/>
-      <c r="EF25" s="223"/>
-      <c r="EG25" s="225" t="s">
+      <c r="ED25" s="223"/>
+      <c r="EE25" s="223"/>
+      <c r="EF25" s="224"/>
+      <c r="EG25" s="226" t="s">
         <v>404</v>
       </c>
-      <c r="EH25" s="226"/>
-      <c r="EI25" s="226"/>
-      <c r="EJ25" s="226"/>
-      <c r="EK25" s="226"/>
-      <c r="EL25" s="226"/>
-      <c r="EM25" s="227"/>
+      <c r="EH25" s="227"/>
+      <c r="EI25" s="227"/>
+      <c r="EJ25" s="227"/>
+      <c r="EK25" s="227"/>
+      <c r="EL25" s="227"/>
+      <c r="EM25" s="228"/>
     </row>
     <row r="26" spans="2:143" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="154">
@@ -19077,44 +21056,44 @@
       <c r="DK26" s="157"/>
       <c r="DL26" s="157"/>
       <c r="DM26" s="158"/>
-      <c r="DN26" s="228" t="s">
+      <c r="DN26" s="229" t="s">
         <v>143</v>
       </c>
-      <c r="DO26" s="226"/>
-      <c r="DP26" s="226"/>
-      <c r="DQ26" s="226"/>
-      <c r="DR26" s="227"/>
-      <c r="DS26" s="234" t="s">
+      <c r="DO26" s="227"/>
+      <c r="DP26" s="227"/>
+      <c r="DQ26" s="227"/>
+      <c r="DR26" s="228"/>
+      <c r="DS26" s="235" t="s">
         <v>396</v>
       </c>
-      <c r="DT26" s="235"/>
-      <c r="DU26" s="235"/>
-      <c r="DV26" s="235"/>
-      <c r="DW26" s="236"/>
-      <c r="DX26" s="237" t="s">
+      <c r="DT26" s="236"/>
+      <c r="DU26" s="236"/>
+      <c r="DV26" s="236"/>
+      <c r="DW26" s="237"/>
+      <c r="DX26" s="238" t="s">
         <v>396</v>
       </c>
-      <c r="DY26" s="238"/>
-      <c r="DZ26" s="239" t="s">
+      <c r="DY26" s="239"/>
+      <c r="DZ26" s="240" t="s">
         <v>396</v>
       </c>
-      <c r="EA26" s="240"/>
-      <c r="EB26" s="241"/>
-      <c r="EC26" s="242" t="s">
+      <c r="EA26" s="241"/>
+      <c r="EB26" s="242"/>
+      <c r="EC26" s="243" t="s">
         <v>396</v>
       </c>
-      <c r="ED26" s="240"/>
-      <c r="EE26" s="240"/>
-      <c r="EF26" s="241"/>
-      <c r="EG26" s="246" t="s">
+      <c r="ED26" s="241"/>
+      <c r="EE26" s="241"/>
+      <c r="EF26" s="242"/>
+      <c r="EG26" s="247" t="s">
         <v>397</v>
       </c>
-      <c r="EH26" s="247"/>
-      <c r="EI26" s="247"/>
-      <c r="EJ26" s="247"/>
-      <c r="EK26" s="247"/>
-      <c r="EL26" s="247"/>
-      <c r="EM26" s="248"/>
+      <c r="EH26" s="248"/>
+      <c r="EI26" s="248"/>
+      <c r="EJ26" s="248"/>
+      <c r="EK26" s="248"/>
+      <c r="EL26" s="248"/>
+      <c r="EM26" s="249"/>
     </row>
     <row r="28" spans="2:143" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
@@ -19527,134 +21506,134 @@
         <v>131</v>
       </c>
       <c r="C52" s="150"/>
-      <c r="D52" s="231" t="s">
+      <c r="D52" s="232" t="s">
         <v>327</v>
       </c>
-      <c r="E52" s="232"/>
-      <c r="F52" s="232"/>
-      <c r="G52" s="232"/>
-      <c r="H52" s="232"/>
-      <c r="I52" s="233"/>
-      <c r="J52" s="218" t="s">
+      <c r="E52" s="233"/>
+      <c r="F52" s="233"/>
+      <c r="G52" s="233"/>
+      <c r="H52" s="233"/>
+      <c r="I52" s="234"/>
+      <c r="J52" s="219" t="s">
         <v>328</v>
       </c>
-      <c r="K52" s="219"/>
-      <c r="L52" s="219"/>
-      <c r="M52" s="219"/>
-      <c r="N52" s="219"/>
-      <c r="O52" s="220"/>
-      <c r="P52" s="218" t="s">
+      <c r="K52" s="220"/>
+      <c r="L52" s="220"/>
+      <c r="M52" s="220"/>
+      <c r="N52" s="220"/>
+      <c r="O52" s="221"/>
+      <c r="P52" s="219" t="s">
         <v>329</v>
       </c>
-      <c r="Q52" s="219"/>
-      <c r="R52" s="219"/>
-      <c r="S52" s="219"/>
-      <c r="T52" s="219"/>
-      <c r="U52" s="220"/>
-      <c r="V52" s="231" t="s">
+      <c r="Q52" s="220"/>
+      <c r="R52" s="220"/>
+      <c r="S52" s="220"/>
+      <c r="T52" s="220"/>
+      <c r="U52" s="221"/>
+      <c r="V52" s="232" t="s">
         <v>330</v>
       </c>
-      <c r="W52" s="232"/>
-      <c r="X52" s="232"/>
-      <c r="Y52" s="232"/>
-      <c r="Z52" s="232"/>
-      <c r="AA52" s="233"/>
-      <c r="AB52" s="231" t="s">
+      <c r="W52" s="233"/>
+      <c r="X52" s="233"/>
+      <c r="Y52" s="233"/>
+      <c r="Z52" s="233"/>
+      <c r="AA52" s="234"/>
+      <c r="AB52" s="232" t="s">
         <v>331</v>
       </c>
-      <c r="AC52" s="232"/>
-      <c r="AD52" s="232"/>
-      <c r="AE52" s="232"/>
-      <c r="AF52" s="232"/>
-      <c r="AG52" s="233"/>
-      <c r="AH52" s="231" t="s">
+      <c r="AC52" s="233"/>
+      <c r="AD52" s="233"/>
+      <c r="AE52" s="233"/>
+      <c r="AF52" s="233"/>
+      <c r="AG52" s="234"/>
+      <c r="AH52" s="232" t="s">
         <v>332</v>
       </c>
-      <c r="AI52" s="232"/>
-      <c r="AJ52" s="232"/>
-      <c r="AK52" s="232"/>
-      <c r="AL52" s="232"/>
-      <c r="AM52" s="233"/>
-      <c r="AN52" s="231" t="s">
+      <c r="AI52" s="233"/>
+      <c r="AJ52" s="233"/>
+      <c r="AK52" s="233"/>
+      <c r="AL52" s="233"/>
+      <c r="AM52" s="234"/>
+      <c r="AN52" s="232" t="s">
         <v>334</v>
       </c>
-      <c r="AO52" s="232"/>
-      <c r="AP52" s="232"/>
-      <c r="AQ52" s="232"/>
-      <c r="AR52" s="232"/>
-      <c r="AS52" s="233"/>
-      <c r="AT52" s="218" t="s">
+      <c r="AO52" s="233"/>
+      <c r="AP52" s="233"/>
+      <c r="AQ52" s="233"/>
+      <c r="AR52" s="233"/>
+      <c r="AS52" s="234"/>
+      <c r="AT52" s="219" t="s">
         <v>153</v>
       </c>
-      <c r="AU52" s="219"/>
-      <c r="AV52" s="219"/>
-      <c r="AW52" s="219"/>
-      <c r="AX52" s="219"/>
-      <c r="AY52" s="220"/>
-      <c r="AZ52" s="231" t="s">
+      <c r="AU52" s="220"/>
+      <c r="AV52" s="220"/>
+      <c r="AW52" s="220"/>
+      <c r="AX52" s="220"/>
+      <c r="AY52" s="221"/>
+      <c r="AZ52" s="232" t="s">
         <v>154</v>
       </c>
-      <c r="BA52" s="232"/>
-      <c r="BB52" s="232"/>
-      <c r="BC52" s="232"/>
-      <c r="BD52" s="232"/>
-      <c r="BE52" s="233"/>
-      <c r="BF52" s="218" t="s">
+      <c r="BA52" s="233"/>
+      <c r="BB52" s="233"/>
+      <c r="BC52" s="233"/>
+      <c r="BD52" s="233"/>
+      <c r="BE52" s="234"/>
+      <c r="BF52" s="219" t="s">
         <v>155</v>
       </c>
-      <c r="BG52" s="219"/>
-      <c r="BH52" s="219"/>
-      <c r="BI52" s="219"/>
-      <c r="BJ52" s="219"/>
-      <c r="BK52" s="220"/>
-      <c r="BL52" s="231" t="s">
+      <c r="BG52" s="220"/>
+      <c r="BH52" s="220"/>
+      <c r="BI52" s="220"/>
+      <c r="BJ52" s="220"/>
+      <c r="BK52" s="221"/>
+      <c r="BL52" s="232" t="s">
         <v>156</v>
       </c>
-      <c r="BM52" s="232"/>
-      <c r="BN52" s="232"/>
-      <c r="BO52" s="232"/>
-      <c r="BP52" s="232"/>
-      <c r="BQ52" s="233"/>
-      <c r="BR52" s="218" t="s">
+      <c r="BM52" s="233"/>
+      <c r="BN52" s="233"/>
+      <c r="BO52" s="233"/>
+      <c r="BP52" s="233"/>
+      <c r="BQ52" s="234"/>
+      <c r="BR52" s="219" t="s">
         <v>157</v>
       </c>
-      <c r="BS52" s="219"/>
-      <c r="BT52" s="219"/>
-      <c r="BU52" s="219"/>
-      <c r="BV52" s="219"/>
-      <c r="BW52" s="220"/>
-      <c r="BX52" s="218" t="s">
+      <c r="BS52" s="220"/>
+      <c r="BT52" s="220"/>
+      <c r="BU52" s="220"/>
+      <c r="BV52" s="220"/>
+      <c r="BW52" s="221"/>
+      <c r="BX52" s="219" t="s">
         <v>158</v>
       </c>
-      <c r="BY52" s="219"/>
-      <c r="BZ52" s="219"/>
-      <c r="CA52" s="219"/>
-      <c r="CB52" s="219"/>
-      <c r="CC52" s="220"/>
-      <c r="CD52" s="218" t="s">
+      <c r="BY52" s="220"/>
+      <c r="BZ52" s="220"/>
+      <c r="CA52" s="220"/>
+      <c r="CB52" s="220"/>
+      <c r="CC52" s="221"/>
+      <c r="CD52" s="219" t="s">
         <v>159</v>
       </c>
-      <c r="CE52" s="219"/>
-      <c r="CF52" s="219"/>
-      <c r="CG52" s="219"/>
-      <c r="CH52" s="219"/>
-      <c r="CI52" s="220"/>
-      <c r="CJ52" s="218" t="s">
+      <c r="CE52" s="220"/>
+      <c r="CF52" s="220"/>
+      <c r="CG52" s="220"/>
+      <c r="CH52" s="220"/>
+      <c r="CI52" s="221"/>
+      <c r="CJ52" s="219" t="s">
         <v>358</v>
       </c>
-      <c r="CK52" s="219"/>
-      <c r="CL52" s="219"/>
-      <c r="CM52" s="219"/>
-      <c r="CN52" s="219"/>
-      <c r="CO52" s="220"/>
-      <c r="CP52" s="218" t="s">
+      <c r="CK52" s="220"/>
+      <c r="CL52" s="220"/>
+      <c r="CM52" s="220"/>
+      <c r="CN52" s="220"/>
+      <c r="CO52" s="221"/>
+      <c r="CP52" s="219" t="s">
         <v>160</v>
       </c>
-      <c r="CQ52" s="219"/>
-      <c r="CR52" s="219"/>
-      <c r="CS52" s="219"/>
-      <c r="CT52" s="219"/>
-      <c r="CU52" s="220"/>
+      <c r="CQ52" s="220"/>
+      <c r="CR52" s="220"/>
+      <c r="CS52" s="220"/>
+      <c r="CT52" s="220"/>
+      <c r="CU52" s="221"/>
       <c r="CV52" s="151" t="s">
         <v>133</v>
       </c>
@@ -19843,52 +21822,52 @@
       <c r="CS53" s="157"/>
       <c r="CT53" s="157"/>
       <c r="CU53" s="158"/>
-      <c r="CV53" s="228" t="s">
+      <c r="CV53" s="229" t="s">
         <v>141</v>
       </c>
-      <c r="CW53" s="226"/>
-      <c r="CX53" s="226"/>
-      <c r="CY53" s="226"/>
-      <c r="CZ53" s="227"/>
-      <c r="DA53" s="228" t="s">
+      <c r="CW53" s="227"/>
+      <c r="CX53" s="227"/>
+      <c r="CY53" s="227"/>
+      <c r="CZ53" s="228"/>
+      <c r="DA53" s="229" t="s">
         <v>141</v>
       </c>
-      <c r="DB53" s="226"/>
-      <c r="DC53" s="226"/>
-      <c r="DD53" s="226"/>
-      <c r="DE53" s="227"/>
-      <c r="DF53" s="229" t="s">
+      <c r="DB53" s="227"/>
+      <c r="DC53" s="227"/>
+      <c r="DD53" s="227"/>
+      <c r="DE53" s="228"/>
+      <c r="DF53" s="230" t="s">
         <v>408</v>
       </c>
-      <c r="DG53" s="230"/>
-      <c r="DH53" s="221" t="s">
+      <c r="DG53" s="231"/>
+      <c r="DH53" s="222" t="s">
         <v>371</v>
       </c>
-      <c r="DI53" s="222"/>
-      <c r="DJ53" s="223"/>
-      <c r="DK53" s="224">
+      <c r="DI53" s="223"/>
+      <c r="DJ53" s="224"/>
+      <c r="DK53" s="225">
         <v>44893</v>
       </c>
-      <c r="DL53" s="222"/>
-      <c r="DM53" s="222"/>
-      <c r="DN53" s="223"/>
-      <c r="DO53" s="225"/>
-      <c r="DP53" s="243"/>
-      <c r="DQ53" s="243"/>
-      <c r="DR53" s="243"/>
-      <c r="DS53" s="243"/>
-      <c r="DT53" s="243"/>
-      <c r="DU53" s="243"/>
-      <c r="DV53" s="243"/>
-      <c r="DW53" s="243"/>
-      <c r="DX53" s="243"/>
-      <c r="DY53" s="243"/>
-      <c r="DZ53" s="226"/>
-      <c r="EA53" s="226"/>
-      <c r="EB53" s="226"/>
-      <c r="EC53" s="226"/>
-      <c r="ED53" s="226"/>
-      <c r="EE53" s="227"/>
+      <c r="DL53" s="223"/>
+      <c r="DM53" s="223"/>
+      <c r="DN53" s="224"/>
+      <c r="DO53" s="226"/>
+      <c r="DP53" s="244"/>
+      <c r="DQ53" s="244"/>
+      <c r="DR53" s="244"/>
+      <c r="DS53" s="244"/>
+      <c r="DT53" s="244"/>
+      <c r="DU53" s="244"/>
+      <c r="DV53" s="244"/>
+      <c r="DW53" s="244"/>
+      <c r="DX53" s="244"/>
+      <c r="DY53" s="244"/>
+      <c r="DZ53" s="227"/>
+      <c r="EA53" s="227"/>
+      <c r="EB53" s="227"/>
+      <c r="EC53" s="227"/>
+      <c r="ED53" s="227"/>
+      <c r="EE53" s="228"/>
     </row>
     <row r="54" spans="2:135" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="154">
@@ -20029,54 +22008,54 @@
       <c r="CS54" s="157"/>
       <c r="CT54" s="157"/>
       <c r="CU54" s="158"/>
-      <c r="CV54" s="228" t="s">
+      <c r="CV54" s="229" t="s">
         <v>143</v>
       </c>
-      <c r="CW54" s="226"/>
-      <c r="CX54" s="226"/>
-      <c r="CY54" s="226"/>
-      <c r="CZ54" s="227"/>
-      <c r="DA54" s="228" t="s">
+      <c r="CW54" s="227"/>
+      <c r="CX54" s="227"/>
+      <c r="CY54" s="227"/>
+      <c r="CZ54" s="228"/>
+      <c r="DA54" s="229" t="s">
         <v>143</v>
       </c>
-      <c r="DB54" s="226"/>
-      <c r="DC54" s="226"/>
-      <c r="DD54" s="226"/>
-      <c r="DE54" s="227"/>
-      <c r="DF54" s="229" t="s">
+      <c r="DB54" s="227"/>
+      <c r="DC54" s="227"/>
+      <c r="DD54" s="227"/>
+      <c r="DE54" s="228"/>
+      <c r="DF54" s="230" t="s">
         <v>408</v>
       </c>
-      <c r="DG54" s="230"/>
-      <c r="DH54" s="221" t="s">
+      <c r="DG54" s="231"/>
+      <c r="DH54" s="222" t="s">
         <v>371</v>
       </c>
-      <c r="DI54" s="222"/>
-      <c r="DJ54" s="223"/>
-      <c r="DK54" s="224">
+      <c r="DI54" s="223"/>
+      <c r="DJ54" s="224"/>
+      <c r="DK54" s="225">
         <v>44893</v>
       </c>
-      <c r="DL54" s="222"/>
-      <c r="DM54" s="222"/>
-      <c r="DN54" s="223"/>
-      <c r="DO54" s="225" t="s">
+      <c r="DL54" s="223"/>
+      <c r="DM54" s="223"/>
+      <c r="DN54" s="224"/>
+      <c r="DO54" s="226" t="s">
         <v>413</v>
       </c>
-      <c r="DP54" s="243"/>
-      <c r="DQ54" s="243"/>
-      <c r="DR54" s="243"/>
-      <c r="DS54" s="243"/>
-      <c r="DT54" s="243"/>
-      <c r="DU54" s="243"/>
-      <c r="DV54" s="243"/>
-      <c r="DW54" s="243"/>
-      <c r="DX54" s="243"/>
-      <c r="DY54" s="243"/>
-      <c r="DZ54" s="226"/>
-      <c r="EA54" s="226"/>
-      <c r="EB54" s="226"/>
-      <c r="EC54" s="226"/>
-      <c r="ED54" s="226"/>
-      <c r="EE54" s="227"/>
+      <c r="DP54" s="244"/>
+      <c r="DQ54" s="244"/>
+      <c r="DR54" s="244"/>
+      <c r="DS54" s="244"/>
+      <c r="DT54" s="244"/>
+      <c r="DU54" s="244"/>
+      <c r="DV54" s="244"/>
+      <c r="DW54" s="244"/>
+      <c r="DX54" s="244"/>
+      <c r="DY54" s="244"/>
+      <c r="DZ54" s="227"/>
+      <c r="EA54" s="227"/>
+      <c r="EB54" s="227"/>
+      <c r="EC54" s="227"/>
+      <c r="ED54" s="227"/>
+      <c r="EE54" s="228"/>
     </row>
     <row r="55" spans="2:135" x14ac:dyDescent="0.2">
       <c r="B55" s="154">
@@ -20217,52 +22196,52 @@
       <c r="CS55" s="157"/>
       <c r="CT55" s="157"/>
       <c r="CU55" s="158"/>
-      <c r="CV55" s="228" t="s">
+      <c r="CV55" s="229" t="s">
         <v>143</v>
       </c>
-      <c r="CW55" s="226"/>
-      <c r="CX55" s="226"/>
-      <c r="CY55" s="226"/>
-      <c r="CZ55" s="227"/>
-      <c r="DA55" s="228" t="s">
+      <c r="CW55" s="227"/>
+      <c r="CX55" s="227"/>
+      <c r="CY55" s="227"/>
+      <c r="CZ55" s="228"/>
+      <c r="DA55" s="229" t="s">
         <v>143</v>
       </c>
-      <c r="DB55" s="226"/>
-      <c r="DC55" s="226"/>
-      <c r="DD55" s="226"/>
-      <c r="DE55" s="227"/>
-      <c r="DF55" s="229" t="s">
+      <c r="DB55" s="227"/>
+      <c r="DC55" s="227"/>
+      <c r="DD55" s="227"/>
+      <c r="DE55" s="228"/>
+      <c r="DF55" s="230" t="s">
         <v>408</v>
       </c>
-      <c r="DG55" s="230"/>
-      <c r="DH55" s="221" t="s">
+      <c r="DG55" s="231"/>
+      <c r="DH55" s="222" t="s">
         <v>371</v>
       </c>
-      <c r="DI55" s="222"/>
-      <c r="DJ55" s="223"/>
-      <c r="DK55" s="224">
+      <c r="DI55" s="223"/>
+      <c r="DJ55" s="224"/>
+      <c r="DK55" s="225">
         <v>44893</v>
       </c>
-      <c r="DL55" s="222"/>
-      <c r="DM55" s="222"/>
-      <c r="DN55" s="223"/>
-      <c r="DO55" s="225"/>
-      <c r="DP55" s="243"/>
-      <c r="DQ55" s="243"/>
-      <c r="DR55" s="243"/>
-      <c r="DS55" s="243"/>
-      <c r="DT55" s="243"/>
-      <c r="DU55" s="243"/>
-      <c r="DV55" s="243"/>
-      <c r="DW55" s="243"/>
-      <c r="DX55" s="243"/>
-      <c r="DY55" s="243"/>
-      <c r="DZ55" s="226"/>
-      <c r="EA55" s="226"/>
-      <c r="EB55" s="226"/>
-      <c r="EC55" s="226"/>
-      <c r="ED55" s="226"/>
-      <c r="EE55" s="244"/>
+      <c r="DL55" s="223"/>
+      <c r="DM55" s="223"/>
+      <c r="DN55" s="224"/>
+      <c r="DO55" s="226"/>
+      <c r="DP55" s="244"/>
+      <c r="DQ55" s="244"/>
+      <c r="DR55" s="244"/>
+      <c r="DS55" s="244"/>
+      <c r="DT55" s="244"/>
+      <c r="DU55" s="244"/>
+      <c r="DV55" s="244"/>
+      <c r="DW55" s="244"/>
+      <c r="DX55" s="244"/>
+      <c r="DY55" s="244"/>
+      <c r="DZ55" s="227"/>
+      <c r="EA55" s="227"/>
+      <c r="EB55" s="227"/>
+      <c r="EC55" s="227"/>
+      <c r="ED55" s="227"/>
+      <c r="EE55" s="245"/>
     </row>
     <row r="56" spans="2:135" x14ac:dyDescent="0.2">
       <c r="B56" s="154">
@@ -20403,52 +22382,52 @@
       <c r="CS56" s="157"/>
       <c r="CT56" s="157"/>
       <c r="CU56" s="158"/>
-      <c r="CV56" s="228" t="s">
+      <c r="CV56" s="229" t="s">
         <v>143</v>
       </c>
-      <c r="CW56" s="226"/>
-      <c r="CX56" s="226"/>
-      <c r="CY56" s="226"/>
-      <c r="CZ56" s="227"/>
-      <c r="DA56" s="228" t="s">
+      <c r="CW56" s="227"/>
+      <c r="CX56" s="227"/>
+      <c r="CY56" s="227"/>
+      <c r="CZ56" s="228"/>
+      <c r="DA56" s="229" t="s">
         <v>143</v>
       </c>
-      <c r="DB56" s="226"/>
-      <c r="DC56" s="226"/>
-      <c r="DD56" s="226"/>
-      <c r="DE56" s="227"/>
-      <c r="DF56" s="229" t="s">
+      <c r="DB56" s="227"/>
+      <c r="DC56" s="227"/>
+      <c r="DD56" s="227"/>
+      <c r="DE56" s="228"/>
+      <c r="DF56" s="230" t="s">
         <v>408</v>
       </c>
-      <c r="DG56" s="230"/>
-      <c r="DH56" s="221" t="s">
+      <c r="DG56" s="231"/>
+      <c r="DH56" s="222" t="s">
         <v>371</v>
       </c>
-      <c r="DI56" s="222"/>
-      <c r="DJ56" s="223"/>
-      <c r="DK56" s="224">
+      <c r="DI56" s="223"/>
+      <c r="DJ56" s="224"/>
+      <c r="DK56" s="225">
         <v>44893</v>
       </c>
-      <c r="DL56" s="222"/>
-      <c r="DM56" s="222"/>
-      <c r="DN56" s="223"/>
-      <c r="DO56" s="225"/>
-      <c r="DP56" s="243"/>
-      <c r="DQ56" s="243"/>
-      <c r="DR56" s="243"/>
-      <c r="DS56" s="243"/>
-      <c r="DT56" s="243"/>
-      <c r="DU56" s="243"/>
-      <c r="DV56" s="243"/>
-      <c r="DW56" s="243"/>
-      <c r="DX56" s="243"/>
-      <c r="DY56" s="243"/>
-      <c r="DZ56" s="226"/>
-      <c r="EA56" s="226"/>
-      <c r="EB56" s="226"/>
-      <c r="EC56" s="226"/>
-      <c r="ED56" s="226"/>
-      <c r="EE56" s="227"/>
+      <c r="DL56" s="223"/>
+      <c r="DM56" s="223"/>
+      <c r="DN56" s="224"/>
+      <c r="DO56" s="226"/>
+      <c r="DP56" s="244"/>
+      <c r="DQ56" s="244"/>
+      <c r="DR56" s="244"/>
+      <c r="DS56" s="244"/>
+      <c r="DT56" s="244"/>
+      <c r="DU56" s="244"/>
+      <c r="DV56" s="244"/>
+      <c r="DW56" s="244"/>
+      <c r="DX56" s="244"/>
+      <c r="DY56" s="244"/>
+      <c r="DZ56" s="227"/>
+      <c r="EA56" s="227"/>
+      <c r="EB56" s="227"/>
+      <c r="EC56" s="227"/>
+      <c r="ED56" s="227"/>
+      <c r="EE56" s="228"/>
     </row>
     <row r="57" spans="2:135" x14ac:dyDescent="0.2">
       <c r="B57" s="154">
@@ -20589,54 +22568,54 @@
       <c r="CS57" s="157"/>
       <c r="CT57" s="157"/>
       <c r="CU57" s="158"/>
-      <c r="CV57" s="228" t="s">
+      <c r="CV57" s="229" t="s">
         <v>143</v>
       </c>
-      <c r="CW57" s="226"/>
-      <c r="CX57" s="226"/>
-      <c r="CY57" s="226"/>
-      <c r="CZ57" s="227"/>
-      <c r="DA57" s="228" t="s">
+      <c r="CW57" s="227"/>
+      <c r="CX57" s="227"/>
+      <c r="CY57" s="227"/>
+      <c r="CZ57" s="228"/>
+      <c r="DA57" s="229" t="s">
         <v>143</v>
       </c>
-      <c r="DB57" s="226"/>
-      <c r="DC57" s="226"/>
-      <c r="DD57" s="226"/>
-      <c r="DE57" s="227"/>
-      <c r="DF57" s="229" t="s">
+      <c r="DB57" s="227"/>
+      <c r="DC57" s="227"/>
+      <c r="DD57" s="227"/>
+      <c r="DE57" s="228"/>
+      <c r="DF57" s="230" t="s">
         <v>408</v>
       </c>
-      <c r="DG57" s="230"/>
-      <c r="DH57" s="221" t="s">
+      <c r="DG57" s="231"/>
+      <c r="DH57" s="222" t="s">
         <v>371</v>
       </c>
-      <c r="DI57" s="222"/>
-      <c r="DJ57" s="223"/>
-      <c r="DK57" s="224">
+      <c r="DI57" s="223"/>
+      <c r="DJ57" s="224"/>
+      <c r="DK57" s="225">
         <v>44893</v>
       </c>
-      <c r="DL57" s="222"/>
-      <c r="DM57" s="222"/>
-      <c r="DN57" s="223"/>
-      <c r="DO57" s="225" t="s">
+      <c r="DL57" s="223"/>
+      <c r="DM57" s="223"/>
+      <c r="DN57" s="224"/>
+      <c r="DO57" s="226" t="s">
         <v>414</v>
       </c>
-      <c r="DP57" s="243"/>
-      <c r="DQ57" s="243"/>
-      <c r="DR57" s="243"/>
-      <c r="DS57" s="243"/>
-      <c r="DT57" s="243"/>
-      <c r="DU57" s="243"/>
-      <c r="DV57" s="243"/>
-      <c r="DW57" s="243"/>
-      <c r="DX57" s="243"/>
-      <c r="DY57" s="243"/>
-      <c r="DZ57" s="226"/>
-      <c r="EA57" s="226"/>
-      <c r="EB57" s="226"/>
-      <c r="EC57" s="226"/>
-      <c r="ED57" s="226"/>
-      <c r="EE57" s="227"/>
+      <c r="DP57" s="244"/>
+      <c r="DQ57" s="244"/>
+      <c r="DR57" s="244"/>
+      <c r="DS57" s="244"/>
+      <c r="DT57" s="244"/>
+      <c r="DU57" s="244"/>
+      <c r="DV57" s="244"/>
+      <c r="DW57" s="244"/>
+      <c r="DX57" s="244"/>
+      <c r="DY57" s="244"/>
+      <c r="DZ57" s="227"/>
+      <c r="EA57" s="227"/>
+      <c r="EB57" s="227"/>
+      <c r="EC57" s="227"/>
+      <c r="ED57" s="227"/>
+      <c r="EE57" s="228"/>
     </row>
     <row r="58" spans="2:135" x14ac:dyDescent="0.2">
       <c r="B58" s="209">
@@ -20777,54 +22756,54 @@
       <c r="CS58" s="212"/>
       <c r="CT58" s="212"/>
       <c r="CU58" s="213"/>
-      <c r="CV58" s="234" t="s">
+      <c r="CV58" s="235" t="s">
         <v>143</v>
       </c>
-      <c r="CW58" s="235"/>
-      <c r="CX58" s="235"/>
-      <c r="CY58" s="235"/>
-      <c r="CZ58" s="236"/>
-      <c r="DA58" s="234" t="s">
+      <c r="CW58" s="236"/>
+      <c r="CX58" s="236"/>
+      <c r="CY58" s="236"/>
+      <c r="CZ58" s="237"/>
+      <c r="DA58" s="235" t="s">
         <v>410</v>
       </c>
-      <c r="DB58" s="235"/>
-      <c r="DC58" s="235"/>
-      <c r="DD58" s="235"/>
-      <c r="DE58" s="236"/>
-      <c r="DF58" s="237" t="s">
+      <c r="DB58" s="236"/>
+      <c r="DC58" s="236"/>
+      <c r="DD58" s="236"/>
+      <c r="DE58" s="237"/>
+      <c r="DF58" s="238" t="s">
         <v>409</v>
       </c>
-      <c r="DG58" s="238"/>
-      <c r="DH58" s="239" t="s">
+      <c r="DG58" s="239"/>
+      <c r="DH58" s="240" t="s">
         <v>411</v>
       </c>
-      <c r="DI58" s="240"/>
-      <c r="DJ58" s="241"/>
-      <c r="DK58" s="242" t="s">
+      <c r="DI58" s="241"/>
+      <c r="DJ58" s="242"/>
+      <c r="DK58" s="243" t="s">
         <v>412</v>
       </c>
-      <c r="DL58" s="240"/>
-      <c r="DM58" s="240"/>
-      <c r="DN58" s="241"/>
-      <c r="DO58" s="246" t="s">
+      <c r="DL58" s="241"/>
+      <c r="DM58" s="241"/>
+      <c r="DN58" s="242"/>
+      <c r="DO58" s="247" t="s">
         <v>415</v>
       </c>
-      <c r="DP58" s="249"/>
-      <c r="DQ58" s="249"/>
-      <c r="DR58" s="249"/>
-      <c r="DS58" s="249"/>
-      <c r="DT58" s="249"/>
-      <c r="DU58" s="249"/>
-      <c r="DV58" s="249"/>
-      <c r="DW58" s="249"/>
-      <c r="DX58" s="249"/>
-      <c r="DY58" s="249"/>
-      <c r="DZ58" s="247"/>
-      <c r="EA58" s="247"/>
-      <c r="EB58" s="247"/>
-      <c r="EC58" s="247"/>
-      <c r="ED58" s="247"/>
-      <c r="EE58" s="248"/>
+      <c r="DP58" s="250"/>
+      <c r="DQ58" s="250"/>
+      <c r="DR58" s="250"/>
+      <c r="DS58" s="250"/>
+      <c r="DT58" s="250"/>
+      <c r="DU58" s="250"/>
+      <c r="DV58" s="250"/>
+      <c r="DW58" s="250"/>
+      <c r="DX58" s="250"/>
+      <c r="DY58" s="250"/>
+      <c r="DZ58" s="248"/>
+      <c r="EA58" s="248"/>
+      <c r="EB58" s="248"/>
+      <c r="EC58" s="248"/>
+      <c r="ED58" s="248"/>
+      <c r="EE58" s="249"/>
     </row>
     <row r="59" spans="2:135" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="154">
@@ -20965,54 +22944,54 @@
       <c r="CS59" s="157"/>
       <c r="CT59" s="157"/>
       <c r="CU59" s="158"/>
-      <c r="CV59" s="228" t="s">
+      <c r="CV59" s="229" t="s">
         <v>143</v>
       </c>
-      <c r="CW59" s="226"/>
-      <c r="CX59" s="226"/>
-      <c r="CY59" s="226"/>
-      <c r="CZ59" s="227"/>
-      <c r="DA59" s="228" t="s">
+      <c r="CW59" s="227"/>
+      <c r="CX59" s="227"/>
+      <c r="CY59" s="227"/>
+      <c r="CZ59" s="228"/>
+      <c r="DA59" s="229" t="s">
         <v>143</v>
       </c>
-      <c r="DB59" s="226"/>
-      <c r="DC59" s="226"/>
-      <c r="DD59" s="226"/>
-      <c r="DE59" s="227"/>
-      <c r="DF59" s="229" t="s">
+      <c r="DB59" s="227"/>
+      <c r="DC59" s="227"/>
+      <c r="DD59" s="227"/>
+      <c r="DE59" s="228"/>
+      <c r="DF59" s="230" t="s">
         <v>408</v>
       </c>
-      <c r="DG59" s="230"/>
-      <c r="DH59" s="221" t="s">
+      <c r="DG59" s="231"/>
+      <c r="DH59" s="222" t="s">
         <v>371</v>
       </c>
-      <c r="DI59" s="222"/>
-      <c r="DJ59" s="223"/>
-      <c r="DK59" s="224">
+      <c r="DI59" s="223"/>
+      <c r="DJ59" s="224"/>
+      <c r="DK59" s="225">
         <v>44893</v>
       </c>
-      <c r="DL59" s="222"/>
-      <c r="DM59" s="222"/>
-      <c r="DN59" s="223"/>
-      <c r="DO59" s="225" t="s">
+      <c r="DL59" s="223"/>
+      <c r="DM59" s="223"/>
+      <c r="DN59" s="224"/>
+      <c r="DO59" s="226" t="s">
         <v>407</v>
       </c>
-      <c r="DP59" s="243"/>
-      <c r="DQ59" s="243"/>
-      <c r="DR59" s="243"/>
-      <c r="DS59" s="243"/>
-      <c r="DT59" s="243"/>
-      <c r="DU59" s="243"/>
-      <c r="DV59" s="243"/>
-      <c r="DW59" s="243"/>
-      <c r="DX59" s="243"/>
-      <c r="DY59" s="243"/>
-      <c r="DZ59" s="226"/>
-      <c r="EA59" s="226"/>
-      <c r="EB59" s="226"/>
-      <c r="EC59" s="226"/>
-      <c r="ED59" s="226"/>
-      <c r="EE59" s="227"/>
+      <c r="DP59" s="244"/>
+      <c r="DQ59" s="244"/>
+      <c r="DR59" s="244"/>
+      <c r="DS59" s="244"/>
+      <c r="DT59" s="244"/>
+      <c r="DU59" s="244"/>
+      <c r="DV59" s="244"/>
+      <c r="DW59" s="244"/>
+      <c r="DX59" s="244"/>
+      <c r="DY59" s="244"/>
+      <c r="DZ59" s="227"/>
+      <c r="EA59" s="227"/>
+      <c r="EB59" s="227"/>
+      <c r="EC59" s="227"/>
+      <c r="ED59" s="227"/>
+      <c r="EE59" s="228"/>
     </row>
     <row r="60" spans="2:135" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="209">
@@ -21153,54 +23132,54 @@
       <c r="CS60" s="212"/>
       <c r="CT60" s="212"/>
       <c r="CU60" s="213"/>
-      <c r="CV60" s="234" t="s">
+      <c r="CV60" s="235" t="s">
         <v>143</v>
       </c>
-      <c r="CW60" s="235"/>
-      <c r="CX60" s="235"/>
-      <c r="CY60" s="235"/>
-      <c r="CZ60" s="236"/>
-      <c r="DA60" s="234" t="s">
+      <c r="CW60" s="236"/>
+      <c r="CX60" s="236"/>
+      <c r="CY60" s="236"/>
+      <c r="CZ60" s="237"/>
+      <c r="DA60" s="235" t="s">
         <v>410</v>
       </c>
-      <c r="DB60" s="235"/>
-      <c r="DC60" s="235"/>
-      <c r="DD60" s="235"/>
-      <c r="DE60" s="236"/>
-      <c r="DF60" s="237" t="s">
+      <c r="DB60" s="236"/>
+      <c r="DC60" s="236"/>
+      <c r="DD60" s="236"/>
+      <c r="DE60" s="237"/>
+      <c r="DF60" s="238" t="s">
         <v>409</v>
       </c>
-      <c r="DG60" s="238"/>
-      <c r="DH60" s="239" t="s">
+      <c r="DG60" s="239"/>
+      <c r="DH60" s="240" t="s">
         <v>411</v>
       </c>
-      <c r="DI60" s="240"/>
-      <c r="DJ60" s="241"/>
-      <c r="DK60" s="242" t="s">
+      <c r="DI60" s="241"/>
+      <c r="DJ60" s="242"/>
+      <c r="DK60" s="243" t="s">
         <v>412</v>
       </c>
-      <c r="DL60" s="240"/>
-      <c r="DM60" s="240"/>
-      <c r="DN60" s="241"/>
-      <c r="DO60" s="246" t="s">
+      <c r="DL60" s="241"/>
+      <c r="DM60" s="241"/>
+      <c r="DN60" s="242"/>
+      <c r="DO60" s="247" t="s">
         <v>416</v>
       </c>
-      <c r="DP60" s="249"/>
-      <c r="DQ60" s="249"/>
-      <c r="DR60" s="249"/>
-      <c r="DS60" s="249"/>
-      <c r="DT60" s="249"/>
-      <c r="DU60" s="249"/>
-      <c r="DV60" s="249"/>
-      <c r="DW60" s="249"/>
-      <c r="DX60" s="249"/>
-      <c r="DY60" s="249"/>
-      <c r="DZ60" s="247"/>
-      <c r="EA60" s="247"/>
-      <c r="EB60" s="247"/>
-      <c r="EC60" s="247"/>
-      <c r="ED60" s="247"/>
-      <c r="EE60" s="248"/>
+      <c r="DP60" s="250"/>
+      <c r="DQ60" s="250"/>
+      <c r="DR60" s="250"/>
+      <c r="DS60" s="250"/>
+      <c r="DT60" s="250"/>
+      <c r="DU60" s="250"/>
+      <c r="DV60" s="250"/>
+      <c r="DW60" s="250"/>
+      <c r="DX60" s="250"/>
+      <c r="DY60" s="250"/>
+      <c r="DZ60" s="248"/>
+      <c r="EA60" s="248"/>
+      <c r="EB60" s="248"/>
+      <c r="EC60" s="248"/>
+      <c r="ED60" s="248"/>
+      <c r="EE60" s="249"/>
     </row>
     <row r="61" spans="2:135" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="209">
@@ -21341,54 +23320,54 @@
       <c r="CS61" s="212"/>
       <c r="CT61" s="212"/>
       <c r="CU61" s="213"/>
-      <c r="CV61" s="234" t="s">
+      <c r="CV61" s="235" t="s">
         <v>141</v>
       </c>
-      <c r="CW61" s="235"/>
-      <c r="CX61" s="235"/>
-      <c r="CY61" s="235"/>
-      <c r="CZ61" s="236"/>
-      <c r="DA61" s="234" t="s">
+      <c r="CW61" s="236"/>
+      <c r="CX61" s="236"/>
+      <c r="CY61" s="236"/>
+      <c r="CZ61" s="237"/>
+      <c r="DA61" s="235" t="s">
         <v>410</v>
       </c>
-      <c r="DB61" s="235"/>
-      <c r="DC61" s="235"/>
-      <c r="DD61" s="235"/>
-      <c r="DE61" s="236"/>
-      <c r="DF61" s="237" t="s">
+      <c r="DB61" s="236"/>
+      <c r="DC61" s="236"/>
+      <c r="DD61" s="236"/>
+      <c r="DE61" s="237"/>
+      <c r="DF61" s="238" t="s">
         <v>409</v>
       </c>
-      <c r="DG61" s="238"/>
-      <c r="DH61" s="239" t="s">
+      <c r="DG61" s="239"/>
+      <c r="DH61" s="240" t="s">
         <v>411</v>
       </c>
-      <c r="DI61" s="240"/>
-      <c r="DJ61" s="241"/>
-      <c r="DK61" s="242" t="s">
+      <c r="DI61" s="241"/>
+      <c r="DJ61" s="242"/>
+      <c r="DK61" s="243" t="s">
         <v>412</v>
       </c>
-      <c r="DL61" s="240"/>
-      <c r="DM61" s="240"/>
-      <c r="DN61" s="241"/>
-      <c r="DO61" s="246" t="s">
+      <c r="DL61" s="241"/>
+      <c r="DM61" s="241"/>
+      <c r="DN61" s="242"/>
+      <c r="DO61" s="247" t="s">
         <v>417</v>
       </c>
-      <c r="DP61" s="249"/>
-      <c r="DQ61" s="249"/>
-      <c r="DR61" s="249"/>
-      <c r="DS61" s="249"/>
-      <c r="DT61" s="249"/>
-      <c r="DU61" s="249"/>
-      <c r="DV61" s="249"/>
-      <c r="DW61" s="249"/>
-      <c r="DX61" s="249"/>
-      <c r="DY61" s="249"/>
-      <c r="DZ61" s="247"/>
-      <c r="EA61" s="247"/>
-      <c r="EB61" s="247"/>
-      <c r="EC61" s="247"/>
-      <c r="ED61" s="247"/>
-      <c r="EE61" s="248"/>
+      <c r="DP61" s="250"/>
+      <c r="DQ61" s="250"/>
+      <c r="DR61" s="250"/>
+      <c r="DS61" s="250"/>
+      <c r="DT61" s="250"/>
+      <c r="DU61" s="250"/>
+      <c r="DV61" s="250"/>
+      <c r="DW61" s="250"/>
+      <c r="DX61" s="250"/>
+      <c r="DY61" s="250"/>
+      <c r="DZ61" s="248"/>
+      <c r="EA61" s="248"/>
+      <c r="EB61" s="248"/>
+      <c r="EC61" s="248"/>
+      <c r="ED61" s="248"/>
+      <c r="EE61" s="249"/>
     </row>
     <row r="62" spans="2:135" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="209">
@@ -21529,54 +23508,54 @@
       <c r="CS62" s="212"/>
       <c r="CT62" s="212"/>
       <c r="CU62" s="213"/>
-      <c r="CV62" s="234" t="s">
+      <c r="CV62" s="235" t="s">
         <v>141</v>
       </c>
-      <c r="CW62" s="235"/>
-      <c r="CX62" s="235"/>
-      <c r="CY62" s="235"/>
-      <c r="CZ62" s="236"/>
-      <c r="DA62" s="234" t="s">
+      <c r="CW62" s="236"/>
+      <c r="CX62" s="236"/>
+      <c r="CY62" s="236"/>
+      <c r="CZ62" s="237"/>
+      <c r="DA62" s="235" t="s">
         <v>410</v>
       </c>
-      <c r="DB62" s="235"/>
-      <c r="DC62" s="235"/>
-      <c r="DD62" s="235"/>
-      <c r="DE62" s="236"/>
-      <c r="DF62" s="237" t="s">
+      <c r="DB62" s="236"/>
+      <c r="DC62" s="236"/>
+      <c r="DD62" s="236"/>
+      <c r="DE62" s="237"/>
+      <c r="DF62" s="238" t="s">
         <v>409</v>
       </c>
-      <c r="DG62" s="238"/>
-      <c r="DH62" s="239" t="s">
+      <c r="DG62" s="239"/>
+      <c r="DH62" s="240" t="s">
         <v>411</v>
       </c>
-      <c r="DI62" s="240"/>
-      <c r="DJ62" s="241"/>
-      <c r="DK62" s="242" t="s">
+      <c r="DI62" s="241"/>
+      <c r="DJ62" s="242"/>
+      <c r="DK62" s="243" t="s">
         <v>412</v>
       </c>
-      <c r="DL62" s="240"/>
-      <c r="DM62" s="240"/>
-      <c r="DN62" s="241"/>
-      <c r="DO62" s="246" t="s">
+      <c r="DL62" s="241"/>
+      <c r="DM62" s="241"/>
+      <c r="DN62" s="242"/>
+      <c r="DO62" s="247" t="s">
         <v>418</v>
       </c>
-      <c r="DP62" s="249"/>
-      <c r="DQ62" s="249"/>
-      <c r="DR62" s="249"/>
-      <c r="DS62" s="249"/>
-      <c r="DT62" s="249"/>
-      <c r="DU62" s="249"/>
-      <c r="DV62" s="249"/>
-      <c r="DW62" s="249"/>
-      <c r="DX62" s="249"/>
-      <c r="DY62" s="249"/>
-      <c r="DZ62" s="247"/>
-      <c r="EA62" s="247"/>
-      <c r="EB62" s="247"/>
-      <c r="EC62" s="247"/>
-      <c r="ED62" s="247"/>
-      <c r="EE62" s="248"/>
+      <c r="DP62" s="250"/>
+      <c r="DQ62" s="250"/>
+      <c r="DR62" s="250"/>
+      <c r="DS62" s="250"/>
+      <c r="DT62" s="250"/>
+      <c r="DU62" s="250"/>
+      <c r="DV62" s="250"/>
+      <c r="DW62" s="250"/>
+      <c r="DX62" s="250"/>
+      <c r="DY62" s="250"/>
+      <c r="DZ62" s="248"/>
+      <c r="EA62" s="248"/>
+      <c r="EB62" s="248"/>
+      <c r="EC62" s="248"/>
+      <c r="ED62" s="248"/>
+      <c r="EE62" s="249"/>
     </row>
     <row r="63" spans="2:135" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="209">
@@ -21717,54 +23696,54 @@
       <c r="CS63" s="212"/>
       <c r="CT63" s="212"/>
       <c r="CU63" s="213"/>
-      <c r="CV63" s="234" t="s">
+      <c r="CV63" s="235" t="s">
         <v>143</v>
       </c>
-      <c r="CW63" s="235"/>
-      <c r="CX63" s="235"/>
-      <c r="CY63" s="235"/>
-      <c r="CZ63" s="236"/>
-      <c r="DA63" s="234" t="s">
+      <c r="CW63" s="236"/>
+      <c r="CX63" s="236"/>
+      <c r="CY63" s="236"/>
+      <c r="CZ63" s="237"/>
+      <c r="DA63" s="235" t="s">
         <v>410</v>
       </c>
-      <c r="DB63" s="235"/>
-      <c r="DC63" s="235"/>
-      <c r="DD63" s="235"/>
-      <c r="DE63" s="236"/>
-      <c r="DF63" s="237" t="s">
+      <c r="DB63" s="236"/>
+      <c r="DC63" s="236"/>
+      <c r="DD63" s="236"/>
+      <c r="DE63" s="237"/>
+      <c r="DF63" s="238" t="s">
         <v>409</v>
       </c>
-      <c r="DG63" s="238"/>
-      <c r="DH63" s="239" t="s">
+      <c r="DG63" s="239"/>
+      <c r="DH63" s="240" t="s">
         <v>411</v>
       </c>
-      <c r="DI63" s="240"/>
-      <c r="DJ63" s="241"/>
-      <c r="DK63" s="242" t="s">
+      <c r="DI63" s="241"/>
+      <c r="DJ63" s="242"/>
+      <c r="DK63" s="243" t="s">
         <v>412</v>
       </c>
-      <c r="DL63" s="240"/>
-      <c r="DM63" s="240"/>
-      <c r="DN63" s="241"/>
-      <c r="DO63" s="246" t="s">
+      <c r="DL63" s="241"/>
+      <c r="DM63" s="241"/>
+      <c r="DN63" s="242"/>
+      <c r="DO63" s="247" t="s">
         <v>419</v>
       </c>
-      <c r="DP63" s="249"/>
-      <c r="DQ63" s="249"/>
-      <c r="DR63" s="249"/>
-      <c r="DS63" s="249"/>
-      <c r="DT63" s="249"/>
-      <c r="DU63" s="249"/>
-      <c r="DV63" s="249"/>
-      <c r="DW63" s="249"/>
-      <c r="DX63" s="249"/>
-      <c r="DY63" s="249"/>
-      <c r="DZ63" s="247"/>
-      <c r="EA63" s="247"/>
-      <c r="EB63" s="247"/>
-      <c r="EC63" s="247"/>
-      <c r="ED63" s="247"/>
-      <c r="EE63" s="248"/>
+      <c r="DP63" s="250"/>
+      <c r="DQ63" s="250"/>
+      <c r="DR63" s="250"/>
+      <c r="DS63" s="250"/>
+      <c r="DT63" s="250"/>
+      <c r="DU63" s="250"/>
+      <c r="DV63" s="250"/>
+      <c r="DW63" s="250"/>
+      <c r="DX63" s="250"/>
+      <c r="DY63" s="250"/>
+      <c r="DZ63" s="248"/>
+      <c r="EA63" s="248"/>
+      <c r="EB63" s="248"/>
+      <c r="EC63" s="248"/>
+      <c r="ED63" s="248"/>
+      <c r="EE63" s="249"/>
     </row>
     <row r="64" spans="2:135" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="209">
@@ -21905,54 +23884,54 @@
       <c r="CS64" s="212"/>
       <c r="CT64" s="212"/>
       <c r="CU64" s="213"/>
-      <c r="CV64" s="234" t="s">
+      <c r="CV64" s="235" t="s">
         <v>143</v>
       </c>
-      <c r="CW64" s="235"/>
-      <c r="CX64" s="235"/>
-      <c r="CY64" s="235"/>
-      <c r="CZ64" s="236"/>
-      <c r="DA64" s="234" t="s">
+      <c r="CW64" s="236"/>
+      <c r="CX64" s="236"/>
+      <c r="CY64" s="236"/>
+      <c r="CZ64" s="237"/>
+      <c r="DA64" s="235" t="s">
         <v>410</v>
       </c>
-      <c r="DB64" s="235"/>
-      <c r="DC64" s="235"/>
-      <c r="DD64" s="235"/>
-      <c r="DE64" s="236"/>
-      <c r="DF64" s="237" t="s">
+      <c r="DB64" s="236"/>
+      <c r="DC64" s="236"/>
+      <c r="DD64" s="236"/>
+      <c r="DE64" s="237"/>
+      <c r="DF64" s="238" t="s">
         <v>409</v>
       </c>
-      <c r="DG64" s="238"/>
-      <c r="DH64" s="239" t="s">
+      <c r="DG64" s="239"/>
+      <c r="DH64" s="240" t="s">
         <v>411</v>
       </c>
-      <c r="DI64" s="240"/>
-      <c r="DJ64" s="241"/>
-      <c r="DK64" s="242" t="s">
+      <c r="DI64" s="241"/>
+      <c r="DJ64" s="242"/>
+      <c r="DK64" s="243" t="s">
         <v>412</v>
       </c>
-      <c r="DL64" s="240"/>
-      <c r="DM64" s="240"/>
-      <c r="DN64" s="241"/>
-      <c r="DO64" s="246" t="s">
+      <c r="DL64" s="241"/>
+      <c r="DM64" s="241"/>
+      <c r="DN64" s="242"/>
+      <c r="DO64" s="247" t="s">
         <v>420</v>
       </c>
-      <c r="DP64" s="249"/>
-      <c r="DQ64" s="249"/>
-      <c r="DR64" s="249"/>
-      <c r="DS64" s="249"/>
-      <c r="DT64" s="249"/>
-      <c r="DU64" s="249"/>
-      <c r="DV64" s="249"/>
-      <c r="DW64" s="249"/>
-      <c r="DX64" s="249"/>
-      <c r="DY64" s="249"/>
-      <c r="DZ64" s="247"/>
-      <c r="EA64" s="247"/>
-      <c r="EB64" s="247"/>
-      <c r="EC64" s="247"/>
-      <c r="ED64" s="247"/>
-      <c r="EE64" s="248"/>
+      <c r="DP64" s="250"/>
+      <c r="DQ64" s="250"/>
+      <c r="DR64" s="250"/>
+      <c r="DS64" s="250"/>
+      <c r="DT64" s="250"/>
+      <c r="DU64" s="250"/>
+      <c r="DV64" s="250"/>
+      <c r="DW64" s="250"/>
+      <c r="DX64" s="250"/>
+      <c r="DY64" s="250"/>
+      <c r="DZ64" s="248"/>
+      <c r="EA64" s="248"/>
+      <c r="EB64" s="248"/>
+      <c r="EC64" s="248"/>
+      <c r="ED64" s="248"/>
+      <c r="EE64" s="249"/>
     </row>
     <row r="65" spans="2:135" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="154">
@@ -22093,54 +24072,54 @@
       <c r="CS65" s="157"/>
       <c r="CT65" s="157"/>
       <c r="CU65" s="158"/>
-      <c r="CV65" s="228" t="s">
+      <c r="CV65" s="229" t="s">
         <v>143</v>
       </c>
-      <c r="CW65" s="226"/>
-      <c r="CX65" s="226"/>
-      <c r="CY65" s="226"/>
-      <c r="CZ65" s="227"/>
-      <c r="DA65" s="228" t="s">
+      <c r="CW65" s="227"/>
+      <c r="CX65" s="227"/>
+      <c r="CY65" s="227"/>
+      <c r="CZ65" s="228"/>
+      <c r="DA65" s="229" t="s">
         <v>143</v>
       </c>
-      <c r="DB65" s="226"/>
-      <c r="DC65" s="226"/>
-      <c r="DD65" s="226"/>
-      <c r="DE65" s="227"/>
-      <c r="DF65" s="229" t="s">
+      <c r="DB65" s="227"/>
+      <c r="DC65" s="227"/>
+      <c r="DD65" s="227"/>
+      <c r="DE65" s="228"/>
+      <c r="DF65" s="230" t="s">
         <v>408</v>
       </c>
-      <c r="DG65" s="230"/>
-      <c r="DH65" s="221" t="s">
+      <c r="DG65" s="231"/>
+      <c r="DH65" s="222" t="s">
         <v>371</v>
       </c>
-      <c r="DI65" s="222"/>
-      <c r="DJ65" s="223"/>
-      <c r="DK65" s="224">
+      <c r="DI65" s="223"/>
+      <c r="DJ65" s="224"/>
+      <c r="DK65" s="225">
         <v>44893</v>
       </c>
-      <c r="DL65" s="222"/>
-      <c r="DM65" s="222"/>
-      <c r="DN65" s="223"/>
-      <c r="DO65" s="225" t="s">
+      <c r="DL65" s="223"/>
+      <c r="DM65" s="223"/>
+      <c r="DN65" s="224"/>
+      <c r="DO65" s="226" t="s">
         <v>406</v>
       </c>
-      <c r="DP65" s="243"/>
-      <c r="DQ65" s="243"/>
-      <c r="DR65" s="243"/>
-      <c r="DS65" s="243"/>
-      <c r="DT65" s="243"/>
-      <c r="DU65" s="243"/>
-      <c r="DV65" s="243"/>
-      <c r="DW65" s="243"/>
-      <c r="DX65" s="243"/>
-      <c r="DY65" s="243"/>
-      <c r="DZ65" s="226"/>
-      <c r="EA65" s="226"/>
-      <c r="EB65" s="226"/>
-      <c r="EC65" s="226"/>
-      <c r="ED65" s="226"/>
-      <c r="EE65" s="227"/>
+      <c r="DP65" s="244"/>
+      <c r="DQ65" s="244"/>
+      <c r="DR65" s="244"/>
+      <c r="DS65" s="244"/>
+      <c r="DT65" s="244"/>
+      <c r="DU65" s="244"/>
+      <c r="DV65" s="244"/>
+      <c r="DW65" s="244"/>
+      <c r="DX65" s="244"/>
+      <c r="DY65" s="244"/>
+      <c r="DZ65" s="227"/>
+      <c r="EA65" s="227"/>
+      <c r="EB65" s="227"/>
+      <c r="EC65" s="227"/>
+      <c r="ED65" s="227"/>
+      <c r="EE65" s="228"/>
     </row>
     <row r="66" spans="2:135" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="154">
@@ -22281,52 +24260,52 @@
       <c r="CS66" s="157"/>
       <c r="CT66" s="157"/>
       <c r="CU66" s="158"/>
-      <c r="CV66" s="228" t="s">
+      <c r="CV66" s="229" t="s">
         <v>143</v>
       </c>
-      <c r="CW66" s="226"/>
-      <c r="CX66" s="226"/>
-      <c r="CY66" s="226"/>
-      <c r="CZ66" s="227"/>
-      <c r="DA66" s="228" t="s">
+      <c r="CW66" s="227"/>
+      <c r="CX66" s="227"/>
+      <c r="CY66" s="227"/>
+      <c r="CZ66" s="228"/>
+      <c r="DA66" s="229" t="s">
         <v>143</v>
       </c>
-      <c r="DB66" s="226"/>
-      <c r="DC66" s="226"/>
-      <c r="DD66" s="226"/>
-      <c r="DE66" s="227"/>
-      <c r="DF66" s="229" t="s">
+      <c r="DB66" s="227"/>
+      <c r="DC66" s="227"/>
+      <c r="DD66" s="227"/>
+      <c r="DE66" s="228"/>
+      <c r="DF66" s="230" t="s">
         <v>408</v>
       </c>
-      <c r="DG66" s="230"/>
-      <c r="DH66" s="221" t="s">
+      <c r="DG66" s="231"/>
+      <c r="DH66" s="222" t="s">
         <v>371</v>
       </c>
-      <c r="DI66" s="222"/>
-      <c r="DJ66" s="223"/>
-      <c r="DK66" s="224">
+      <c r="DI66" s="223"/>
+      <c r="DJ66" s="224"/>
+      <c r="DK66" s="225">
         <v>44893</v>
       </c>
-      <c r="DL66" s="222"/>
-      <c r="DM66" s="222"/>
-      <c r="DN66" s="223"/>
-      <c r="DO66" s="225"/>
-      <c r="DP66" s="243"/>
-      <c r="DQ66" s="243"/>
-      <c r="DR66" s="243"/>
-      <c r="DS66" s="243"/>
-      <c r="DT66" s="243"/>
-      <c r="DU66" s="243"/>
-      <c r="DV66" s="243"/>
-      <c r="DW66" s="243"/>
-      <c r="DX66" s="243"/>
-      <c r="DY66" s="243"/>
-      <c r="DZ66" s="226"/>
-      <c r="EA66" s="226"/>
-      <c r="EB66" s="226"/>
-      <c r="EC66" s="226"/>
-      <c r="ED66" s="226"/>
-      <c r="EE66" s="227"/>
+      <c r="DL66" s="223"/>
+      <c r="DM66" s="223"/>
+      <c r="DN66" s="224"/>
+      <c r="DO66" s="226"/>
+      <c r="DP66" s="244"/>
+      <c r="DQ66" s="244"/>
+      <c r="DR66" s="244"/>
+      <c r="DS66" s="244"/>
+      <c r="DT66" s="244"/>
+      <c r="DU66" s="244"/>
+      <c r="DV66" s="244"/>
+      <c r="DW66" s="244"/>
+      <c r="DX66" s="244"/>
+      <c r="DY66" s="244"/>
+      <c r="DZ66" s="227"/>
+      <c r="EA66" s="227"/>
+      <c r="EB66" s="227"/>
+      <c r="EC66" s="227"/>
+      <c r="ED66" s="227"/>
+      <c r="EE66" s="228"/>
     </row>
     <row r="67" spans="2:135" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="154">
@@ -22467,54 +24446,54 @@
       <c r="CS67" s="157"/>
       <c r="CT67" s="157"/>
       <c r="CU67" s="158"/>
-      <c r="CV67" s="228" t="s">
+      <c r="CV67" s="229" t="s">
         <v>143</v>
       </c>
-      <c r="CW67" s="226"/>
-      <c r="CX67" s="226"/>
-      <c r="CY67" s="226"/>
-      <c r="CZ67" s="227"/>
-      <c r="DA67" s="228" t="s">
+      <c r="CW67" s="227"/>
+      <c r="CX67" s="227"/>
+      <c r="CY67" s="227"/>
+      <c r="CZ67" s="228"/>
+      <c r="DA67" s="229" t="s">
         <v>143</v>
       </c>
-      <c r="DB67" s="226"/>
-      <c r="DC67" s="226"/>
-      <c r="DD67" s="226"/>
-      <c r="DE67" s="227"/>
-      <c r="DF67" s="229" t="s">
+      <c r="DB67" s="227"/>
+      <c r="DC67" s="227"/>
+      <c r="DD67" s="227"/>
+      <c r="DE67" s="228"/>
+      <c r="DF67" s="230" t="s">
         <v>408</v>
       </c>
-      <c r="DG67" s="230"/>
-      <c r="DH67" s="221" t="s">
+      <c r="DG67" s="231"/>
+      <c r="DH67" s="222" t="s">
         <v>371</v>
       </c>
-      <c r="DI67" s="222"/>
-      <c r="DJ67" s="223"/>
-      <c r="DK67" s="224">
+      <c r="DI67" s="223"/>
+      <c r="DJ67" s="224"/>
+      <c r="DK67" s="225">
         <v>44893</v>
       </c>
-      <c r="DL67" s="222"/>
-      <c r="DM67" s="222"/>
-      <c r="DN67" s="223"/>
-      <c r="DO67" s="225" t="s">
+      <c r="DL67" s="223"/>
+      <c r="DM67" s="223"/>
+      <c r="DN67" s="224"/>
+      <c r="DO67" s="226" t="s">
         <v>406</v>
       </c>
-      <c r="DP67" s="243"/>
-      <c r="DQ67" s="243"/>
-      <c r="DR67" s="243"/>
-      <c r="DS67" s="243"/>
-      <c r="DT67" s="243"/>
-      <c r="DU67" s="243"/>
-      <c r="DV67" s="243"/>
-      <c r="DW67" s="243"/>
-      <c r="DX67" s="243"/>
-      <c r="DY67" s="243"/>
-      <c r="DZ67" s="226"/>
-      <c r="EA67" s="226"/>
-      <c r="EB67" s="226"/>
-      <c r="EC67" s="226"/>
-      <c r="ED67" s="226"/>
-      <c r="EE67" s="227"/>
+      <c r="DP67" s="244"/>
+      <c r="DQ67" s="244"/>
+      <c r="DR67" s="244"/>
+      <c r="DS67" s="244"/>
+      <c r="DT67" s="244"/>
+      <c r="DU67" s="244"/>
+      <c r="DV67" s="244"/>
+      <c r="DW67" s="244"/>
+      <c r="DX67" s="244"/>
+      <c r="DY67" s="244"/>
+      <c r="DZ67" s="227"/>
+      <c r="EA67" s="227"/>
+      <c r="EB67" s="227"/>
+      <c r="EC67" s="227"/>
+      <c r="ED67" s="227"/>
+      <c r="EE67" s="228"/>
     </row>
     <row r="68" spans="2:135" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="154">
@@ -22655,54 +24634,54 @@
       <c r="CS68" s="157"/>
       <c r="CT68" s="157"/>
       <c r="CU68" s="158"/>
-      <c r="CV68" s="228" t="s">
+      <c r="CV68" s="229" t="s">
         <v>141</v>
       </c>
-      <c r="CW68" s="226"/>
-      <c r="CX68" s="226"/>
-      <c r="CY68" s="226"/>
-      <c r="CZ68" s="227"/>
-      <c r="DA68" s="228" t="s">
+      <c r="CW68" s="227"/>
+      <c r="CX68" s="227"/>
+      <c r="CY68" s="227"/>
+      <c r="CZ68" s="228"/>
+      <c r="DA68" s="229" t="s">
         <v>141</v>
       </c>
-      <c r="DB68" s="226"/>
-      <c r="DC68" s="226"/>
-      <c r="DD68" s="226"/>
-      <c r="DE68" s="227"/>
-      <c r="DF68" s="229" t="s">
+      <c r="DB68" s="227"/>
+      <c r="DC68" s="227"/>
+      <c r="DD68" s="227"/>
+      <c r="DE68" s="228"/>
+      <c r="DF68" s="230" t="s">
         <v>408</v>
       </c>
-      <c r="DG68" s="230"/>
-      <c r="DH68" s="221" t="s">
+      <c r="DG68" s="231"/>
+      <c r="DH68" s="222" t="s">
         <v>371</v>
       </c>
-      <c r="DI68" s="222"/>
-      <c r="DJ68" s="223"/>
-      <c r="DK68" s="224">
+      <c r="DI68" s="223"/>
+      <c r="DJ68" s="224"/>
+      <c r="DK68" s="225">
         <v>44893</v>
       </c>
-      <c r="DL68" s="222"/>
-      <c r="DM68" s="222"/>
-      <c r="DN68" s="223"/>
-      <c r="DO68" s="225" t="s">
+      <c r="DL68" s="223"/>
+      <c r="DM68" s="223"/>
+      <c r="DN68" s="224"/>
+      <c r="DO68" s="226" t="s">
         <v>405</v>
       </c>
-      <c r="DP68" s="243"/>
-      <c r="DQ68" s="243"/>
-      <c r="DR68" s="243"/>
-      <c r="DS68" s="243"/>
-      <c r="DT68" s="243"/>
-      <c r="DU68" s="243"/>
-      <c r="DV68" s="243"/>
-      <c r="DW68" s="243"/>
-      <c r="DX68" s="243"/>
-      <c r="DY68" s="243"/>
-      <c r="DZ68" s="243"/>
-      <c r="EA68" s="243"/>
-      <c r="EB68" s="243"/>
-      <c r="EC68" s="243"/>
-      <c r="ED68" s="243"/>
-      <c r="EE68" s="245"/>
+      <c r="DP68" s="244"/>
+      <c r="DQ68" s="244"/>
+      <c r="DR68" s="244"/>
+      <c r="DS68" s="244"/>
+      <c r="DT68" s="244"/>
+      <c r="DU68" s="244"/>
+      <c r="DV68" s="244"/>
+      <c r="DW68" s="244"/>
+      <c r="DX68" s="244"/>
+      <c r="DY68" s="244"/>
+      <c r="DZ68" s="244"/>
+      <c r="EA68" s="244"/>
+      <c r="EB68" s="244"/>
+      <c r="EC68" s="244"/>
+      <c r="ED68" s="244"/>
+      <c r="EE68" s="246"/>
     </row>
     <row r="69" spans="2:135" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="154">
@@ -22843,54 +24822,54 @@
       <c r="CS69" s="157"/>
       <c r="CT69" s="157"/>
       <c r="CU69" s="158"/>
-      <c r="CV69" s="228" t="s">
+      <c r="CV69" s="229" t="s">
         <v>141</v>
       </c>
-      <c r="CW69" s="226"/>
-      <c r="CX69" s="226"/>
-      <c r="CY69" s="226"/>
-      <c r="CZ69" s="227"/>
-      <c r="DA69" s="228" t="s">
+      <c r="CW69" s="227"/>
+      <c r="CX69" s="227"/>
+      <c r="CY69" s="227"/>
+      <c r="CZ69" s="228"/>
+      <c r="DA69" s="229" t="s">
         <v>141</v>
       </c>
-      <c r="DB69" s="226"/>
-      <c r="DC69" s="226"/>
-      <c r="DD69" s="226"/>
-      <c r="DE69" s="227"/>
-      <c r="DF69" s="229" t="s">
+      <c r="DB69" s="227"/>
+      <c r="DC69" s="227"/>
+      <c r="DD69" s="227"/>
+      <c r="DE69" s="228"/>
+      <c r="DF69" s="230" t="s">
         <v>408</v>
       </c>
-      <c r="DG69" s="230"/>
-      <c r="DH69" s="221" t="s">
+      <c r="DG69" s="231"/>
+      <c r="DH69" s="222" t="s">
         <v>371</v>
       </c>
-      <c r="DI69" s="222"/>
-      <c r="DJ69" s="223"/>
-      <c r="DK69" s="224">
+      <c r="DI69" s="223"/>
+      <c r="DJ69" s="224"/>
+      <c r="DK69" s="225">
         <v>44893</v>
       </c>
-      <c r="DL69" s="222"/>
-      <c r="DM69" s="222"/>
-      <c r="DN69" s="223"/>
-      <c r="DO69" s="225" t="s">
+      <c r="DL69" s="223"/>
+      <c r="DM69" s="223"/>
+      <c r="DN69" s="224"/>
+      <c r="DO69" s="226" t="s">
         <v>405</v>
       </c>
-      <c r="DP69" s="243"/>
-      <c r="DQ69" s="243"/>
-      <c r="DR69" s="243"/>
-      <c r="DS69" s="243"/>
-      <c r="DT69" s="243"/>
-      <c r="DU69" s="243"/>
-      <c r="DV69" s="243"/>
-      <c r="DW69" s="243"/>
-      <c r="DX69" s="243"/>
-      <c r="DY69" s="243"/>
-      <c r="DZ69" s="226"/>
-      <c r="EA69" s="226"/>
-      <c r="EB69" s="226"/>
-      <c r="EC69" s="226"/>
-      <c r="ED69" s="226"/>
-      <c r="EE69" s="244"/>
+      <c r="DP69" s="244"/>
+      <c r="DQ69" s="244"/>
+      <c r="DR69" s="244"/>
+      <c r="DS69" s="244"/>
+      <c r="DT69" s="244"/>
+      <c r="DU69" s="244"/>
+      <c r="DV69" s="244"/>
+      <c r="DW69" s="244"/>
+      <c r="DX69" s="244"/>
+      <c r="DY69" s="244"/>
+      <c r="DZ69" s="227"/>
+      <c r="EA69" s="227"/>
+      <c r="EB69" s="227"/>
+      <c r="EC69" s="227"/>
+      <c r="ED69" s="227"/>
+      <c r="EE69" s="245"/>
     </row>
     <row r="70" spans="2:135" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="154">
@@ -23031,54 +25010,54 @@
       <c r="CS70" s="157"/>
       <c r="CT70" s="157"/>
       <c r="CU70" s="158"/>
-      <c r="CV70" s="228" t="s">
+      <c r="CV70" s="229" t="s">
         <v>141</v>
       </c>
-      <c r="CW70" s="226"/>
-      <c r="CX70" s="226"/>
-      <c r="CY70" s="226"/>
-      <c r="CZ70" s="227"/>
-      <c r="DA70" s="228" t="s">
+      <c r="CW70" s="227"/>
+      <c r="CX70" s="227"/>
+      <c r="CY70" s="227"/>
+      <c r="CZ70" s="228"/>
+      <c r="DA70" s="229" t="s">
         <v>141</v>
       </c>
-      <c r="DB70" s="226"/>
-      <c r="DC70" s="226"/>
-      <c r="DD70" s="226"/>
-      <c r="DE70" s="227"/>
-      <c r="DF70" s="229" t="s">
+      <c r="DB70" s="227"/>
+      <c r="DC70" s="227"/>
+      <c r="DD70" s="227"/>
+      <c r="DE70" s="228"/>
+      <c r="DF70" s="230" t="s">
         <v>408</v>
       </c>
-      <c r="DG70" s="230"/>
-      <c r="DH70" s="221" t="s">
+      <c r="DG70" s="231"/>
+      <c r="DH70" s="222" t="s">
         <v>371</v>
       </c>
-      <c r="DI70" s="222"/>
-      <c r="DJ70" s="223"/>
-      <c r="DK70" s="224">
+      <c r="DI70" s="223"/>
+      <c r="DJ70" s="224"/>
+      <c r="DK70" s="225">
         <v>44893</v>
       </c>
-      <c r="DL70" s="222"/>
-      <c r="DM70" s="222"/>
-      <c r="DN70" s="223"/>
-      <c r="DO70" s="225" t="s">
+      <c r="DL70" s="223"/>
+      <c r="DM70" s="223"/>
+      <c r="DN70" s="224"/>
+      <c r="DO70" s="226" t="s">
         <v>405</v>
       </c>
-      <c r="DP70" s="243"/>
-      <c r="DQ70" s="243"/>
-      <c r="DR70" s="243"/>
-      <c r="DS70" s="243"/>
-      <c r="DT70" s="243"/>
-      <c r="DU70" s="243"/>
-      <c r="DV70" s="243"/>
-      <c r="DW70" s="243"/>
-      <c r="DX70" s="243"/>
-      <c r="DY70" s="243"/>
-      <c r="DZ70" s="226"/>
-      <c r="EA70" s="226"/>
-      <c r="EB70" s="226"/>
-      <c r="EC70" s="226"/>
-      <c r="ED70" s="226"/>
-      <c r="EE70" s="244"/>
+      <c r="DP70" s="244"/>
+      <c r="DQ70" s="244"/>
+      <c r="DR70" s="244"/>
+      <c r="DS70" s="244"/>
+      <c r="DT70" s="244"/>
+      <c r="DU70" s="244"/>
+      <c r="DV70" s="244"/>
+      <c r="DW70" s="244"/>
+      <c r="DX70" s="244"/>
+      <c r="DY70" s="244"/>
+      <c r="DZ70" s="227"/>
+      <c r="EA70" s="227"/>
+      <c r="EB70" s="227"/>
+      <c r="EC70" s="227"/>
+      <c r="ED70" s="227"/>
+      <c r="EE70" s="245"/>
     </row>
     <row r="71" spans="2:135" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="154">
@@ -23219,54 +25198,54 @@
       <c r="CS71" s="157"/>
       <c r="CT71" s="157"/>
       <c r="CU71" s="158"/>
-      <c r="CV71" s="228" t="s">
+      <c r="CV71" s="229" t="s">
         <v>141</v>
       </c>
-      <c r="CW71" s="226"/>
-      <c r="CX71" s="226"/>
-      <c r="CY71" s="226"/>
-      <c r="CZ71" s="227"/>
-      <c r="DA71" s="228" t="s">
+      <c r="CW71" s="227"/>
+      <c r="CX71" s="227"/>
+      <c r="CY71" s="227"/>
+      <c r="CZ71" s="228"/>
+      <c r="DA71" s="229" t="s">
         <v>141</v>
       </c>
-      <c r="DB71" s="226"/>
-      <c r="DC71" s="226"/>
-      <c r="DD71" s="226"/>
-      <c r="DE71" s="227"/>
-      <c r="DF71" s="229" t="s">
+      <c r="DB71" s="227"/>
+      <c r="DC71" s="227"/>
+      <c r="DD71" s="227"/>
+      <c r="DE71" s="228"/>
+      <c r="DF71" s="230" t="s">
         <v>408</v>
       </c>
-      <c r="DG71" s="230"/>
-      <c r="DH71" s="221" t="s">
+      <c r="DG71" s="231"/>
+      <c r="DH71" s="222" t="s">
         <v>371</v>
       </c>
-      <c r="DI71" s="222"/>
-      <c r="DJ71" s="223"/>
-      <c r="DK71" s="224">
+      <c r="DI71" s="223"/>
+      <c r="DJ71" s="224"/>
+      <c r="DK71" s="225">
         <v>44893</v>
       </c>
-      <c r="DL71" s="222"/>
-      <c r="DM71" s="222"/>
-      <c r="DN71" s="223"/>
-      <c r="DO71" s="225" t="s">
+      <c r="DL71" s="223"/>
+      <c r="DM71" s="223"/>
+      <c r="DN71" s="224"/>
+      <c r="DO71" s="226" t="s">
         <v>405</v>
       </c>
-      <c r="DP71" s="243"/>
-      <c r="DQ71" s="243"/>
-      <c r="DR71" s="243"/>
-      <c r="DS71" s="243"/>
-      <c r="DT71" s="243"/>
-      <c r="DU71" s="243"/>
-      <c r="DV71" s="243"/>
-      <c r="DW71" s="243"/>
-      <c r="DX71" s="243"/>
-      <c r="DY71" s="243"/>
-      <c r="DZ71" s="226"/>
-      <c r="EA71" s="226"/>
-      <c r="EB71" s="226"/>
-      <c r="EC71" s="226"/>
-      <c r="ED71" s="226"/>
-      <c r="EE71" s="244"/>
+      <c r="DP71" s="244"/>
+      <c r="DQ71" s="244"/>
+      <c r="DR71" s="244"/>
+      <c r="DS71" s="244"/>
+      <c r="DT71" s="244"/>
+      <c r="DU71" s="244"/>
+      <c r="DV71" s="244"/>
+      <c r="DW71" s="244"/>
+      <c r="DX71" s="244"/>
+      <c r="DY71" s="244"/>
+      <c r="DZ71" s="227"/>
+      <c r="EA71" s="227"/>
+      <c r="EB71" s="227"/>
+      <c r="EC71" s="227"/>
+      <c r="ED71" s="227"/>
+      <c r="EE71" s="245"/>
     </row>
     <row r="72" spans="2:135" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="154">
@@ -23407,54 +25386,54 @@
       <c r="CS72" s="157"/>
       <c r="CT72" s="157"/>
       <c r="CU72" s="158"/>
-      <c r="CV72" s="228" t="s">
+      <c r="CV72" s="229" t="s">
         <v>143</v>
       </c>
-      <c r="CW72" s="226"/>
-      <c r="CX72" s="226"/>
-      <c r="CY72" s="226"/>
-      <c r="CZ72" s="227"/>
-      <c r="DA72" s="228" t="s">
+      <c r="CW72" s="227"/>
+      <c r="CX72" s="227"/>
+      <c r="CY72" s="227"/>
+      <c r="CZ72" s="228"/>
+      <c r="DA72" s="229" t="s">
         <v>143</v>
       </c>
-      <c r="DB72" s="226"/>
-      <c r="DC72" s="226"/>
-      <c r="DD72" s="226"/>
-      <c r="DE72" s="227"/>
-      <c r="DF72" s="229" t="s">
+      <c r="DB72" s="227"/>
+      <c r="DC72" s="227"/>
+      <c r="DD72" s="227"/>
+      <c r="DE72" s="228"/>
+      <c r="DF72" s="230" t="s">
         <v>408</v>
       </c>
-      <c r="DG72" s="230"/>
-      <c r="DH72" s="221" t="s">
+      <c r="DG72" s="231"/>
+      <c r="DH72" s="222" t="s">
         <v>371</v>
       </c>
-      <c r="DI72" s="222"/>
-      <c r="DJ72" s="223"/>
-      <c r="DK72" s="224">
+      <c r="DI72" s="223"/>
+      <c r="DJ72" s="224"/>
+      <c r="DK72" s="225">
         <v>44893</v>
       </c>
-      <c r="DL72" s="222"/>
-      <c r="DM72" s="222"/>
-      <c r="DN72" s="223"/>
-      <c r="DO72" s="225" t="s">
+      <c r="DL72" s="223"/>
+      <c r="DM72" s="223"/>
+      <c r="DN72" s="224"/>
+      <c r="DO72" s="226" t="s">
         <v>405</v>
       </c>
-      <c r="DP72" s="243"/>
-      <c r="DQ72" s="243"/>
-      <c r="DR72" s="243"/>
-      <c r="DS72" s="243"/>
-      <c r="DT72" s="243"/>
-      <c r="DU72" s="243"/>
-      <c r="DV72" s="243"/>
-      <c r="DW72" s="243"/>
-      <c r="DX72" s="243"/>
-      <c r="DY72" s="243"/>
-      <c r="DZ72" s="226"/>
-      <c r="EA72" s="226"/>
-      <c r="EB72" s="226"/>
-      <c r="EC72" s="226"/>
-      <c r="ED72" s="226"/>
-      <c r="EE72" s="244"/>
+      <c r="DP72" s="244"/>
+      <c r="DQ72" s="244"/>
+      <c r="DR72" s="244"/>
+      <c r="DS72" s="244"/>
+      <c r="DT72" s="244"/>
+      <c r="DU72" s="244"/>
+      <c r="DV72" s="244"/>
+      <c r="DW72" s="244"/>
+      <c r="DX72" s="244"/>
+      <c r="DY72" s="244"/>
+      <c r="DZ72" s="227"/>
+      <c r="EA72" s="227"/>
+      <c r="EB72" s="227"/>
+      <c r="EC72" s="227"/>
+      <c r="ED72" s="227"/>
+      <c r="EE72" s="245"/>
     </row>
     <row r="75" spans="2:135" x14ac:dyDescent="0.2">
       <c r="C75" t="s">
@@ -25348,42 +27327,42 @@
       <c r="V9" s="168"/>
       <c r="W9" s="168"/>
       <c r="X9" s="169"/>
-      <c r="Y9" s="228" t="s">
+      <c r="Y9" s="229" t="s">
         <v>235</v>
       </c>
-      <c r="Z9" s="226"/>
-      <c r="AA9" s="226"/>
-      <c r="AB9" s="226"/>
-      <c r="AC9" s="227"/>
-      <c r="AD9" s="228" t="s">
+      <c r="Z9" s="227"/>
+      <c r="AA9" s="227"/>
+      <c r="AB9" s="227"/>
+      <c r="AC9" s="228"/>
+      <c r="AD9" s="229" t="s">
         <v>360</v>
       </c>
-      <c r="AE9" s="226"/>
-      <c r="AF9" s="226"/>
-      <c r="AG9" s="226"/>
-      <c r="AH9" s="227"/>
-      <c r="AI9" s="229" t="s">
+      <c r="AE9" s="227"/>
+      <c r="AF9" s="227"/>
+      <c r="AG9" s="227"/>
+      <c r="AH9" s="228"/>
+      <c r="AI9" s="230" t="s">
         <v>361</v>
       </c>
-      <c r="AJ9" s="230"/>
-      <c r="AK9" s="221" t="s">
+      <c r="AJ9" s="231"/>
+      <c r="AK9" s="222" t="s">
         <v>362</v>
       </c>
-      <c r="AL9" s="222"/>
-      <c r="AM9" s="223"/>
-      <c r="AN9" s="224">
+      <c r="AL9" s="223"/>
+      <c r="AM9" s="224"/>
+      <c r="AN9" s="225">
         <v>44893</v>
       </c>
-      <c r="AO9" s="222"/>
-      <c r="AP9" s="222"/>
-      <c r="AQ9" s="223"/>
-      <c r="AR9" s="225"/>
-      <c r="AS9" s="226"/>
-      <c r="AT9" s="226"/>
-      <c r="AU9" s="226"/>
-      <c r="AV9" s="226"/>
-      <c r="AW9" s="226"/>
-      <c r="AX9" s="227"/>
+      <c r="AO9" s="223"/>
+      <c r="AP9" s="223"/>
+      <c r="AQ9" s="224"/>
+      <c r="AR9" s="226"/>
+      <c r="AS9" s="227"/>
+      <c r="AT9" s="227"/>
+      <c r="AU9" s="227"/>
+      <c r="AV9" s="227"/>
+      <c r="AW9" s="227"/>
+      <c r="AX9" s="228"/>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.2">
       <c r="B10" s="170"/>
@@ -25622,42 +27601,42 @@
       <c r="V16" s="162"/>
       <c r="W16" s="162"/>
       <c r="X16" s="163"/>
-      <c r="Y16" s="228" t="s">
+      <c r="Y16" s="229" t="s">
         <v>241</v>
       </c>
-      <c r="Z16" s="226"/>
-      <c r="AA16" s="226"/>
-      <c r="AB16" s="226"/>
-      <c r="AC16" s="227"/>
-      <c r="AD16" s="228" t="s">
+      <c r="Z16" s="227"/>
+      <c r="AA16" s="227"/>
+      <c r="AB16" s="227"/>
+      <c r="AC16" s="228"/>
+      <c r="AD16" s="229" t="s">
         <v>363</v>
       </c>
-      <c r="AE16" s="226"/>
-      <c r="AF16" s="226"/>
-      <c r="AG16" s="226"/>
-      <c r="AH16" s="227"/>
-      <c r="AI16" s="229" t="s">
+      <c r="AE16" s="227"/>
+      <c r="AF16" s="227"/>
+      <c r="AG16" s="227"/>
+      <c r="AH16" s="228"/>
+      <c r="AI16" s="230" t="s">
         <v>361</v>
       </c>
-      <c r="AJ16" s="230"/>
-      <c r="AK16" s="221" t="s">
+      <c r="AJ16" s="231"/>
+      <c r="AK16" s="222" t="s">
         <v>362</v>
       </c>
-      <c r="AL16" s="222"/>
-      <c r="AM16" s="223"/>
-      <c r="AN16" s="224">
+      <c r="AL16" s="223"/>
+      <c r="AM16" s="224"/>
+      <c r="AN16" s="225">
         <v>44893</v>
       </c>
-      <c r="AO16" s="222"/>
-      <c r="AP16" s="222"/>
-      <c r="AQ16" s="223"/>
-      <c r="AR16" s="225"/>
-      <c r="AS16" s="226"/>
-      <c r="AT16" s="226"/>
-      <c r="AU16" s="226"/>
-      <c r="AV16" s="226"/>
-      <c r="AW16" s="226"/>
-      <c r="AX16" s="227"/>
+      <c r="AO16" s="223"/>
+      <c r="AP16" s="223"/>
+      <c r="AQ16" s="224"/>
+      <c r="AR16" s="226"/>
+      <c r="AS16" s="227"/>
+      <c r="AT16" s="227"/>
+      <c r="AU16" s="227"/>
+      <c r="AV16" s="227"/>
+      <c r="AW16" s="227"/>
+      <c r="AX16" s="228"/>
     </row>
     <row r="17" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B17" s="170"/>
@@ -25940,42 +27919,42 @@
       <c r="V24" s="165"/>
       <c r="W24" s="165"/>
       <c r="X24" s="165"/>
-      <c r="Y24" s="228" t="s">
+      <c r="Y24" s="229" t="s">
         <v>248</v>
       </c>
-      <c r="Z24" s="226"/>
-      <c r="AA24" s="226"/>
-      <c r="AB24" s="226"/>
-      <c r="AC24" s="227"/>
-      <c r="AD24" s="228" t="s">
+      <c r="Z24" s="227"/>
+      <c r="AA24" s="227"/>
+      <c r="AB24" s="227"/>
+      <c r="AC24" s="228"/>
+      <c r="AD24" s="229" t="s">
         <v>365</v>
       </c>
-      <c r="AE24" s="226"/>
-      <c r="AF24" s="226"/>
-      <c r="AG24" s="226"/>
-      <c r="AH24" s="227"/>
-      <c r="AI24" s="229" t="s">
+      <c r="AE24" s="227"/>
+      <c r="AF24" s="227"/>
+      <c r="AG24" s="227"/>
+      <c r="AH24" s="228"/>
+      <c r="AI24" s="230" t="s">
         <v>366</v>
       </c>
-      <c r="AJ24" s="230"/>
-      <c r="AK24" s="221" t="s">
+      <c r="AJ24" s="231"/>
+      <c r="AK24" s="222" t="s">
         <v>362</v>
       </c>
-      <c r="AL24" s="222"/>
-      <c r="AM24" s="223"/>
-      <c r="AN24" s="224">
+      <c r="AL24" s="223"/>
+      <c r="AM24" s="224"/>
+      <c r="AN24" s="225">
         <v>44893</v>
       </c>
-      <c r="AO24" s="222"/>
-      <c r="AP24" s="222"/>
-      <c r="AQ24" s="223"/>
-      <c r="AR24" s="225"/>
-      <c r="AS24" s="226"/>
-      <c r="AT24" s="226"/>
-      <c r="AU24" s="226"/>
-      <c r="AV24" s="226"/>
-      <c r="AW24" s="226"/>
-      <c r="AX24" s="227"/>
+      <c r="AO24" s="223"/>
+      <c r="AP24" s="223"/>
+      <c r="AQ24" s="224"/>
+      <c r="AR24" s="226"/>
+      <c r="AS24" s="227"/>
+      <c r="AT24" s="227"/>
+      <c r="AU24" s="227"/>
+      <c r="AV24" s="227"/>
+      <c r="AW24" s="227"/>
+      <c r="AX24" s="228"/>
     </row>
     <row r="25" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B25" s="170"/>
@@ -26214,42 +28193,42 @@
       <c r="V31" s="162"/>
       <c r="W31" s="162"/>
       <c r="X31" s="163"/>
-      <c r="Y31" s="228" t="s">
+      <c r="Y31" s="229" t="s">
         <v>253</v>
       </c>
-      <c r="Z31" s="226"/>
-      <c r="AA31" s="226"/>
-      <c r="AB31" s="226"/>
-      <c r="AC31" s="227"/>
-      <c r="AD31" s="228" t="s">
+      <c r="Z31" s="227"/>
+      <c r="AA31" s="227"/>
+      <c r="AB31" s="227"/>
+      <c r="AC31" s="228"/>
+      <c r="AD31" s="229" t="s">
         <v>367</v>
       </c>
-      <c r="AE31" s="226"/>
-      <c r="AF31" s="226"/>
-      <c r="AG31" s="226"/>
-      <c r="AH31" s="227"/>
-      <c r="AI31" s="229" t="s">
+      <c r="AE31" s="227"/>
+      <c r="AF31" s="227"/>
+      <c r="AG31" s="227"/>
+      <c r="AH31" s="228"/>
+      <c r="AI31" s="230" t="s">
         <v>366</v>
       </c>
-      <c r="AJ31" s="230"/>
-      <c r="AK31" s="221" t="s">
+      <c r="AJ31" s="231"/>
+      <c r="AK31" s="222" t="s">
         <v>362</v>
       </c>
-      <c r="AL31" s="222"/>
-      <c r="AM31" s="223"/>
-      <c r="AN31" s="224">
+      <c r="AL31" s="223"/>
+      <c r="AM31" s="224"/>
+      <c r="AN31" s="225">
         <v>44893</v>
       </c>
-      <c r="AO31" s="222"/>
-      <c r="AP31" s="222"/>
-      <c r="AQ31" s="223"/>
-      <c r="AR31" s="225"/>
-      <c r="AS31" s="226"/>
-      <c r="AT31" s="226"/>
-      <c r="AU31" s="226"/>
-      <c r="AV31" s="226"/>
-      <c r="AW31" s="226"/>
-      <c r="AX31" s="227"/>
+      <c r="AO31" s="223"/>
+      <c r="AP31" s="223"/>
+      <c r="AQ31" s="224"/>
+      <c r="AR31" s="226"/>
+      <c r="AS31" s="227"/>
+      <c r="AT31" s="227"/>
+      <c r="AU31" s="227"/>
+      <c r="AV31" s="227"/>
+      <c r="AW31" s="227"/>
+      <c r="AX31" s="228"/>
     </row>
     <row r="32" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B32" s="170"/>
@@ -26567,44 +28546,44 @@
       <c r="V38" s="162"/>
       <c r="W38" s="162"/>
       <c r="X38" s="163"/>
-      <c r="Y38" s="228" t="s">
+      <c r="Y38" s="229" t="s">
         <v>257</v>
       </c>
-      <c r="Z38" s="226"/>
-      <c r="AA38" s="226"/>
-      <c r="AB38" s="226"/>
-      <c r="AC38" s="227"/>
-      <c r="AD38" s="228" t="s">
+      <c r="Z38" s="227"/>
+      <c r="AA38" s="227"/>
+      <c r="AB38" s="227"/>
+      <c r="AC38" s="228"/>
+      <c r="AD38" s="229" t="s">
         <v>368</v>
       </c>
-      <c r="AE38" s="226"/>
-      <c r="AF38" s="226"/>
-      <c r="AG38" s="226"/>
-      <c r="AH38" s="227"/>
-      <c r="AI38" s="229" t="s">
+      <c r="AE38" s="227"/>
+      <c r="AF38" s="227"/>
+      <c r="AG38" s="227"/>
+      <c r="AH38" s="228"/>
+      <c r="AI38" s="230" t="s">
         <v>366</v>
       </c>
-      <c r="AJ38" s="230"/>
-      <c r="AK38" s="221" t="s">
+      <c r="AJ38" s="231"/>
+      <c r="AK38" s="222" t="s">
         <v>362</v>
       </c>
-      <c r="AL38" s="222"/>
-      <c r="AM38" s="223"/>
-      <c r="AN38" s="224">
+      <c r="AL38" s="223"/>
+      <c r="AM38" s="224"/>
+      <c r="AN38" s="225">
         <v>44893</v>
       </c>
-      <c r="AO38" s="222"/>
-      <c r="AP38" s="222"/>
-      <c r="AQ38" s="223"/>
-      <c r="AR38" s="225" t="s">
+      <c r="AO38" s="223"/>
+      <c r="AP38" s="223"/>
+      <c r="AQ38" s="224"/>
+      <c r="AR38" s="226" t="s">
         <v>302</v>
       </c>
-      <c r="AS38" s="226"/>
-      <c r="AT38" s="226"/>
-      <c r="AU38" s="226"/>
-      <c r="AV38" s="226"/>
-      <c r="AW38" s="226"/>
-      <c r="AX38" s="227"/>
+      <c r="AS38" s="227"/>
+      <c r="AT38" s="227"/>
+      <c r="AU38" s="227"/>
+      <c r="AV38" s="227"/>
+      <c r="AW38" s="227"/>
+      <c r="AX38" s="228"/>
     </row>
     <row r="39" spans="1:50" x14ac:dyDescent="0.2">
       <c r="B39" s="180"/>
@@ -26863,20 +28842,20 @@
         <v>131</v>
       </c>
       <c r="C49" s="150"/>
-      <c r="D49" s="263" t="s">
+      <c r="D49" s="264" t="s">
         <v>262</v>
       </c>
-      <c r="E49" s="264"/>
-      <c r="F49" s="264"/>
-      <c r="G49" s="264"/>
-      <c r="H49" s="264"/>
-      <c r="I49" s="264"/>
-      <c r="J49" s="264"/>
-      <c r="K49" s="265"/>
-      <c r="L49" s="268" t="s">
+      <c r="E49" s="265"/>
+      <c r="F49" s="265"/>
+      <c r="G49" s="265"/>
+      <c r="H49" s="265"/>
+      <c r="I49" s="265"/>
+      <c r="J49" s="265"/>
+      <c r="K49" s="266"/>
+      <c r="L49" s="269" t="s">
         <v>263</v>
       </c>
-      <c r="M49" s="269"/>
+      <c r="M49" s="270"/>
       <c r="N49" s="151" t="s">
         <v>133</v>
       </c>
@@ -26931,46 +28910,46 @@
       <c r="I50" s="188"/>
       <c r="J50" s="188"/>
       <c r="K50" s="189"/>
-      <c r="L50" s="254" t="s">
+      <c r="L50" s="255" t="s">
         <v>291</v>
       </c>
-      <c r="M50" s="256"/>
-      <c r="N50" s="228" t="s">
+      <c r="M50" s="257"/>
+      <c r="N50" s="229" t="s">
         <v>265</v>
       </c>
-      <c r="O50" s="226"/>
-      <c r="P50" s="226"/>
-      <c r="Q50" s="226"/>
-      <c r="R50" s="227"/>
-      <c r="S50" s="228" t="s">
+      <c r="O50" s="227"/>
+      <c r="P50" s="227"/>
+      <c r="Q50" s="227"/>
+      <c r="R50" s="228"/>
+      <c r="S50" s="229" t="s">
         <v>265</v>
       </c>
-      <c r="T50" s="226"/>
-      <c r="U50" s="226"/>
-      <c r="V50" s="226"/>
-      <c r="W50" s="227"/>
-      <c r="X50" s="229" t="s">
+      <c r="T50" s="227"/>
+      <c r="U50" s="227"/>
+      <c r="V50" s="227"/>
+      <c r="W50" s="228"/>
+      <c r="X50" s="230" t="s">
         <v>370</v>
       </c>
-      <c r="Y50" s="230"/>
-      <c r="Z50" s="221" t="s">
+      <c r="Y50" s="231"/>
+      <c r="Z50" s="222" t="s">
         <v>371</v>
       </c>
-      <c r="AA50" s="222"/>
-      <c r="AB50" s="223"/>
-      <c r="AC50" s="224">
+      <c r="AA50" s="223"/>
+      <c r="AB50" s="224"/>
+      <c r="AC50" s="225">
         <v>44893</v>
       </c>
-      <c r="AD50" s="222"/>
-      <c r="AE50" s="222"/>
-      <c r="AF50" s="223"/>
-      <c r="AG50" s="225"/>
-      <c r="AH50" s="226"/>
-      <c r="AI50" s="226"/>
-      <c r="AJ50" s="226"/>
-      <c r="AK50" s="226"/>
-      <c r="AL50" s="226"/>
-      <c r="AM50" s="227"/>
+      <c r="AD50" s="223"/>
+      <c r="AE50" s="223"/>
+      <c r="AF50" s="224"/>
+      <c r="AG50" s="226"/>
+      <c r="AH50" s="227"/>
+      <c r="AI50" s="227"/>
+      <c r="AJ50" s="227"/>
+      <c r="AK50" s="227"/>
+      <c r="AL50" s="227"/>
+      <c r="AM50" s="228"/>
     </row>
     <row r="51" spans="2:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="154">
@@ -26987,46 +28966,46 @@
       <c r="I51" s="188"/>
       <c r="J51" s="188"/>
       <c r="K51" s="189"/>
-      <c r="L51" s="254" t="s">
+      <c r="L51" s="255" t="s">
         <v>291</v>
       </c>
-      <c r="M51" s="256"/>
-      <c r="N51" s="228" t="s">
+      <c r="M51" s="257"/>
+      <c r="N51" s="229" t="s">
         <v>265</v>
       </c>
-      <c r="O51" s="226"/>
-      <c r="P51" s="226"/>
-      <c r="Q51" s="226"/>
-      <c r="R51" s="227"/>
-      <c r="S51" s="228" t="s">
+      <c r="O51" s="227"/>
+      <c r="P51" s="227"/>
+      <c r="Q51" s="227"/>
+      <c r="R51" s="228"/>
+      <c r="S51" s="229" t="s">
         <v>265</v>
       </c>
-      <c r="T51" s="226"/>
-      <c r="U51" s="226"/>
-      <c r="V51" s="226"/>
-      <c r="W51" s="227"/>
-      <c r="X51" s="229" t="s">
+      <c r="T51" s="227"/>
+      <c r="U51" s="227"/>
+      <c r="V51" s="227"/>
+      <c r="W51" s="228"/>
+      <c r="X51" s="230" t="s">
         <v>370</v>
       </c>
-      <c r="Y51" s="230"/>
-      <c r="Z51" s="221" t="s">
+      <c r="Y51" s="231"/>
+      <c r="Z51" s="222" t="s">
         <v>371</v>
       </c>
-      <c r="AA51" s="222"/>
-      <c r="AB51" s="223"/>
-      <c r="AC51" s="224">
+      <c r="AA51" s="223"/>
+      <c r="AB51" s="224"/>
+      <c r="AC51" s="225">
         <v>44893</v>
       </c>
-      <c r="AD51" s="222"/>
-      <c r="AE51" s="222"/>
-      <c r="AF51" s="223"/>
-      <c r="AG51" s="225"/>
-      <c r="AH51" s="226"/>
-      <c r="AI51" s="226"/>
-      <c r="AJ51" s="226"/>
-      <c r="AK51" s="226"/>
-      <c r="AL51" s="226"/>
-      <c r="AM51" s="227"/>
+      <c r="AD51" s="223"/>
+      <c r="AE51" s="223"/>
+      <c r="AF51" s="224"/>
+      <c r="AG51" s="226"/>
+      <c r="AH51" s="227"/>
+      <c r="AI51" s="227"/>
+      <c r="AJ51" s="227"/>
+      <c r="AK51" s="227"/>
+      <c r="AL51" s="227"/>
+      <c r="AM51" s="228"/>
     </row>
     <row r="52" spans="2:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="154">
@@ -27043,46 +29022,46 @@
       <c r="I52" s="191"/>
       <c r="J52" s="191"/>
       <c r="K52" s="192"/>
-      <c r="L52" s="254" t="s">
+      <c r="L52" s="255" t="s">
         <v>291</v>
       </c>
-      <c r="M52" s="256"/>
-      <c r="N52" s="228" t="s">
+      <c r="M52" s="257"/>
+      <c r="N52" s="229" t="s">
         <v>265</v>
       </c>
-      <c r="O52" s="226"/>
-      <c r="P52" s="226"/>
-      <c r="Q52" s="226"/>
-      <c r="R52" s="227"/>
-      <c r="S52" s="228" t="s">
+      <c r="O52" s="227"/>
+      <c r="P52" s="227"/>
+      <c r="Q52" s="227"/>
+      <c r="R52" s="228"/>
+      <c r="S52" s="229" t="s">
         <v>265</v>
       </c>
-      <c r="T52" s="226"/>
-      <c r="U52" s="226"/>
-      <c r="V52" s="226"/>
-      <c r="W52" s="227"/>
-      <c r="X52" s="229" t="s">
+      <c r="T52" s="227"/>
+      <c r="U52" s="227"/>
+      <c r="V52" s="227"/>
+      <c r="W52" s="228"/>
+      <c r="X52" s="230" t="s">
         <v>370</v>
       </c>
-      <c r="Y52" s="230"/>
-      <c r="Z52" s="221" t="s">
+      <c r="Y52" s="231"/>
+      <c r="Z52" s="222" t="s">
         <v>371</v>
       </c>
-      <c r="AA52" s="222"/>
-      <c r="AB52" s="223"/>
-      <c r="AC52" s="224">
+      <c r="AA52" s="223"/>
+      <c r="AB52" s="224"/>
+      <c r="AC52" s="225">
         <v>44893</v>
       </c>
-      <c r="AD52" s="222"/>
-      <c r="AE52" s="222"/>
-      <c r="AF52" s="223"/>
-      <c r="AG52" s="225"/>
-      <c r="AH52" s="226"/>
-      <c r="AI52" s="226"/>
-      <c r="AJ52" s="226"/>
-      <c r="AK52" s="226"/>
-      <c r="AL52" s="226"/>
-      <c r="AM52" s="227"/>
+      <c r="AD52" s="223"/>
+      <c r="AE52" s="223"/>
+      <c r="AF52" s="224"/>
+      <c r="AG52" s="226"/>
+      <c r="AH52" s="227"/>
+      <c r="AI52" s="227"/>
+      <c r="AJ52" s="227"/>
+      <c r="AK52" s="227"/>
+      <c r="AL52" s="227"/>
+      <c r="AM52" s="228"/>
     </row>
     <row r="53" spans="2:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="154">
@@ -27099,46 +29078,46 @@
       <c r="I53" s="188"/>
       <c r="J53" s="188"/>
       <c r="K53" s="189"/>
-      <c r="L53" s="254" t="s">
+      <c r="L53" s="255" t="s">
         <v>291</v>
       </c>
-      <c r="M53" s="256"/>
-      <c r="N53" s="228" t="s">
+      <c r="M53" s="257"/>
+      <c r="N53" s="229" t="s">
         <v>265</v>
       </c>
-      <c r="O53" s="226"/>
-      <c r="P53" s="226"/>
-      <c r="Q53" s="226"/>
-      <c r="R53" s="227"/>
-      <c r="S53" s="228" t="s">
+      <c r="O53" s="227"/>
+      <c r="P53" s="227"/>
+      <c r="Q53" s="227"/>
+      <c r="R53" s="228"/>
+      <c r="S53" s="229" t="s">
         <v>265</v>
       </c>
-      <c r="T53" s="226"/>
-      <c r="U53" s="226"/>
-      <c r="V53" s="226"/>
-      <c r="W53" s="227"/>
-      <c r="X53" s="229" t="s">
+      <c r="T53" s="227"/>
+      <c r="U53" s="227"/>
+      <c r="V53" s="227"/>
+      <c r="W53" s="228"/>
+      <c r="X53" s="230" t="s">
         <v>370</v>
       </c>
-      <c r="Y53" s="230"/>
-      <c r="Z53" s="221" t="s">
+      <c r="Y53" s="231"/>
+      <c r="Z53" s="222" t="s">
         <v>371</v>
       </c>
-      <c r="AA53" s="222"/>
-      <c r="AB53" s="223"/>
-      <c r="AC53" s="224">
+      <c r="AA53" s="223"/>
+      <c r="AB53" s="224"/>
+      <c r="AC53" s="225">
         <v>44893</v>
       </c>
-      <c r="AD53" s="222"/>
-      <c r="AE53" s="222"/>
-      <c r="AF53" s="223"/>
-      <c r="AG53" s="225"/>
-      <c r="AH53" s="226"/>
-      <c r="AI53" s="226"/>
-      <c r="AJ53" s="226"/>
-      <c r="AK53" s="226"/>
-      <c r="AL53" s="226"/>
-      <c r="AM53" s="227"/>
+      <c r="AD53" s="223"/>
+      <c r="AE53" s="223"/>
+      <c r="AF53" s="224"/>
+      <c r="AG53" s="226"/>
+      <c r="AH53" s="227"/>
+      <c r="AI53" s="227"/>
+      <c r="AJ53" s="227"/>
+      <c r="AK53" s="227"/>
+      <c r="AL53" s="227"/>
+      <c r="AM53" s="228"/>
     </row>
     <row r="54" spans="2:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="154">
@@ -27155,46 +29134,46 @@
       <c r="I54" s="191"/>
       <c r="J54" s="191"/>
       <c r="K54" s="192"/>
-      <c r="L54" s="254" t="s">
+      <c r="L54" s="255" t="s">
         <v>291</v>
       </c>
-      <c r="M54" s="256"/>
-      <c r="N54" s="228" t="s">
+      <c r="M54" s="257"/>
+      <c r="N54" s="229" t="s">
         <v>265</v>
       </c>
-      <c r="O54" s="226"/>
-      <c r="P54" s="226"/>
-      <c r="Q54" s="226"/>
-      <c r="R54" s="227"/>
-      <c r="S54" s="228" t="s">
+      <c r="O54" s="227"/>
+      <c r="P54" s="227"/>
+      <c r="Q54" s="227"/>
+      <c r="R54" s="228"/>
+      <c r="S54" s="229" t="s">
         <v>265</v>
       </c>
-      <c r="T54" s="226"/>
-      <c r="U54" s="226"/>
-      <c r="V54" s="226"/>
-      <c r="W54" s="227"/>
-      <c r="X54" s="229" t="s">
+      <c r="T54" s="227"/>
+      <c r="U54" s="227"/>
+      <c r="V54" s="227"/>
+      <c r="W54" s="228"/>
+      <c r="X54" s="230" t="s">
         <v>370</v>
       </c>
-      <c r="Y54" s="230"/>
-      <c r="Z54" s="221" t="s">
+      <c r="Y54" s="231"/>
+      <c r="Z54" s="222" t="s">
         <v>371</v>
       </c>
-      <c r="AA54" s="222"/>
-      <c r="AB54" s="223"/>
-      <c r="AC54" s="224">
+      <c r="AA54" s="223"/>
+      <c r="AB54" s="224"/>
+      <c r="AC54" s="225">
         <v>44893</v>
       </c>
-      <c r="AD54" s="222"/>
-      <c r="AE54" s="222"/>
-      <c r="AF54" s="223"/>
-      <c r="AG54" s="225"/>
-      <c r="AH54" s="226"/>
-      <c r="AI54" s="226"/>
-      <c r="AJ54" s="226"/>
-      <c r="AK54" s="226"/>
-      <c r="AL54" s="226"/>
-      <c r="AM54" s="227"/>
+      <c r="AD54" s="223"/>
+      <c r="AE54" s="223"/>
+      <c r="AF54" s="224"/>
+      <c r="AG54" s="226"/>
+      <c r="AH54" s="227"/>
+      <c r="AI54" s="227"/>
+      <c r="AJ54" s="227"/>
+      <c r="AK54" s="227"/>
+      <c r="AL54" s="227"/>
+      <c r="AM54" s="228"/>
     </row>
     <row r="55" spans="2:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="154">
@@ -27211,46 +29190,46 @@
       <c r="I55" s="188"/>
       <c r="J55" s="188"/>
       <c r="K55" s="189"/>
-      <c r="L55" s="254" t="s">
+      <c r="L55" s="255" t="s">
         <v>291</v>
       </c>
-      <c r="M55" s="256"/>
-      <c r="N55" s="228" t="s">
+      <c r="M55" s="257"/>
+      <c r="N55" s="229" t="s">
         <v>265</v>
       </c>
-      <c r="O55" s="226"/>
-      <c r="P55" s="226"/>
-      <c r="Q55" s="226"/>
-      <c r="R55" s="227"/>
-      <c r="S55" s="228" t="s">
+      <c r="O55" s="227"/>
+      <c r="P55" s="227"/>
+      <c r="Q55" s="227"/>
+      <c r="R55" s="228"/>
+      <c r="S55" s="229" t="s">
         <v>265</v>
       </c>
-      <c r="T55" s="226"/>
-      <c r="U55" s="226"/>
-      <c r="V55" s="226"/>
-      <c r="W55" s="227"/>
-      <c r="X55" s="229" t="s">
+      <c r="T55" s="227"/>
+      <c r="U55" s="227"/>
+      <c r="V55" s="227"/>
+      <c r="W55" s="228"/>
+      <c r="X55" s="230" t="s">
         <v>370</v>
       </c>
-      <c r="Y55" s="230"/>
-      <c r="Z55" s="221" t="s">
+      <c r="Y55" s="231"/>
+      <c r="Z55" s="222" t="s">
         <v>371</v>
       </c>
-      <c r="AA55" s="222"/>
-      <c r="AB55" s="223"/>
-      <c r="AC55" s="224">
+      <c r="AA55" s="223"/>
+      <c r="AB55" s="224"/>
+      <c r="AC55" s="225">
         <v>44893</v>
       </c>
-      <c r="AD55" s="222"/>
-      <c r="AE55" s="222"/>
-      <c r="AF55" s="223"/>
-      <c r="AG55" s="225"/>
-      <c r="AH55" s="226"/>
-      <c r="AI55" s="226"/>
-      <c r="AJ55" s="226"/>
-      <c r="AK55" s="226"/>
-      <c r="AL55" s="226"/>
-      <c r="AM55" s="227"/>
+      <c r="AD55" s="223"/>
+      <c r="AE55" s="223"/>
+      <c r="AF55" s="224"/>
+      <c r="AG55" s="226"/>
+      <c r="AH55" s="227"/>
+      <c r="AI55" s="227"/>
+      <c r="AJ55" s="227"/>
+      <c r="AK55" s="227"/>
+      <c r="AL55" s="227"/>
+      <c r="AM55" s="228"/>
     </row>
     <row r="57" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B57" s="131" t="s">
@@ -27344,20 +29323,20 @@
         <v>131</v>
       </c>
       <c r="C61" s="150"/>
-      <c r="D61" s="263" t="s">
+      <c r="D61" s="264" t="s">
         <v>262</v>
       </c>
-      <c r="E61" s="264"/>
-      <c r="F61" s="264"/>
-      <c r="G61" s="264"/>
-      <c r="H61" s="264"/>
-      <c r="I61" s="264"/>
-      <c r="J61" s="264"/>
-      <c r="K61" s="265"/>
-      <c r="L61" s="268" t="s">
+      <c r="E61" s="265"/>
+      <c r="F61" s="265"/>
+      <c r="G61" s="265"/>
+      <c r="H61" s="265"/>
+      <c r="I61" s="265"/>
+      <c r="J61" s="265"/>
+      <c r="K61" s="266"/>
+      <c r="L61" s="269" t="s">
         <v>263</v>
       </c>
-      <c r="M61" s="269"/>
+      <c r="M61" s="270"/>
       <c r="N61" s="151" t="s">
         <v>133</v>
       </c>
@@ -27412,48 +29391,48 @@
       <c r="I62" s="196"/>
       <c r="J62" s="196"/>
       <c r="K62" s="197"/>
-      <c r="L62" s="258" t="s">
+      <c r="L62" s="259" t="s">
         <v>270</v>
       </c>
-      <c r="M62" s="259"/>
-      <c r="N62" s="260" t="s">
+      <c r="M62" s="260"/>
+      <c r="N62" s="261" t="s">
         <v>265</v>
       </c>
-      <c r="O62" s="261"/>
-      <c r="P62" s="261"/>
-      <c r="Q62" s="261"/>
-      <c r="R62" s="262"/>
-      <c r="S62" s="234" t="s">
+      <c r="O62" s="262"/>
+      <c r="P62" s="262"/>
+      <c r="Q62" s="262"/>
+      <c r="R62" s="263"/>
+      <c r="S62" s="235" t="s">
         <v>271</v>
       </c>
-      <c r="T62" s="235"/>
-      <c r="U62" s="235"/>
-      <c r="V62" s="235"/>
-      <c r="W62" s="236"/>
-      <c r="X62" s="237" t="s">
+      <c r="T62" s="236"/>
+      <c r="U62" s="236"/>
+      <c r="V62" s="236"/>
+      <c r="W62" s="237"/>
+      <c r="X62" s="238" t="s">
         <v>272</v>
       </c>
-      <c r="Y62" s="238"/>
-      <c r="Z62" s="239" t="s">
+      <c r="Y62" s="239"/>
+      <c r="Z62" s="240" t="s">
         <v>271</v>
       </c>
-      <c r="AA62" s="240"/>
-      <c r="AB62" s="241"/>
-      <c r="AC62" s="242" t="s">
+      <c r="AA62" s="241"/>
+      <c r="AB62" s="242"/>
+      <c r="AC62" s="243" t="s">
         <v>271</v>
       </c>
-      <c r="AD62" s="240"/>
-      <c r="AE62" s="240"/>
-      <c r="AF62" s="241"/>
-      <c r="AG62" s="257" t="s">
+      <c r="AD62" s="241"/>
+      <c r="AE62" s="241"/>
+      <c r="AF62" s="242"/>
+      <c r="AG62" s="258" t="s">
         <v>273</v>
       </c>
-      <c r="AH62" s="235"/>
-      <c r="AI62" s="235"/>
-      <c r="AJ62" s="235"/>
-      <c r="AK62" s="235"/>
-      <c r="AL62" s="235"/>
-      <c r="AM62" s="236"/>
+      <c r="AH62" s="236"/>
+      <c r="AI62" s="236"/>
+      <c r="AJ62" s="236"/>
+      <c r="AK62" s="236"/>
+      <c r="AL62" s="236"/>
+      <c r="AM62" s="237"/>
     </row>
     <row r="63" spans="2:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="193">
@@ -27470,48 +29449,48 @@
       <c r="I63" s="196"/>
       <c r="J63" s="196"/>
       <c r="K63" s="197"/>
-      <c r="L63" s="258" t="s">
+      <c r="L63" s="259" t="s">
         <v>264</v>
       </c>
-      <c r="M63" s="259"/>
-      <c r="N63" s="260" t="s">
+      <c r="M63" s="260"/>
+      <c r="N63" s="261" t="s">
         <v>265</v>
       </c>
-      <c r="O63" s="261"/>
-      <c r="P63" s="261"/>
-      <c r="Q63" s="261"/>
-      <c r="R63" s="262"/>
-      <c r="S63" s="234" t="s">
+      <c r="O63" s="262"/>
+      <c r="P63" s="262"/>
+      <c r="Q63" s="262"/>
+      <c r="R63" s="263"/>
+      <c r="S63" s="235" t="s">
         <v>271</v>
       </c>
-      <c r="T63" s="235"/>
-      <c r="U63" s="235"/>
-      <c r="V63" s="235"/>
-      <c r="W63" s="236"/>
-      <c r="X63" s="237" t="s">
+      <c r="T63" s="236"/>
+      <c r="U63" s="236"/>
+      <c r="V63" s="236"/>
+      <c r="W63" s="237"/>
+      <c r="X63" s="238" t="s">
         <v>272</v>
       </c>
-      <c r="Y63" s="238"/>
-      <c r="Z63" s="239" t="s">
+      <c r="Y63" s="239"/>
+      <c r="Z63" s="240" t="s">
         <v>272</v>
       </c>
-      <c r="AA63" s="240"/>
-      <c r="AB63" s="241"/>
-      <c r="AC63" s="242" t="s">
+      <c r="AA63" s="241"/>
+      <c r="AB63" s="242"/>
+      <c r="AC63" s="243" t="s">
         <v>271</v>
       </c>
-      <c r="AD63" s="240"/>
-      <c r="AE63" s="240"/>
-      <c r="AF63" s="241"/>
-      <c r="AG63" s="257" t="s">
+      <c r="AD63" s="241"/>
+      <c r="AE63" s="241"/>
+      <c r="AF63" s="242"/>
+      <c r="AG63" s="258" t="s">
         <v>273</v>
       </c>
-      <c r="AH63" s="235"/>
-      <c r="AI63" s="235"/>
-      <c r="AJ63" s="235"/>
-      <c r="AK63" s="235"/>
-      <c r="AL63" s="235"/>
-      <c r="AM63" s="236"/>
+      <c r="AH63" s="236"/>
+      <c r="AI63" s="236"/>
+      <c r="AJ63" s="236"/>
+      <c r="AK63" s="236"/>
+      <c r="AL63" s="236"/>
+      <c r="AM63" s="237"/>
     </row>
     <row r="64" spans="2:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="193">
@@ -27528,48 +29507,48 @@
       <c r="I64" s="199"/>
       <c r="J64" s="199"/>
       <c r="K64" s="200"/>
-      <c r="L64" s="258" t="s">
+      <c r="L64" s="259" t="s">
         <v>291</v>
       </c>
-      <c r="M64" s="259"/>
-      <c r="N64" s="260" t="s">
+      <c r="M64" s="260"/>
+      <c r="N64" s="261" t="s">
         <v>265</v>
       </c>
-      <c r="O64" s="261"/>
-      <c r="P64" s="261"/>
-      <c r="Q64" s="261"/>
-      <c r="R64" s="262"/>
-      <c r="S64" s="234" t="s">
+      <c r="O64" s="262"/>
+      <c r="P64" s="262"/>
+      <c r="Q64" s="262"/>
+      <c r="R64" s="263"/>
+      <c r="S64" s="235" t="s">
         <v>271</v>
       </c>
-      <c r="T64" s="235"/>
-      <c r="U64" s="235"/>
-      <c r="V64" s="235"/>
-      <c r="W64" s="236"/>
-      <c r="X64" s="237" t="s">
+      <c r="T64" s="236"/>
+      <c r="U64" s="236"/>
+      <c r="V64" s="236"/>
+      <c r="W64" s="237"/>
+      <c r="X64" s="238" t="s">
         <v>272</v>
       </c>
-      <c r="Y64" s="238"/>
-      <c r="Z64" s="239" t="s">
+      <c r="Y64" s="239"/>
+      <c r="Z64" s="240" t="s">
         <v>272</v>
       </c>
-      <c r="AA64" s="240"/>
-      <c r="AB64" s="241"/>
-      <c r="AC64" s="242" t="s">
+      <c r="AA64" s="241"/>
+      <c r="AB64" s="242"/>
+      <c r="AC64" s="243" t="s">
         <v>271</v>
       </c>
-      <c r="AD64" s="240"/>
-      <c r="AE64" s="240"/>
-      <c r="AF64" s="241"/>
-      <c r="AG64" s="257" t="s">
+      <c r="AD64" s="241"/>
+      <c r="AE64" s="241"/>
+      <c r="AF64" s="242"/>
+      <c r="AG64" s="258" t="s">
         <v>273</v>
       </c>
-      <c r="AH64" s="235"/>
-      <c r="AI64" s="235"/>
-      <c r="AJ64" s="235"/>
-      <c r="AK64" s="235"/>
-      <c r="AL64" s="235"/>
-      <c r="AM64" s="236"/>
+      <c r="AH64" s="236"/>
+      <c r="AI64" s="236"/>
+      <c r="AJ64" s="236"/>
+      <c r="AK64" s="236"/>
+      <c r="AL64" s="236"/>
+      <c r="AM64" s="237"/>
     </row>
     <row r="65" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="193">
@@ -27586,48 +29565,48 @@
       <c r="I65" s="196"/>
       <c r="J65" s="196"/>
       <c r="K65" s="197"/>
-      <c r="L65" s="258" t="s">
+      <c r="L65" s="259" t="s">
         <v>291</v>
       </c>
-      <c r="M65" s="259"/>
-      <c r="N65" s="260" t="s">
+      <c r="M65" s="260"/>
+      <c r="N65" s="261" t="s">
         <v>265</v>
       </c>
-      <c r="O65" s="261"/>
-      <c r="P65" s="261"/>
-      <c r="Q65" s="261"/>
-      <c r="R65" s="262"/>
-      <c r="S65" s="234" t="s">
+      <c r="O65" s="262"/>
+      <c r="P65" s="262"/>
+      <c r="Q65" s="262"/>
+      <c r="R65" s="263"/>
+      <c r="S65" s="235" t="s">
         <v>271</v>
       </c>
-      <c r="T65" s="235"/>
-      <c r="U65" s="235"/>
-      <c r="V65" s="235"/>
-      <c r="W65" s="236"/>
-      <c r="X65" s="237" t="s">
+      <c r="T65" s="236"/>
+      <c r="U65" s="236"/>
+      <c r="V65" s="236"/>
+      <c r="W65" s="237"/>
+      <c r="X65" s="238" t="s">
         <v>272</v>
       </c>
-      <c r="Y65" s="238"/>
-      <c r="Z65" s="239" t="s">
+      <c r="Y65" s="239"/>
+      <c r="Z65" s="240" t="s">
         <v>272</v>
       </c>
-      <c r="AA65" s="240"/>
-      <c r="AB65" s="241"/>
-      <c r="AC65" s="242" t="s">
+      <c r="AA65" s="241"/>
+      <c r="AB65" s="242"/>
+      <c r="AC65" s="243" t="s">
         <v>271</v>
       </c>
-      <c r="AD65" s="240"/>
-      <c r="AE65" s="240"/>
-      <c r="AF65" s="241"/>
-      <c r="AG65" s="257" t="s">
+      <c r="AD65" s="241"/>
+      <c r="AE65" s="241"/>
+      <c r="AF65" s="242"/>
+      <c r="AG65" s="258" t="s">
         <v>273</v>
       </c>
-      <c r="AH65" s="235"/>
-      <c r="AI65" s="235"/>
-      <c r="AJ65" s="235"/>
-      <c r="AK65" s="235"/>
-      <c r="AL65" s="235"/>
-      <c r="AM65" s="236"/>
+      <c r="AH65" s="236"/>
+      <c r="AI65" s="236"/>
+      <c r="AJ65" s="236"/>
+      <c r="AK65" s="236"/>
+      <c r="AL65" s="236"/>
+      <c r="AM65" s="237"/>
     </row>
     <row r="66" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="193">
@@ -27644,48 +29623,48 @@
       <c r="I66" s="199"/>
       <c r="J66" s="199"/>
       <c r="K66" s="200"/>
-      <c r="L66" s="258" t="s">
+      <c r="L66" s="259" t="s">
         <v>291</v>
       </c>
-      <c r="M66" s="259"/>
-      <c r="N66" s="260" t="s">
+      <c r="M66" s="260"/>
+      <c r="N66" s="261" t="s">
         <v>265</v>
       </c>
-      <c r="O66" s="261"/>
-      <c r="P66" s="261"/>
-      <c r="Q66" s="261"/>
-      <c r="R66" s="262"/>
-      <c r="S66" s="234" t="s">
+      <c r="O66" s="262"/>
+      <c r="P66" s="262"/>
+      <c r="Q66" s="262"/>
+      <c r="R66" s="263"/>
+      <c r="S66" s="235" t="s">
         <v>271</v>
       </c>
-      <c r="T66" s="235"/>
-      <c r="U66" s="235"/>
-      <c r="V66" s="235"/>
-      <c r="W66" s="236"/>
-      <c r="X66" s="237" t="s">
+      <c r="T66" s="236"/>
+      <c r="U66" s="236"/>
+      <c r="V66" s="236"/>
+      <c r="W66" s="237"/>
+      <c r="X66" s="238" t="s">
         <v>272</v>
       </c>
-      <c r="Y66" s="238"/>
-      <c r="Z66" s="239" t="s">
+      <c r="Y66" s="239"/>
+      <c r="Z66" s="240" t="s">
         <v>272</v>
       </c>
-      <c r="AA66" s="240"/>
-      <c r="AB66" s="241"/>
-      <c r="AC66" s="242" t="s">
+      <c r="AA66" s="241"/>
+      <c r="AB66" s="242"/>
+      <c r="AC66" s="243" t="s">
         <v>271</v>
       </c>
-      <c r="AD66" s="240"/>
-      <c r="AE66" s="240"/>
-      <c r="AF66" s="241"/>
-      <c r="AG66" s="257" t="s">
+      <c r="AD66" s="241"/>
+      <c r="AE66" s="241"/>
+      <c r="AF66" s="242"/>
+      <c r="AG66" s="258" t="s">
         <v>273</v>
       </c>
-      <c r="AH66" s="235"/>
-      <c r="AI66" s="235"/>
-      <c r="AJ66" s="235"/>
-      <c r="AK66" s="235"/>
-      <c r="AL66" s="235"/>
-      <c r="AM66" s="236"/>
+      <c r="AH66" s="236"/>
+      <c r="AI66" s="236"/>
+      <c r="AJ66" s="236"/>
+      <c r="AK66" s="236"/>
+      <c r="AL66" s="236"/>
+      <c r="AM66" s="237"/>
     </row>
     <row r="67" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="193">
@@ -27702,48 +29681,48 @@
       <c r="I67" s="196"/>
       <c r="J67" s="196"/>
       <c r="K67" s="197"/>
-      <c r="L67" s="258" t="s">
+      <c r="L67" s="259" t="s">
         <v>291</v>
       </c>
-      <c r="M67" s="259"/>
-      <c r="N67" s="260" t="s">
+      <c r="M67" s="260"/>
+      <c r="N67" s="261" t="s">
         <v>265</v>
       </c>
-      <c r="O67" s="261"/>
-      <c r="P67" s="261"/>
-      <c r="Q67" s="261"/>
-      <c r="R67" s="262"/>
-      <c r="S67" s="234" t="s">
+      <c r="O67" s="262"/>
+      <c r="P67" s="262"/>
+      <c r="Q67" s="262"/>
+      <c r="R67" s="263"/>
+      <c r="S67" s="235" t="s">
         <v>271</v>
       </c>
-      <c r="T67" s="235"/>
-      <c r="U67" s="235"/>
-      <c r="V67" s="235"/>
-      <c r="W67" s="236"/>
-      <c r="X67" s="237" t="s">
+      <c r="T67" s="236"/>
+      <c r="U67" s="236"/>
+      <c r="V67" s="236"/>
+      <c r="W67" s="237"/>
+      <c r="X67" s="238" t="s">
         <v>272</v>
       </c>
-      <c r="Y67" s="238"/>
-      <c r="Z67" s="239" t="s">
+      <c r="Y67" s="239"/>
+      <c r="Z67" s="240" t="s">
         <v>272</v>
       </c>
-      <c r="AA67" s="240"/>
-      <c r="AB67" s="241"/>
-      <c r="AC67" s="242" t="s">
+      <c r="AA67" s="241"/>
+      <c r="AB67" s="242"/>
+      <c r="AC67" s="243" t="s">
         <v>271</v>
       </c>
-      <c r="AD67" s="240"/>
-      <c r="AE67" s="240"/>
-      <c r="AF67" s="241"/>
-      <c r="AG67" s="257" t="s">
+      <c r="AD67" s="241"/>
+      <c r="AE67" s="241"/>
+      <c r="AF67" s="242"/>
+      <c r="AG67" s="258" t="s">
         <v>273</v>
       </c>
-      <c r="AH67" s="235"/>
-      <c r="AI67" s="235"/>
-      <c r="AJ67" s="235"/>
-      <c r="AK67" s="235"/>
-      <c r="AL67" s="235"/>
-      <c r="AM67" s="236"/>
+      <c r="AH67" s="236"/>
+      <c r="AI67" s="236"/>
+      <c r="AJ67" s="236"/>
+      <c r="AK67" s="236"/>
+      <c r="AL67" s="236"/>
+      <c r="AM67" s="237"/>
     </row>
     <row r="70" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A70" s="131" t="s">
@@ -27850,35 +29829,35 @@
         <v>131</v>
       </c>
       <c r="C74" s="150"/>
-      <c r="D74" s="263" t="s">
+      <c r="D74" s="264" t="s">
         <v>277</v>
       </c>
-      <c r="E74" s="264"/>
-      <c r="F74" s="264"/>
-      <c r="G74" s="264"/>
-      <c r="H74" s="264"/>
-      <c r="I74" s="264"/>
-      <c r="J74" s="264"/>
-      <c r="K74" s="265"/>
-      <c r="L74" s="263" t="s">
+      <c r="E74" s="265"/>
+      <c r="F74" s="265"/>
+      <c r="G74" s="265"/>
+      <c r="H74" s="265"/>
+      <c r="I74" s="265"/>
+      <c r="J74" s="265"/>
+      <c r="K74" s="266"/>
+      <c r="L74" s="264" t="s">
         <v>278</v>
       </c>
-      <c r="M74" s="264"/>
-      <c r="N74" s="264"/>
-      <c r="O74" s="264"/>
-      <c r="P74" s="265"/>
-      <c r="Q74" s="264" t="s">
+      <c r="M74" s="265"/>
+      <c r="N74" s="265"/>
+      <c r="O74" s="265"/>
+      <c r="P74" s="266"/>
+      <c r="Q74" s="265" t="s">
         <v>279</v>
       </c>
-      <c r="R74" s="264"/>
-      <c r="S74" s="264"/>
-      <c r="T74" s="264"/>
-      <c r="U74" s="264"/>
-      <c r="V74" s="264"/>
-      <c r="W74" s="264"/>
-      <c r="X74" s="264"/>
-      <c r="Y74" s="264"/>
-      <c r="Z74" s="265"/>
+      <c r="R74" s="265"/>
+      <c r="S74" s="265"/>
+      <c r="T74" s="265"/>
+      <c r="U74" s="265"/>
+      <c r="V74" s="265"/>
+      <c r="W74" s="265"/>
+      <c r="X74" s="265"/>
+      <c r="Y74" s="265"/>
+      <c r="Z74" s="266"/>
       <c r="AA74" s="151" t="s">
         <v>133</v>
       </c>
@@ -27923,426 +29902,426 @@
         <v>1</v>
       </c>
       <c r="C75" s="155"/>
-      <c r="D75" s="250" t="s">
+      <c r="D75" s="251" t="s">
         <v>292</v>
       </c>
-      <c r="E75" s="266"/>
-      <c r="F75" s="266"/>
-      <c r="G75" s="266"/>
-      <c r="H75" s="266"/>
-      <c r="I75" s="266"/>
-      <c r="J75" s="266"/>
-      <c r="K75" s="267"/>
-      <c r="L75" s="253" t="s">
+      <c r="E75" s="267"/>
+      <c r="F75" s="267"/>
+      <c r="G75" s="267"/>
+      <c r="H75" s="267"/>
+      <c r="I75" s="267"/>
+      <c r="J75" s="267"/>
+      <c r="K75" s="268"/>
+      <c r="L75" s="254" t="s">
         <v>293</v>
       </c>
-      <c r="M75" s="251"/>
-      <c r="N75" s="251"/>
-      <c r="O75" s="251"/>
-      <c r="P75" s="252"/>
-      <c r="Q75" s="254" t="s">
+      <c r="M75" s="252"/>
+      <c r="N75" s="252"/>
+      <c r="O75" s="252"/>
+      <c r="P75" s="253"/>
+      <c r="Q75" s="255" t="s">
         <v>280</v>
       </c>
-      <c r="R75" s="255"/>
-      <c r="S75" s="255"/>
-      <c r="T75" s="255"/>
-      <c r="U75" s="255"/>
-      <c r="V75" s="255"/>
-      <c r="W75" s="255"/>
-      <c r="X75" s="255"/>
-      <c r="Y75" s="255"/>
-      <c r="Z75" s="256"/>
-      <c r="AA75" s="228" t="s">
+      <c r="R75" s="256"/>
+      <c r="S75" s="256"/>
+      <c r="T75" s="256"/>
+      <c r="U75" s="256"/>
+      <c r="V75" s="256"/>
+      <c r="W75" s="256"/>
+      <c r="X75" s="256"/>
+      <c r="Y75" s="256"/>
+      <c r="Z75" s="257"/>
+      <c r="AA75" s="229" t="s">
         <v>281</v>
       </c>
-      <c r="AB75" s="226"/>
-      <c r="AC75" s="226"/>
-      <c r="AD75" s="226"/>
-      <c r="AE75" s="227"/>
-      <c r="AF75" s="228" t="s">
+      <c r="AB75" s="227"/>
+      <c r="AC75" s="227"/>
+      <c r="AD75" s="227"/>
+      <c r="AE75" s="228"/>
+      <c r="AF75" s="229" t="s">
         <v>372</v>
       </c>
-      <c r="AG75" s="226"/>
-      <c r="AH75" s="226"/>
-      <c r="AI75" s="226"/>
-      <c r="AJ75" s="227"/>
-      <c r="AK75" s="229" t="s">
+      <c r="AG75" s="227"/>
+      <c r="AH75" s="227"/>
+      <c r="AI75" s="227"/>
+      <c r="AJ75" s="228"/>
+      <c r="AK75" s="230" t="s">
         <v>373</v>
       </c>
-      <c r="AL75" s="230"/>
-      <c r="AM75" s="221" t="s">
+      <c r="AL75" s="231"/>
+      <c r="AM75" s="222" t="s">
         <v>371</v>
       </c>
-      <c r="AN75" s="222"/>
-      <c r="AO75" s="223"/>
-      <c r="AP75" s="224">
+      <c r="AN75" s="223"/>
+      <c r="AO75" s="224"/>
+      <c r="AP75" s="225">
         <v>44893</v>
       </c>
-      <c r="AQ75" s="222"/>
-      <c r="AR75" s="222"/>
-      <c r="AS75" s="223"/>
-      <c r="AT75" s="225"/>
-      <c r="AU75" s="226"/>
-      <c r="AV75" s="226"/>
-      <c r="AW75" s="226"/>
-      <c r="AX75" s="226"/>
-      <c r="AY75" s="226"/>
-      <c r="AZ75" s="227"/>
+      <c r="AQ75" s="223"/>
+      <c r="AR75" s="223"/>
+      <c r="AS75" s="224"/>
+      <c r="AT75" s="226"/>
+      <c r="AU75" s="227"/>
+      <c r="AV75" s="227"/>
+      <c r="AW75" s="227"/>
+      <c r="AX75" s="227"/>
+      <c r="AY75" s="227"/>
+      <c r="AZ75" s="228"/>
     </row>
     <row r="76" spans="1:52" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="154">
         <v>2</v>
       </c>
       <c r="C76" s="155"/>
-      <c r="D76" s="250" t="s">
+      <c r="D76" s="251" t="s">
         <v>294</v>
       </c>
-      <c r="E76" s="251"/>
-      <c r="F76" s="251"/>
-      <c r="G76" s="251"/>
-      <c r="H76" s="251"/>
-      <c r="I76" s="251"/>
-      <c r="J76" s="251"/>
-      <c r="K76" s="252"/>
-      <c r="L76" s="253" t="s">
+      <c r="E76" s="252"/>
+      <c r="F76" s="252"/>
+      <c r="G76" s="252"/>
+      <c r="H76" s="252"/>
+      <c r="I76" s="252"/>
+      <c r="J76" s="252"/>
+      <c r="K76" s="253"/>
+      <c r="L76" s="254" t="s">
         <v>295</v>
       </c>
-      <c r="M76" s="251"/>
-      <c r="N76" s="251"/>
-      <c r="O76" s="251"/>
-      <c r="P76" s="252"/>
-      <c r="Q76" s="254" t="s">
+      <c r="M76" s="252"/>
+      <c r="N76" s="252"/>
+      <c r="O76" s="252"/>
+      <c r="P76" s="253"/>
+      <c r="Q76" s="255" t="s">
         <v>280</v>
       </c>
-      <c r="R76" s="255"/>
-      <c r="S76" s="255"/>
-      <c r="T76" s="255"/>
-      <c r="U76" s="255"/>
-      <c r="V76" s="255"/>
-      <c r="W76" s="255"/>
-      <c r="X76" s="255"/>
-      <c r="Y76" s="255"/>
-      <c r="Z76" s="256"/>
-      <c r="AA76" s="228" t="s">
+      <c r="R76" s="256"/>
+      <c r="S76" s="256"/>
+      <c r="T76" s="256"/>
+      <c r="U76" s="256"/>
+      <c r="V76" s="256"/>
+      <c r="W76" s="256"/>
+      <c r="X76" s="256"/>
+      <c r="Y76" s="256"/>
+      <c r="Z76" s="257"/>
+      <c r="AA76" s="229" t="s">
         <v>281</v>
       </c>
-      <c r="AB76" s="226"/>
-      <c r="AC76" s="226"/>
-      <c r="AD76" s="226"/>
-      <c r="AE76" s="227"/>
-      <c r="AF76" s="228" t="s">
+      <c r="AB76" s="227"/>
+      <c r="AC76" s="227"/>
+      <c r="AD76" s="227"/>
+      <c r="AE76" s="228"/>
+      <c r="AF76" s="229" t="s">
         <v>372</v>
       </c>
-      <c r="AG76" s="226"/>
-      <c r="AH76" s="226"/>
-      <c r="AI76" s="226"/>
-      <c r="AJ76" s="227"/>
-      <c r="AK76" s="229" t="s">
+      <c r="AG76" s="227"/>
+      <c r="AH76" s="227"/>
+      <c r="AI76" s="227"/>
+      <c r="AJ76" s="228"/>
+      <c r="AK76" s="230" t="s">
         <v>373</v>
       </c>
-      <c r="AL76" s="230"/>
-      <c r="AM76" s="221" t="s">
+      <c r="AL76" s="231"/>
+      <c r="AM76" s="222" t="s">
         <v>371</v>
       </c>
-      <c r="AN76" s="222"/>
-      <c r="AO76" s="223"/>
-      <c r="AP76" s="224">
+      <c r="AN76" s="223"/>
+      <c r="AO76" s="224"/>
+      <c r="AP76" s="225">
         <v>44893</v>
       </c>
-      <c r="AQ76" s="222"/>
-      <c r="AR76" s="222"/>
-      <c r="AS76" s="223"/>
-      <c r="AT76" s="225"/>
-      <c r="AU76" s="226"/>
-      <c r="AV76" s="226"/>
-      <c r="AW76" s="226"/>
-      <c r="AX76" s="226"/>
-      <c r="AY76" s="226"/>
-      <c r="AZ76" s="227"/>
+      <c r="AQ76" s="223"/>
+      <c r="AR76" s="223"/>
+      <c r="AS76" s="224"/>
+      <c r="AT76" s="226"/>
+      <c r="AU76" s="227"/>
+      <c r="AV76" s="227"/>
+      <c r="AW76" s="227"/>
+      <c r="AX76" s="227"/>
+      <c r="AY76" s="227"/>
+      <c r="AZ76" s="228"/>
     </row>
     <row r="77" spans="1:52" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="154">
         <v>3</v>
       </c>
       <c r="C77" s="155"/>
-      <c r="D77" s="250" t="s">
+      <c r="D77" s="251" t="s">
         <v>296</v>
       </c>
-      <c r="E77" s="251"/>
-      <c r="F77" s="251"/>
-      <c r="G77" s="251"/>
-      <c r="H77" s="251"/>
-      <c r="I77" s="251"/>
-      <c r="J77" s="251"/>
-      <c r="K77" s="252"/>
-      <c r="L77" s="253" t="s">
+      <c r="E77" s="252"/>
+      <c r="F77" s="252"/>
+      <c r="G77" s="252"/>
+      <c r="H77" s="252"/>
+      <c r="I77" s="252"/>
+      <c r="J77" s="252"/>
+      <c r="K77" s="253"/>
+      <c r="L77" s="254" t="s">
         <v>297</v>
       </c>
-      <c r="M77" s="251"/>
-      <c r="N77" s="251"/>
-      <c r="O77" s="251"/>
-      <c r="P77" s="252"/>
-      <c r="Q77" s="254" t="s">
+      <c r="M77" s="252"/>
+      <c r="N77" s="252"/>
+      <c r="O77" s="252"/>
+      <c r="P77" s="253"/>
+      <c r="Q77" s="255" t="s">
         <v>280</v>
       </c>
-      <c r="R77" s="255"/>
-      <c r="S77" s="255"/>
-      <c r="T77" s="255"/>
-      <c r="U77" s="255"/>
-      <c r="V77" s="255"/>
-      <c r="W77" s="255"/>
-      <c r="X77" s="255"/>
-      <c r="Y77" s="255"/>
-      <c r="Z77" s="256"/>
-      <c r="AA77" s="228" t="s">
+      <c r="R77" s="256"/>
+      <c r="S77" s="256"/>
+      <c r="T77" s="256"/>
+      <c r="U77" s="256"/>
+      <c r="V77" s="256"/>
+      <c r="W77" s="256"/>
+      <c r="X77" s="256"/>
+      <c r="Y77" s="256"/>
+      <c r="Z77" s="257"/>
+      <c r="AA77" s="229" t="s">
         <v>281</v>
       </c>
-      <c r="AB77" s="226"/>
-      <c r="AC77" s="226"/>
-      <c r="AD77" s="226"/>
-      <c r="AE77" s="227"/>
-      <c r="AF77" s="228" t="s">
+      <c r="AB77" s="227"/>
+      <c r="AC77" s="227"/>
+      <c r="AD77" s="227"/>
+      <c r="AE77" s="228"/>
+      <c r="AF77" s="229" t="s">
         <v>372</v>
       </c>
-      <c r="AG77" s="226"/>
-      <c r="AH77" s="226"/>
-      <c r="AI77" s="226"/>
-      <c r="AJ77" s="227"/>
-      <c r="AK77" s="229" t="s">
+      <c r="AG77" s="227"/>
+      <c r="AH77" s="227"/>
+      <c r="AI77" s="227"/>
+      <c r="AJ77" s="228"/>
+      <c r="AK77" s="230" t="s">
         <v>373</v>
       </c>
-      <c r="AL77" s="230"/>
-      <c r="AM77" s="221" t="s">
+      <c r="AL77" s="231"/>
+      <c r="AM77" s="222" t="s">
         <v>371</v>
       </c>
-      <c r="AN77" s="222"/>
-      <c r="AO77" s="223"/>
-      <c r="AP77" s="224">
+      <c r="AN77" s="223"/>
+      <c r="AO77" s="224"/>
+      <c r="AP77" s="225">
         <v>44893</v>
       </c>
-      <c r="AQ77" s="222"/>
-      <c r="AR77" s="222"/>
-      <c r="AS77" s="223"/>
-      <c r="AT77" s="225"/>
-      <c r="AU77" s="226"/>
-      <c r="AV77" s="226"/>
-      <c r="AW77" s="226"/>
-      <c r="AX77" s="226"/>
-      <c r="AY77" s="226"/>
-      <c r="AZ77" s="227"/>
+      <c r="AQ77" s="223"/>
+      <c r="AR77" s="223"/>
+      <c r="AS77" s="224"/>
+      <c r="AT77" s="226"/>
+      <c r="AU77" s="227"/>
+      <c r="AV77" s="227"/>
+      <c r="AW77" s="227"/>
+      <c r="AX77" s="227"/>
+      <c r="AY77" s="227"/>
+      <c r="AZ77" s="228"/>
     </row>
     <row r="78" spans="1:52" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="154">
         <v>4</v>
       </c>
       <c r="C78" s="155"/>
-      <c r="D78" s="250" t="s">
+      <c r="D78" s="251" t="s">
         <v>298</v>
       </c>
-      <c r="E78" s="251"/>
-      <c r="F78" s="251"/>
-      <c r="G78" s="251"/>
-      <c r="H78" s="251"/>
-      <c r="I78" s="251"/>
-      <c r="J78" s="251"/>
-      <c r="K78" s="252"/>
-      <c r="L78" s="253" t="s">
+      <c r="E78" s="252"/>
+      <c r="F78" s="252"/>
+      <c r="G78" s="252"/>
+      <c r="H78" s="252"/>
+      <c r="I78" s="252"/>
+      <c r="J78" s="252"/>
+      <c r="K78" s="253"/>
+      <c r="L78" s="254" t="s">
         <v>299</v>
       </c>
-      <c r="M78" s="251"/>
-      <c r="N78" s="251"/>
-      <c r="O78" s="251"/>
-      <c r="P78" s="252"/>
-      <c r="Q78" s="254" t="s">
+      <c r="M78" s="252"/>
+      <c r="N78" s="252"/>
+      <c r="O78" s="252"/>
+      <c r="P78" s="253"/>
+      <c r="Q78" s="255" t="s">
         <v>282</v>
       </c>
-      <c r="R78" s="255"/>
-      <c r="S78" s="255"/>
-      <c r="T78" s="255"/>
-      <c r="U78" s="255"/>
-      <c r="V78" s="255"/>
-      <c r="W78" s="255"/>
-      <c r="X78" s="255"/>
-      <c r="Y78" s="255"/>
-      <c r="Z78" s="256"/>
-      <c r="AA78" s="228" t="s">
+      <c r="R78" s="256"/>
+      <c r="S78" s="256"/>
+      <c r="T78" s="256"/>
+      <c r="U78" s="256"/>
+      <c r="V78" s="256"/>
+      <c r="W78" s="256"/>
+      <c r="X78" s="256"/>
+      <c r="Y78" s="256"/>
+      <c r="Z78" s="257"/>
+      <c r="AA78" s="229" t="s">
         <v>281</v>
       </c>
-      <c r="AB78" s="226"/>
-      <c r="AC78" s="226"/>
-      <c r="AD78" s="226"/>
-      <c r="AE78" s="227"/>
-      <c r="AF78" s="228" t="s">
+      <c r="AB78" s="227"/>
+      <c r="AC78" s="227"/>
+      <c r="AD78" s="227"/>
+      <c r="AE78" s="228"/>
+      <c r="AF78" s="229" t="s">
         <v>372</v>
       </c>
-      <c r="AG78" s="226"/>
-      <c r="AH78" s="226"/>
-      <c r="AI78" s="226"/>
-      <c r="AJ78" s="227"/>
-      <c r="AK78" s="229" t="s">
+      <c r="AG78" s="227"/>
+      <c r="AH78" s="227"/>
+      <c r="AI78" s="227"/>
+      <c r="AJ78" s="228"/>
+      <c r="AK78" s="230" t="s">
         <v>373</v>
       </c>
-      <c r="AL78" s="230"/>
-      <c r="AM78" s="221" t="s">
+      <c r="AL78" s="231"/>
+      <c r="AM78" s="222" t="s">
         <v>371</v>
       </c>
-      <c r="AN78" s="222"/>
-      <c r="AO78" s="223"/>
-      <c r="AP78" s="224">
+      <c r="AN78" s="223"/>
+      <c r="AO78" s="224"/>
+      <c r="AP78" s="225">
         <v>44893</v>
       </c>
-      <c r="AQ78" s="222"/>
-      <c r="AR78" s="222"/>
-      <c r="AS78" s="223"/>
-      <c r="AT78" s="225"/>
-      <c r="AU78" s="226"/>
-      <c r="AV78" s="226"/>
-      <c r="AW78" s="226"/>
-      <c r="AX78" s="226"/>
-      <c r="AY78" s="226"/>
-      <c r="AZ78" s="227"/>
+      <c r="AQ78" s="223"/>
+      <c r="AR78" s="223"/>
+      <c r="AS78" s="224"/>
+      <c r="AT78" s="226"/>
+      <c r="AU78" s="227"/>
+      <c r="AV78" s="227"/>
+      <c r="AW78" s="227"/>
+      <c r="AX78" s="227"/>
+      <c r="AY78" s="227"/>
+      <c r="AZ78" s="228"/>
     </row>
     <row r="79" spans="1:52" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="154">
         <v>5</v>
       </c>
       <c r="C79" s="155"/>
-      <c r="D79" s="250" t="s">
+      <c r="D79" s="251" t="s">
         <v>296</v>
       </c>
-      <c r="E79" s="251"/>
-      <c r="F79" s="251"/>
-      <c r="G79" s="251"/>
-      <c r="H79" s="251"/>
-      <c r="I79" s="251"/>
-      <c r="J79" s="251"/>
-      <c r="K79" s="252"/>
-      <c r="L79" s="253" t="s">
+      <c r="E79" s="252"/>
+      <c r="F79" s="252"/>
+      <c r="G79" s="252"/>
+      <c r="H79" s="252"/>
+      <c r="I79" s="252"/>
+      <c r="J79" s="252"/>
+      <c r="K79" s="253"/>
+      <c r="L79" s="254" t="s">
         <v>300</v>
       </c>
-      <c r="M79" s="251"/>
-      <c r="N79" s="251"/>
-      <c r="O79" s="251"/>
-      <c r="P79" s="252"/>
-      <c r="Q79" s="254" t="s">
+      <c r="M79" s="252"/>
+      <c r="N79" s="252"/>
+      <c r="O79" s="252"/>
+      <c r="P79" s="253"/>
+      <c r="Q79" s="255" t="s">
         <v>280</v>
       </c>
-      <c r="R79" s="255"/>
-      <c r="S79" s="255"/>
-      <c r="T79" s="255"/>
-      <c r="U79" s="255"/>
-      <c r="V79" s="255"/>
-      <c r="W79" s="255"/>
-      <c r="X79" s="255"/>
-      <c r="Y79" s="255"/>
-      <c r="Z79" s="256"/>
-      <c r="AA79" s="228" t="s">
+      <c r="R79" s="256"/>
+      <c r="S79" s="256"/>
+      <c r="T79" s="256"/>
+      <c r="U79" s="256"/>
+      <c r="V79" s="256"/>
+      <c r="W79" s="256"/>
+      <c r="X79" s="256"/>
+      <c r="Y79" s="256"/>
+      <c r="Z79" s="257"/>
+      <c r="AA79" s="229" t="s">
         <v>281</v>
       </c>
-      <c r="AB79" s="226"/>
-      <c r="AC79" s="226"/>
-      <c r="AD79" s="226"/>
-      <c r="AE79" s="227"/>
-      <c r="AF79" s="228" t="s">
+      <c r="AB79" s="227"/>
+      <c r="AC79" s="227"/>
+      <c r="AD79" s="227"/>
+      <c r="AE79" s="228"/>
+      <c r="AF79" s="229" t="s">
         <v>372</v>
       </c>
-      <c r="AG79" s="226"/>
-      <c r="AH79" s="226"/>
-      <c r="AI79" s="226"/>
-      <c r="AJ79" s="227"/>
-      <c r="AK79" s="229" t="s">
+      <c r="AG79" s="227"/>
+      <c r="AH79" s="227"/>
+      <c r="AI79" s="227"/>
+      <c r="AJ79" s="228"/>
+      <c r="AK79" s="230" t="s">
         <v>373</v>
       </c>
-      <c r="AL79" s="230"/>
-      <c r="AM79" s="221" t="s">
+      <c r="AL79" s="231"/>
+      <c r="AM79" s="222" t="s">
         <v>371</v>
       </c>
-      <c r="AN79" s="222"/>
-      <c r="AO79" s="223"/>
-      <c r="AP79" s="224">
+      <c r="AN79" s="223"/>
+      <c r="AO79" s="224"/>
+      <c r="AP79" s="225">
         <v>44893</v>
       </c>
-      <c r="AQ79" s="222"/>
-      <c r="AR79" s="222"/>
-      <c r="AS79" s="223"/>
-      <c r="AT79" s="225"/>
-      <c r="AU79" s="226"/>
-      <c r="AV79" s="226"/>
-      <c r="AW79" s="226"/>
-      <c r="AX79" s="226"/>
-      <c r="AY79" s="226"/>
-      <c r="AZ79" s="227"/>
+      <c r="AQ79" s="223"/>
+      <c r="AR79" s="223"/>
+      <c r="AS79" s="224"/>
+      <c r="AT79" s="226"/>
+      <c r="AU79" s="227"/>
+      <c r="AV79" s="227"/>
+      <c r="AW79" s="227"/>
+      <c r="AX79" s="227"/>
+      <c r="AY79" s="227"/>
+      <c r="AZ79" s="228"/>
     </row>
     <row r="80" spans="1:52" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="154">
         <v>6</v>
       </c>
       <c r="C80" s="155"/>
-      <c r="D80" s="250" t="s">
+      <c r="D80" s="251" t="s">
         <v>301</v>
       </c>
-      <c r="E80" s="251"/>
-      <c r="F80" s="251"/>
-      <c r="G80" s="251"/>
-      <c r="H80" s="251"/>
-      <c r="I80" s="251"/>
-      <c r="J80" s="251"/>
-      <c r="K80" s="252"/>
-      <c r="L80" s="253" t="s">
+      <c r="E80" s="252"/>
+      <c r="F80" s="252"/>
+      <c r="G80" s="252"/>
+      <c r="H80" s="252"/>
+      <c r="I80" s="252"/>
+      <c r="J80" s="252"/>
+      <c r="K80" s="253"/>
+      <c r="L80" s="254" t="s">
         <v>300</v>
       </c>
-      <c r="M80" s="251"/>
-      <c r="N80" s="251"/>
-      <c r="O80" s="251"/>
-      <c r="P80" s="252"/>
-      <c r="Q80" s="254" t="s">
+      <c r="M80" s="252"/>
+      <c r="N80" s="252"/>
+      <c r="O80" s="252"/>
+      <c r="P80" s="253"/>
+      <c r="Q80" s="255" t="s">
         <v>280</v>
       </c>
-      <c r="R80" s="255"/>
-      <c r="S80" s="255"/>
-      <c r="T80" s="255"/>
-      <c r="U80" s="255"/>
-      <c r="V80" s="255"/>
-      <c r="W80" s="255"/>
-      <c r="X80" s="255"/>
-      <c r="Y80" s="255"/>
-      <c r="Z80" s="256"/>
-      <c r="AA80" s="228" t="s">
+      <c r="R80" s="256"/>
+      <c r="S80" s="256"/>
+      <c r="T80" s="256"/>
+      <c r="U80" s="256"/>
+      <c r="V80" s="256"/>
+      <c r="W80" s="256"/>
+      <c r="X80" s="256"/>
+      <c r="Y80" s="256"/>
+      <c r="Z80" s="257"/>
+      <c r="AA80" s="229" t="s">
         <v>281</v>
       </c>
-      <c r="AB80" s="226"/>
-      <c r="AC80" s="226"/>
-      <c r="AD80" s="226"/>
-      <c r="AE80" s="227"/>
-      <c r="AF80" s="228" t="s">
+      <c r="AB80" s="227"/>
+      <c r="AC80" s="227"/>
+      <c r="AD80" s="227"/>
+      <c r="AE80" s="228"/>
+      <c r="AF80" s="229" t="s">
         <v>372</v>
       </c>
-      <c r="AG80" s="226"/>
-      <c r="AH80" s="226"/>
-      <c r="AI80" s="226"/>
-      <c r="AJ80" s="227"/>
-      <c r="AK80" s="229" t="s">
+      <c r="AG80" s="227"/>
+      <c r="AH80" s="227"/>
+      <c r="AI80" s="227"/>
+      <c r="AJ80" s="228"/>
+      <c r="AK80" s="230" t="s">
         <v>373</v>
       </c>
-      <c r="AL80" s="230"/>
-      <c r="AM80" s="221" t="s">
+      <c r="AL80" s="231"/>
+      <c r="AM80" s="222" t="s">
         <v>371</v>
       </c>
-      <c r="AN80" s="222"/>
-      <c r="AO80" s="223"/>
-      <c r="AP80" s="224">
+      <c r="AN80" s="223"/>
+      <c r="AO80" s="224"/>
+      <c r="AP80" s="225">
         <v>44893</v>
       </c>
-      <c r="AQ80" s="222"/>
-      <c r="AR80" s="222"/>
-      <c r="AS80" s="223"/>
-      <c r="AT80" s="225"/>
-      <c r="AU80" s="226"/>
-      <c r="AV80" s="226"/>
-      <c r="AW80" s="226"/>
-      <c r="AX80" s="226"/>
-      <c r="AY80" s="226"/>
-      <c r="AZ80" s="227"/>
+      <c r="AQ80" s="223"/>
+      <c r="AR80" s="223"/>
+      <c r="AS80" s="224"/>
+      <c r="AT80" s="226"/>
+      <c r="AU80" s="227"/>
+      <c r="AV80" s="227"/>
+      <c r="AW80" s="227"/>
+      <c r="AX80" s="227"/>
+      <c r="AY80" s="227"/>
+      <c r="AZ80" s="228"/>
     </row>
   </sheetData>
   <mergeCells count="175">
